--- a/news_data/2015_08.xlsx
+++ b/news_data/2015_08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,9 +22,120 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도-CJ그룹, 관광·식품·물류산업 발전 협약</t>
+  </si>
+  <si>
+    <t>신한카드, 앱카드로 제주도 관광명소 할인쿠폰 제공</t>
+  </si>
+  <si>
+    <t>제주도 특화 앱카드 나왔다…신한카드, 관광지 150곳 이용가능 쿠폰 발급</t>
+  </si>
+  <si>
+    <t>성매매 적발 2년새 2.7배 급증, 제주도는 10배↑..관광객이 원인?</t>
+  </si>
+  <si>
+    <t>성매매 적발 2년새 2.7배, 제주도 10배 증가 '관광객 및 스마트폰 변종 성매매...</t>
+  </si>
+  <si>
+    <t>제주도-CJ E＆M, 제주 관광산업 발전 협약</t>
+  </si>
+  <si>
+    <t>제주도 남북 교차관광 등 5대사업 추진</t>
+  </si>
+  <si>
+    <t>제주도·농가 "크루즈관광·감귤보내기 활성화 기대"</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 중국 크루즈 모항 관계자와 간담회</t>
+  </si>
+  <si>
+    <t>제주도-관광협회, 관광기념품 공모전 입상 18명 시상</t>
+  </si>
+  <si>
+    <t>[기고] 해외 의료관광객 유치로 '제주도 업그레이드' 시켜야</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 현장체험학습 안전과정 교육 운영</t>
+  </si>
+  <si>
+    <t>제주도관광협회 "골프장 개별소비세 감면 연장" 건의</t>
+  </si>
+  <si>
+    <t>다날, 제주도 관광지 이용 특화 앱 '제주바통' 서비스 시작</t>
+  </si>
+  <si>
+    <t>"제주도 방문 관광객 벌써 800만"…사상 최단기간</t>
+  </si>
+  <si>
+    <t>제주도-관광공사, 여행업계 사장단 초청 관광상품 개발 나서</t>
+  </si>
+  <si>
+    <t>제주도 해물요리, 국내외 관광객들에게 "별미" 호평</t>
+  </si>
+  <si>
+    <t>제주도 관광기념품 공모전 당선작</t>
+  </si>
+  <si>
+    <t>부산관광공사, 제주도와 마이스·관광 교류 업무협약</t>
+  </si>
+  <si>
+    <t>구성지 제주도의장 "관광객 부가가치세 환급제 포기 우려"</t>
+  </si>
+  <si>
+    <t>한류스타 이루, 제주도 홍보대사로 위촉. 인도네시아에서 제주관광 홍보</t>
+  </si>
+  <si>
+    <t>한국공항공사제주본부-제주도관광협회, 업무협약 체결</t>
+  </si>
+  <si>
+    <t>제주도내 관광호텔, 2018년에 4000실 이상 초과 공급</t>
+  </si>
+  <si>
+    <t>제주도 관광객'양극화' 내국인 최고치…외국인은 ↓</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 말련서 제주관광 상품 세일즈 전개</t>
+  </si>
+  <si>
+    <t>서울시-제주도, 중국 상하이서 관광 동반 세일즈</t>
+  </si>
+  <si>
+    <t>설악산 사고에 제주도 지진까지…관광명소에 들이닥친 '악재'</t>
+  </si>
+  <si>
+    <t>제주도, 장기 미착공·미준공 관광숙박업 승인 취소</t>
+  </si>
+  <si>
+    <t>제주도, '드림타워' 관광사업계획 변경 승인</t>
+  </si>
+  <si>
+    <t>중국인 관광객 덕에 제주도 경제 '활짝'</t>
+  </si>
+  <si>
+    <t>[동정] 김영진 제주도관광협회 회장</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 중국 산동지역 크루즈관광객 유치 나서</t>
+  </si>
+  <si>
+    <t>역시 관광하면 '제주도!' 국민여행 만족도 3관왕</t>
+  </si>
+  <si>
+    <t>제주도 '메르스 관광영향 분석' 7월 중국리포트 발행</t>
+  </si>
+  <si>
     <t>제주도, 메르스에도 2분기 관광 소비 증가</t>
   </si>
   <si>
+    <t>여름철 '제주도펜션여행'…관광지 가까운 '하바다통나무집펜션' 눈길</t>
+  </si>
+  <si>
+    <t>제주도 관광객들이 꼭 들린다는 제주도맛집은 어디?</t>
+  </si>
+  <si>
+    <t>[뉴스파일] 제주도, ‘드림타워’ 관광 사업계획 변경 승인</t>
+  </si>
+  <si>
     <t>관광숙박업 그렇지 않아도 우후죽순…제주도, 장기미착공 미준공 무더기 승인...</t>
   </si>
   <si>
@@ -34,49 +145,106 @@
     <t>제주도, 장기 미착공 등 11곳 관광숙박업 사업승인 직권취소</t>
   </si>
   <si>
-    <t>여름철 '제주도펜션여행'…관광지 가까운 '하바다통나무집펜션' 눈길</t>
-  </si>
-  <si>
-    <t>제주도-CJ그룹, 관광·식품·물류산업 발전 협약</t>
-  </si>
-  <si>
-    <t>제주도 관광객들이 꼭 들린다는 제주도맛집은 어디?</t>
-  </si>
-  <si>
-    <t>[뉴스파일] 제주도, ‘드림타워’ 관광 사업계획 변경 승인</t>
-  </si>
-  <si>
     <t>이루, 제주도 홍보대사 위촉…인도네시아서 관광 독려</t>
   </si>
   <si>
     <t>중국인 관광객 효과로 제주도 소비 호황</t>
   </si>
   <si>
-    <t>제주도, 메르스에도 2분기 관광 소비 증가 &lt; 경제 &lt; 경제 &lt; 기사본문 - 초이스경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 UPDATED. 2022-10-04 10:07 (화) 로그인 회원가입 모바일웹 전체메뉴 버튼 뉴스+ 경제 산업 금융 피플 포토 뉴스 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 메르스에도 2분기 관광 소비 증가 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 경제 제주도, 메르스에도 2분기 관광 소비 증가 기자명 김슬기 기자 승인 2015.08.11 13:43 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 제주 올레길 [초이스경제 김슬기 기자] 메르스 여파에도 제주 지역 관광산업 소비 증가세는 오히려 확대됐다. 반면 제조업 경기 위축으로 울산 지역 소비는 하락세를 보였다.11일 통계청이 발표한 '시도 서비스업 생산 및 소매판매 동향'에 따르면 2분기 울산 지역 소매판매는 전년동기 대비 0.3% 감소했다. 울산 지역 소매판매는 1분기(-1.7%)에 이어 2분기 연속으로 마이너스를 기록했으며 전국 16개 시도 중 소비가 유일하게 감소했다.통계청 측은 "생산이 활발하게 이뤄지면 소비도 덩달아 늘어나는 경향이 있는데 울산은 제조업 부문에서 생산 증가율이 전국 평균보다 낮은 상황"이라며 "제조업 부진이 소비에 영향을 미친 것으로 보인다"고 밝혔다.반면 제주 지역은 관광 산업 활성화의 영향으로 6월 중동호흡기증후군(메르스) 여파에도 불구하고 2분기 소매판매가 전년동기 대비 8.3% 늘어 전국에서 가장 증가율이 높았다. 특히 승용차·연료소 매점, 대형마트 등의 판매가 늘었다.제주 지역 소매판매 증가율은 ▲2014년 3분기 2.4% ▲2014년 4분기 1.9% ▲2015년 1분기 7.8% ▲2015년 2분기 8.3% 등으로 상승폭이 확대되고 있다.통계청 관계자는 "제주는 6월에 메르스의 영향을 받았지만 4월과 5월에 워낙 좋았기 때문에 2분기 전체로는 크게 늘었다"면서 "3분기에는 관광객 감소의 영향을 다소 받을 수 있을 것으로 본다"고 말했다.한편 올해 2분기 전국 소매판매 증가율은 3.0%를 기록했다. 제주(8.3%), 충남(4.1%), 강원(3.9%) 등은 소비가 개선됐고 울산(-0.3%), 대전(0.5%), 서울(1.2%), 인천(1.3%), 전북(1.3%) 등은 전국 평균(3.0%)에 못미쳤다.2분기 서비스업 생산은 전년동기 대비 2.4% 증가했다. 제주(5.9%), 충남(4.4%), 광주(3.2%) 는 금융·보험, 부동산·임대, 보건·사회복지 서비스업 등에 힘입어 증가율이 높은 반면 대전,(1.4%), 전북(1.4%), 서울(1.7%), 대구(1.7%)는 숙박·음식점, 출판·영상·방송통신·정보, 운수업 등의 감소 영향으로 부진했다. 김슬기 기자 seul8952@choicenews.co.kr 다른기사 보기 저작권자 © 초이스경제 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 포토뉴스 제주 범섬의 일출 K팝 콘서트의 열기 제주 무지개 해안도로 어때요 8년 만에 돌아온 '러버덕' 꿀 따는 청띠제비나비 사과 잎 따기 '한창' '추분' 가을 하늘 메밀꽃 '활짝' 인기 기사 1 '양대 악재' 속...미국증시 '막판 급랭" 2 미국증시 S&amp;P500 '급락'...크루즈 3인방 · 나이키 '추락' vs 트위터 '껑충' 3 영국 주택 시장, '놀라운 회복력'...무슨 일? 4 올해 480억달러 사상최대 무역적자 전망...원화환율 '초비상' 5 미국증시 나스닥100 '추락'...LULU · SWKS '급락' vs 바이오젠 '상승' 6 시진핑 중국 국가주석, C919 여객기 프로젝트팀 대표 접견 · 성과 높이 평가 7 OPEC+, 생산 감축 논의에도... 경기침체 속 국제유가 ·미국증시 에너지주 '뚝' 8 미국 주택시장 매입계약 취소율, 두 달 연속 15% 넘어 9 중국, 디지털 경제 발전으로 새로운 직업 급증 10 "HMM, 4분기부터 실적 크게 부진할 듯"...대신증권 굿모닝 경제 뉴스 "삼성엔지니어링, 국내외 대규모 프로젝트 주목"...한화투자증권 [초이스경제 이영란 기자] 한화투자증권은 4일 삼성엔지니링에 대해 "수주 성장에 대한 기대가 현실화되는... 코스피 상승 출발 속, 삼성전자 · SK하이닉스 '장초반 급반등' 중국 철도그룹 "9월부터 연말까지 25개 철도 프로젝트 착공" 국내 제조기업, 자금난 '비상' HOT 클릭 뉴스 강달러, 미국 하이테크 산업엔 오히려 타격 [초이스경제 곽용석 기자] 해외여행이나 해외송금을 고려하고 있는 미국인에게 달러 강세는 희소식이지만 이익... 프랑스 에어비앤비, 집주인이 친환경 숙소로 개조하는 것 지원 중국, 디지털 경제 발전으로 새로운 직업 급증 프랑스 지하철, 에너지 절감 위해 올 겨울 더 춥고 느린 운송 고려 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 마포구 백범로31길 8 , 제업무시설동 403호·404호 (공덕SK리더스뷰) 대표전화 : 02-565-7276 팩스 : 02-2234-7276 청소년보호책임자 : 이미애 법인명 : 주식회사 초이스경제 제호 : 초이스경제 등록번호 : 서울, 아02162 등록일 : 2012-06-18 발행일 : 2012-07-05 발행인 : 최원석 편집인 : 이영란 초이스경제 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 초이스경제. All rights reserved. mail to webmaster@choicenews.co.kr 위로 전체메뉴 전체기사 경제 전체 경제 글로벌 IT 경제 핫 이슈 경제 · 산업 이슈 세계 부동산 소식 재벌뷰 산업 전체 산업 글로벌 IT 세계 부동산 소식 경제 · 산업 이슈 금융 전체 금융 뉴스 국내 금융 마켓 핫 이슈 환율 보도자료 피플 전체 칼럼 인사 동정 장경순의 만필세상 포토 뉴스 전체 포토 뉴스 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 드림타워 관광호텔 사업계획 조건부 변경 최종 승인 &lt; 경제일반 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 드림타워 관광호텔 사업계획 조건부 변경 최종 승인 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 경제일반 제주도, 드림타워 관광호텔 사업계획 조건부 변경 최종 승인 기자명 최병근 기자 입력 2015.08.03 12:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주드림타워 지상 38층·높이 169m, 건축연면적 30만2777㎡ 규모로 확정 ▲ 동화투자개발(주)가 2014년 5월 제출한 사업계획이 1년여의 심의 끝에 최종 조건부 승인이 떨어졌다. 제주도 관계자들이 3일 제주도청 기자실에서 브리핑을 열고 서업계획 변경승인을 발표하고 있다.[제주도민일보=최병근 기자] 동화투자개발(주)가 2014년 5월 제출한 제주 드림타워의 최종 승인이 떨어졌다. 단서 조항을 단 조건부 승인이다.제주도는 3일 동화투자개발(주)의 제주 드림타워 관광사업계획 변경승인신청을 검토한 결과 최종 조건부 승인했다고 발표했다.제주드림타워 사업시행자인 동화투자개발(주)는 지난 6월 4일 관광호텔 776실 규모의 관광사업계획 변경승인신청을 제주도에 제출했다.동화투자개발(주)는 지난해 5월 지상 56층, 높이 218m, 건축연면적 306,517㎡의 관광호텔 사업계획을 제출했다. 이후 지난 6월 4일 지상 38층, 높이 169m, 건축연면적 302,777㎡규모로 사업 규모를 변경해 제주도에 다시 제출했다.이에 따라 제주도 교통정책과는 일주서로 확장사업 등 교통개선에 따른 분담금 78억원 중 납부되지 않은 42억원을 동화투자개발(주)측에 착공 전에 납부토록 했다.관련 부서인 수자원본부는 제주드림타워에 하루 필요한 물 5467㎥ 가운데 월산과 애월정수장에서 생산된 상수를 염통배수지를 통해 3000㎥를 공급할 계획이다.부족한 용수량은 애월 및 어승생정수장 인근에 사업자가 비용을 부담(수도법 제71조 규정에 의해 원인자부담 사업 시행)해 하루에 6000㎥ 취수할 수 있는 수원을 개발한뒤 필요한 3000㎥을 공급할 계획이다.나머지 3000㎥는 수자원본부가 활용해 인근 급수구역내 개발 수요에 안정적으로 대처할 수 있도록 할 방침이다.▲ [제주도민일보 DB] 제주드림타워 조감도또한 제주도는 사업자에게 하수 처리 계획에 대해 수차례 친환경적 처리가 가능하도록 보완할 것을 요구했다.이 결과 총 발생량(4968㎥/일) 가운데 2248㎥/일은 공공하수도로 연결처리하고, 나머지는 1차 고도처리 한 다음 1000㎥/일은 중수도로, 나머지 1720㎥/일은 친수용수로 사용한 뒤 전용관(사업부지에서 L=2.0km 매설)을 통해 농경지 인근 흘천으로 방류될 것이라고 밝혔다.친수용수(1720㎥/일)는 고도 처리된 물로 드림타워에 랜드마크적인 친수공간을 조성하는데 활용된다. 친수공간은 음악분수와 경관조명 등을 활용해 레이져 쇼 등 야간볼거리를 제공한다. 관광객이나 주민 누구나 쉽게 접근할 수 있도록 개방돼 시민의 휴식문화공간으로 활용된다.특히 제주도 수자원본부 관계자는 “오수를 깨끗하게 자체 정화해 친수공간 용수로 활용하는 것은 도내 최초이고 모범적인 모델로 개발되는 사례가 될 것”이라고 밝혔다. 수자원본부는 친수용수에 대해 수질 기준 이상의 엄격한 관리를 해나갈 방침이다.제주도는 이러한 부서별 검토의견을 토대로 승인조건을 부과해 관광사업계획을 변경 승인했다.승인 조건은 신규일자리창출 및 지역경제 활성화를 위해 2018년까지 계획한 대로 완공되면 호텔운영에 따른 정규직 약 1557명 중 1300여명(80%)이상을 도민으로 채용하도록 했다.지역건설산업 활성화 촉진을 위해 공사진행단계에 지역건설업체 참여를 극대화 해 나가도록 했다.아울러 제주도는 승인 이후 엄격한 절차 이행을 감독해 나감은 물론 보완사항이 나타날 경우 사업이행과정에서 각 부문마다 보완될 수 있도록 철저하게 관리한다는 방침이다.한편 관광사업계획 변경승인 후 건축허가는 제주시가 담당한다. 도의 관광사업계획승인을 요하지 않는 일반호텔 850실 또한 제주시로부터 직접 건축허가 절차를 밟아 추진하게 된다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 장기 미착공 등 11곳 관광숙박업 사업승인 직권취소 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' [특징주] 캐스텍코리아 주가 상한가 '포르쉐 상장 시총 4위' [특징주] 오성첨단소재 주가 상한가 '상장적격성 실질심사 제외' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 장기 미착공 등 11곳 관광숙박업 사업승인 직권취소 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 장기 미착공 등 11곳 관광숙박업 사업승인 직권취소 기자명 고병수 기자 입력 2015.08.04 15:38 수정 2015.08.04 15:40 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주도는 2013년 이전에 관광숙박업 사업계획 승인을 받고 착공을 하지 않거나 장기간 공사가 중단된 관광숙박업 사업계획 승인 11곳 572실을 직권취소했다고 4일 밝혔다.도는 승인기간 연장을 요청한 16개 사업장 1575실에 대해 사업계획 승인 취소를 유보했으나 이 사업장도 올해 말까지 정상적으로 공사가 추진되지 않을 경우 청문절차 등을 거쳐 사업계획 승인을 취소할 계획이다.관계자는 "부동산 매매 목적이나 명확한 자금계획 없이 관광숙박업 사업계획 승인을 득했으나 최근 숙박시설 과잉공급에 대한 우려 등으로 착공이 지연되는 사업장이 증가하고 있다"며 "앞으로 관광숙박시설 공급조절을 위해 장기 미착공․미준공 사업장에 대해 사업계획 취소 등 행정절차를 엄격하게 이행하겠다"고 말했다. 한편 2013년도에 관광숙박업 사업계획 승인을 득하고 현재까지 착공을 하지 않은 사업장은 32곳 2449실로 조사됐다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 최신뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 포토뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>여름철 ‘제주도펜션여행’…관광지 가까운 ‘하바다통나무집펜션’ 눈길 &lt; 생활 &lt; 문화/연예 &lt; 기사본문 - 시티저널 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 뉴스 지역뉴스 정치/행정 사회 경제 교육 문화/연예 스포츠/레저 웰빙/건강 정보과학 기자수첩 독자기고 커뮤니티 칼럼 사람들 자유게시판 구인 구직 아르바이트 포토&amp;영상 포토뉴스 영상뉴스 독자사진 카툰 기사제보 기사검색 검색 최종편집 : 2022-10-03 10:19 (월) 처음으로 로그인 회원가입 본문영역 이전 기사보기 다음 기사보기 여름철 ‘제주도펜션여행’…관광지 가까운 ‘하바다통나무집펜션’ 눈길 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화/연예 생활 여름철 ‘제주도펜션여행’…관광지 가까운 ‘하바다통나무집펜션’ 눈길 기자명 이정현 기자 입력 2015.08.10 10:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 사진제공 하바다통나무집펜션 [ 시티저널 이정현 기자 ] 본격적인 휴가철이 다가오면서 여행 계획을 세우고 어디에서 묵을지 고민하는 이들이 늘어나고 있다. 이와 관련해 한 여행사에서 여행 만족도에 영향을 끼치는 숙박과 관련 커플, 가족 ,친구 단위 여행객들이 모두 이용 가능한 숙박시설 펜션을 주제로 설문조사를 진행했다. 해당 설문조사에 따르면, ‘펜션 여행하기 가장 좋은 계절은’? 이란 질문에 휴가 시즌인 여름이 38.7%로 가장 많았고 ‘선호하는 펜션 여행 지역’에 대한 물음에는 28.7%로 1위를 차지한 제주도가 뽑혔다. ‘펜션 선택에 가장 중요하게 생각하는 것은 무엇일까’?에는 응답자 28%가 주변 관광지 등의 접근성과 위치를 중요하게 본다고 응답했다. 이 처럼 여름철 선호하는 ‘펜션 여행지’로 손꼽히는 제주도는 이국적인 풍경과 천혜의 경관으로 많은 관광객들의 발길을 사로잡고 있다. 그렇다면 제주도에서 관광지와 접근성이 좋고 비교적 많은 인파들을 피해 여유로운 휴가를 보낼 수 있는 펜션은 어딜까? 이와 관련 제주 올레길 8번 종점과 9번 시작점에 위치한 제주도 대평리 하바다통나무집펜션(대표 서언아)이 특히 주목할만한 제주도펜션으로 사랑받고 있다. 제주도 관광 메카인 중문관광단지와도 가까우면서 일몰이 장관인 박수기정의 풍경도 볼 수 있어 관광 일정을 짜기에도 알맞은 것. 중문펜션이자 독채펜션인 하바다통나무집팬션은 중문관광단지까지 자동차로 10분 정도 이동하면 도착할 수 있으며, 진귀한 볼거리가 가득한 믿거나 말거나 박물관, 테디베어 박물관 등 남녀노소 즐길 수 있는 실내외 관광지를 구경할 수 있다. 해당 펜션은 제주도 군산과 기암절벽으로 둘러싸인 해안 올레킬 코스에 위치해 있으며, 통나무로 만들어진 복층 독채펜션으로 다른 관광객들의 소음에 방해받지 않으면서 오롯이 휴식을 취할 수 있다. 또한 바닷가에 위치한 제주도 바닷가펜션 중 하나로 전 객실에서 제주도 푸른 바다를 구경할 수 있으며 바다레저 중 하나인 낚시도 즐길 수 있다. 통나무집 17평 3채와 목조 주택 23평 3채 모두 통나무와 목재 등 친환경적 재료로 지어 통나무 특유의 솔향기와 피톤치드를 느낄 수 있으며, 벌레로 인한 피해와 전염병 예방을 위해 방역시설 세스코는 물론 세콤 같은 안전시설도 마련했다. 바비큐 그릴을 포함한 취사도구가 펜션 동마다 갖춰져 있어 제주도 바다에서 직접 잡은 해산물로 식사도 가능해 오붓한 추억을 쌓고 싶은 가족, 커플, 친구 여행객들이 선호하는 서귀포펜션 중 하나다. 서언아 대표는 “힐링을 위해 온 여행인 만큼 머무시는 분들에게 쾌적하고 안락한 숙수 환경을 제공하기 위해 최선을 다하고 있다”면서 “통나무펜션인만큼 나무가 실내 습도를 조절해 피톤치드 산림욕 효과도 누릴 수 있는 고객 만족도가 높은 제주도팬션 중 하나다”고 전했다. 이정현 기자 happyenc12@nate.com 다른기사 보기 저작권자 © 시티저널 무단전재 및 재배포 금지 당신만 안 본 뉴스 국민의힘 대전시당 2차 당직 인선 이장우 시장 뿔났다... 공약사업 관련 조례안 부결 대전시의회 송인석 예결위원장, 대전교육청 향해 경고 대전 유아교육비 지원 조례 제정 찬반 의견 대립 대전시의회 박종선의원, 할말은 한다... "전교조, 대전시의회 모독한다" 이장우·이상래 현대 아웃렛 화재 급거 귀국 박주화 교육위원장, 이장우 시장 거수기 역할 못한다 국민의힘 대전시당 2차 당직 인선 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 장철민 의원, 대학생들과 청년법 만든다 더불어민주당 대전시당 - 대전상의 정책간담회개최 유성구의회 윤정희 의원 ,장대교차로 입체방식으로 변경 촉구 중구의회 안형진, 집행부 향해 "적극적인 행정과 협치" 촉구 대전 중구의회, 소상공인진흥공단 이전 반대...결의문 채택 민선8기 첫 번째 시.구정책조정간담회 열려 많이 본 뉴스 정치/행정 경제 사회 문화/연예 교육 1 국민의힘 대전시당 2차 당직 인선 2 이장우 시장 뿔났다... 공약사업 관련 조례안 부결 3 대전시의회 송인석 예결위원장, 대전교육청 향해 경고 4 대전시의회 박종선의원, 할말은 한다... "전교조, 대전시의회 모독한다" 5 더불어민주당, 대전·세종시당 예산정책협의회 개최 6 이장우·이상래 현대 아웃렛 화재 급거 귀국 7 박주화 교육위원장, 이장우 시장 거수기 역할 못한다 8 이장우 '방문객 100만 불가능 아니다' 강조 9 대전시 0시 축제 가시화 ...축제 콘텐츠 개발 연구용역 착수 10 이장우시장 이상래 의장 귀국, 현대아울렛 화재현장 점검 나서 1 황운하, 고지의무 위반 보험금 부지급률 증가...피해 심각 2 부성역 우남퍼스트빌’ 23일 견본주택 개관 1 대전 유아교육비 지원 조례 제정 찬반 의견 대립 2 시민단체 "대전시 시민청구 토론회 개최 하라" 촉구 3 대전 현대 프리미엄 아울렛 화재 사망자 7명 4 실외 마스크 착용의무 26일부터 전면 해제 5 대전 유성 현대아울렛 화재 6 대전시, 자원봉사 물결운동 선포식 개최 7 대전광역치매센터 치매 친화적 환경 조성을 위한 기억울타리 벽화 조성 8 소진공 이전 반대 삭발 투쟁까지...반발 거세 9 둔산소방서, 발달장애인 대상 소방안전교육 10 둔산소방서, 주택용 소방시설 촉진 통장협의회 간담회 개최 1 대전시, 대전 2022년 대한민국 명장·장인전 개최 1 대전교육정보원, SW·AI 융합교육 연수 운영 2 대전교육청, 유치원 맞춤형 컨설팅 장학 연장 운영 3 대전교육청, 하바롭스크한국교육원 업무협약 체결 4 대전시립중·고등학교, 동구 독후 감상문 공모전서 중·고등 부분 최우수상 5 대전교육청, 다시 시작된 글로벌 취업 도전 6 대전원앙초, ‘제4회 청소년 흡연예방 문화제 초등부 영상 부문’대상 수상 7 대전교육청, 2022 학생언어문화개선 교육주간 운영 최신뉴스 천안흥타령춤축제 체험 부스 성황리에 운영 천안기후환경 박람회 개최 청소년의 행복한 성장 지원을 위해 손잡아 서철모 서구청장, 야간 생활폐기물 수거 현장 체험 유성구, 신성동 복합커뮤니티센터 신축 설계공모 당선작 선정 포토뉴스 둔산소방서, 주택용 소방시설 촉진 통장협의회 간담회 개최 대전 유성 현대아울렛 화재 둔산소방서, 발달장애인 대상 소방안전교육 대전소방, 전국 소방기술경연대회 우승 위해 도전 ! 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 유성구 유성대로 773, 301호(장대동) 대표전화 : 042)320-2453 팩스 : 042-367-0012 청소년보호책임자 : 김선호 법인명 : 대전시티저널 제호 : 시티저널 등록번호 : 대전아00009 등록일 : 2006-09-11 발행인 : 김선호 편집인 : 안희대 시티저널 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시티저널. All rights reserved. mail to info@gocj.net 위로 전체메뉴 전체기사 정치/행정 전체 2018 지방선거 현장 출마합니다 경제 사회 교육 전체 교육일반 평생학습 문화/연예 전체 문화일반 연예 도서/문학 공연/전시 생활 웰빙/건강 스포츠/레저 전체 스포츠일반 레져 야구 축구 농구 배구 정보과학 지역뉴스 전체 대전시 동구 중구 서구 유성구 대덕구 충남 전체 도청 공주시 논산시 당진시 보령시 서산시 아산시 천안시 금산군 부여군 서천군 연기군 예산군 청양군 태안군 홍성군 계룡시 사람들 전체 인터뷰 동정 인사 부고 결혼 칼럼 보도자료 전체 성명/논평 건강 경제 과학 교육 문화 사회 정치 행정 대덕특구 대전지방경찰청 대전지방병무청 관세청 문화재청 보훈청 산림청 특허청 조달청 기자수첩 독자기고 카툰 사고 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도-CJ그룹, 관광·식품·물류산업 발전 협약 - 日刊 NTN(일간NTN) S2N65 × 전체기사 정책 전체 재정 /예산 / 결산 금융/증권/보험 건설 /주택/ 부동산 자원/에너지/환경 보건 / 복지 / 의료 /건강 고용 / 노동 / 창업 수출 / 무역 /교통 /물류 임금 / 소득 / 재테크 통계 / 지표 / 가계소득 세법 / 세제 / 조세 / 관세 IT/산업/과학 /미래 환율 / 물가 / 경기 생활/ 문화 / 교육 /기타 공무원 /공기업 / 공사 산업·기업 전체 기업일반 / 중소기업 /상공인 IT /과학 / 산업정책 유통/소비자 / 백화점 주류/담배/면세점 기업 공시 /경제 단신 대기업/ 임원/ 총수 자동차 / 물류 / 운송 /해운 자원 / 환경 / 전기,에너지 건설업 / 주택/ 부동산 예술/문화/ 연예/스포츠 은행 / 증권/ 보험 /카드 고용 / 노동/ 임금/ 노조 /소득 의료/건강/생활/여행 財테크/금융가이드/주식/펀드 CEO / 기업 동정 광고/ 이벤트/기타 유권해석 전체 예규 판례 심판례 심사례 헌재결정 상담사례 기타 조세행정 전체 내국세 지방세 관세 기금/부담금 사회보험 국제조세 기타 연말정산 / 환급 오피니언 전체 세정칼럼 데스크칼럼 취재수첩 오피니언 기타 건강칼럼 특별기고 시사영어 해외화제 오늘의 영어 유사단어 세종砲音 테마여행 사람들 전체 프리즘 거꾸로한마디 말말말 기타 동정 인사 부음 잔치 기타 인사기타 인터뷰/르뽀 안테나 전문가 전체 세무사 회계사 변호사 관세사 기타 연구소/ 연구원 교수 / 학계 법무법인/ 회계법인/ 세무법인 동서남북 전체 청와대 / 총리실 /감사원/외교부/통일부/국방부 기재부/통계청/조달청 국세청 / 조세심판원 관세청/지방세관 행자부/지방자치단체/인사혁신처/권익위 금감원/ 금융위 /한은/결제원 검찰 / 경찰/ 법원 /헌재/사고 공정거래위 국토교통부 국회/국회의원/당정회의 공공기관/협회 및 단체/기타 산업통상자원부 /중기청 한국거래소/증권선물위 보건복지/문화체육/미래창조/농림축사/환경/노동부 지방청/세무서 이슈/기획 전체 포커스 기획특집 탐사보도 기고 기타 현장탐방 뉴스브리핑 연재 전체 13th 월급, ‘연말정산 절세포인트’ 최동현세무사, ‘CEO의 절세비법’ 쟁점세법, 금주의 법령해석 성종헌 세무사의 알아두면 유익한 세금구제사례 알기쉬운 OECD모델 조세협약 국세청 법인세 사후검증 사례 한성수 세무학 박사의 알기 쉽게 번역된 2012년 OECD모델조세 협약 김종관 세무사의 조세불복 비법 창간축사 만화 연합뉴스 전체 기타 정치 경제 사회 문화 스포츠/레저 국제 지방 IT/과학 북한 민족 경제 금융 일반 스포츠 특집 연예 UPDATED. 2022-10-04 10:01 (화) 로그인 회원가입 모바일웹 전체 정책 재정 /예산 / 결산 금융/증권/보험 건설 /주택/ 부동산 자원/에너지/환경 보건 / 복지 / 의료 /건강 고용 / 노동 / 창업 수출 / 무역 /교통 /물류 임금 / 소득 / 재테크 통계 / 지표 / 가계소득 세법 / 세제 / 조세 / 관세 IT/산업/과학 /미래 환율 / 물가 / 경기 생활/ 문화 / 교육 /기타 공무원 /공기업 / 공사 산업·기업 기업일반 / 중소기업 /상공인 IT /과학 / 산업정책 유통/소비자 / 백화점 주류/담배/면세점 기업 공시 /경제 단신 대기업/ 임원/ 총수 자동차 / 물류 / 운송 /해운 자원 / 환경 / 전기,에너지 건설업 / 주택/ 부동산 예술/문화/ 연예/스포츠 은행 / 증권/ 보험 /카드 고용 / 노동/ 임금/ 노조 /소득 의료/건강/생활/여행 財테크/금융가이드/주식/펀드 CEO / 기업 동정 광고/ 이벤트/기타 유권해석 예규 판례 심판례 심사례 헌재결정 상담사례 기타 조세행정 내국세 지방세 관세 기금/부담금 사회보험 국제조세 기타 연말정산 / 환급 오피니언 오피니언 세정칼럼 데스크칼럼 취재수첩 기타 건강칼럼 특별기고 시사영어 해외화제 오늘의 영어 유사단어 세종砲音 테마여행 사람들 프리즘 거꾸로한마디 말말말 기타 동정 인사 부음 잔치 기타 인사기타 인터뷰/르뽀 안테나 동서남북 청와대 / 총리실 /감사원/외교부/통일부/국방부 기재부/통계청/조달청 국세청 / 조세심판원 관세청/지방세관 행자부/지방자치단체/인사혁신처/권익위 금감원/ 금융위 /한은/결제원 검찰 / 경찰/ 법원 /헌재/사고 공정거래위 국토교통부 국회/국회의원/당정회의 공공기관/협회 및 단체/기타 산업통상자원부 /중기청 한국거래소/증권선물위 보건복지/문화체육/미래창조/농림축사/환경/노동부 지방청/세무서 본청 서울청 중부청 대전청 광주청 대구청 부산청 기사검색 검색 이전 다음 제주도-CJ그룹, 관광·식품·물류산업 발전 협약 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 산업·기업 기업 공시 /경제 단신 제주도-CJ그룹, 관광·식품·물류산업 발전 협약 日刊 NTN 승인 2015.08.28 14:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × S2N65 탄산음료 개발·케이팝 행사 연 1회 개최 제주도·제주도개발공사·제주관광공사와 CJ그룹은 28일 제주도청에서 '제주의 관광·식품·물류산업 발전 및 제주 향토기업의 경쟁력 강화와 상생 발전을 위한 상호 협력' 업무협약을 체결했다.원희룡 제주지사와 손경식 CJ 대표이사 회장은 앞으로 3년 동안 제주를 방문하는 내·외국인을 대상으로 한류 및 한식 문화를 홍보·확산하고, 제주 향토기업과 물류 등 제반 산업발전을 위해 협력해 적극적인 투자를 추진하기로 했다.CJ는 본사 및 계열회사의 역량과 인프라를 적극적으로 활용해 투자 대상이 되는 사업아이템 발굴 및 사업화와 제주 향토기업과의 연계·육성을 위한 제반 업무를 수행한다.도는 CJ가 역할을 충분히 수행할 수 있도록 제도적·행정적 지원을 제공하고, CJ가 추진하는 사업에 협력한다.제주도개발공사(사장 김영철)와 CJ제일제당(대표이사 김철하)은 천연 탄산수를 포함한 제주도 먹는 물을 이용한 탄산수 및 탄산음료 사업과 물 이외의 제주도 자원을 활용한 사업을 추진하기로 했다.양측은 오는 2016년 4월 전에 탄산수 및 탄산음료가 출시될 수 있도록 최대한 노력한다.제품 개발, 제조, 마케팅, 판매·영업에 있어 최선의 사업 구조를 도출하기 위해 양측이 출자·운영하는 별도 법인 설립도 검토하기로 했다.CJ제일제당은 제주도 내 사회공헌 활동에 관심을 기울이고, 친환경 산업 발전을 위해 노력한다.제주관광공사(사장 최갑열)와 CJ E＆M(대표이사 김성수)은 '제주관광의 글로벌 경쟁력 강화와 지속 가능한 발전을 위한 전략적 업무 제휴 협약'을 체결했다.청정 자연과 한류 콘텐츠를 활용해 제주를 고품격 문화관광 목적지로 도약시키기 위해 케이팝 행사를 하는 'KCON(K-pop Convention) JEJU'(가제)를 연 1회 제주에서 개최한다.CJ E＆M은 행사 관련 콘텐츠를 개발·운영하고, 여행사 상품 개발과 관광객 유치를 지원한다. 행사를 공동으로 기획·운영하고, 채널·네트워크를 활용해 행사를 홍보한다.제주관광공사는 행사의 원활한 진행과 관광객 유치를 위한 홍보·마케팅을 진행하고, 행사와 연계한 관광상품을 발굴해 홍보한다. 제주도 및 관련 기관과의 행사 관련 연계 업무에 대한 협력을 강화한다.도는 이번 협약으로 CJ가 보유한 식품산업과 물류체계, 엔터테인먼트 및 미디어를 통해 제주의 청정한 농·축·수산물의 판로를 개척할 수 있을 것으로 기대하고 있다. 케이팝 행사 개최를 통해서 국내외 관광객을 대거 유치해 지역경제 활성화에도 많은 도움이 될 것으로 보고 있다. 저작권자 © 日刊 NTN(일간NTN) 무단전재 및 재배포 금지 日刊 NTN kukse219@naver.com 다른기사 보기 부산국세청,중소기업 세무컨설팅 제도 현장 설명회 개최 김창기 청장, 디지털세 2024년 집행 국제협력 방안 등 논의 거주 이전 위한 ‘부득이한 3주택’…중과세율 적용 안 돼 ‘최저가 강요’ 배달앱 요기요, 공정거래법 위반 혐의 1심서 무죄 30일 시간 외 화일약품 종가대비 9.18% 하락 마감 [정창영 칼럼] 정부 정책 믿어야 하나, 세법도 걱정이다 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 가장 많이 본 기사 1[정창영 칼럼] 정부 정책 믿어야 하나, 세법도 걱정이다 229일 시간외 네이처셀·흥국화재2우B…9.97·9.86%↓ 3HL만도 조성현 수석 사장· HL홀딩스 김광헌 사장 임명 등 HL그룹 인사 단행 4최저신용자 특례보증 기본대출금리 15.9%,금융위 대부업자인가? 528일 시간외 이엔플러스·SCI평가정보·비엘팜텍…9.99·9.87·9.64%↑ 6국세청, "잊고 있던 소득세 환급금 2744억원 찾아가세요" 7수상한 해외송금 10조 수사압박 본격화… 우리·신한은행 압수수색 8[세무법인 다솔의 ‘절세 노하우’ 세무상담] 상속세와 부동산의 물납 95년간 행안부 국고보조금 부정수급 2억 3천만원 적발, 절반 미환수 10[국세 예규] “적격 합병, 피합병법인 ‘기한 경과 결손금’ 승계 안 돼” 최신 판례 거주 이전 위한 ‘부득이한 3주택’…중과세율 적용 안 돼 ‘최저가 강요’ 배달앱 요기요, 공정거래법 위반 혐의 1심서 무죄 업무 관련 지인과 골프모임 가진 공무원 “정직 처분 정당” GS그룹 오너 일가도 주식 양도세 소송 승소…“23억 부과 취소” "물가변동 급등 '계약 분쟁' 곳곳에서 터진다"...적극 대응 시급 이시각 헤드라인 기업뉴스 30일 시간 외 화일약품 종가대비 9.18% 하락 마감 30일 시간외 시티랩스·오픈엣지테크놀로지…10·5.21%↑ 검찰, 대명종합건설 조세포탈 혐의 수사 착수 서울경찰청, 자본시장법 위반 혐의 일양약품 조사중 KCC, 숲·환경 보호 켐페인 ‘숲디가드’ 프로젝트 실시 세정가 현장리포트 부산국세청,중소기업 세무컨설팅 제도 현장 설명회 개최 부산국세청,중소기업 세무컨설팅 제도 현장 설명회 개최 부산지방국세청(청장 노정석)은 29일 울산세무서 대강당에서 울산지역 자동차·선박 등 중소기업 관계자들이 참석한 가운데 중소기업 세액공제·감면 세무컨설팅 제도 현장 설명회를 개최했다... 김창기 청장, 디지털세 2024년 집행 국제협력 방안 등 논의 김창기 청장, 디지털세 2024년 집행 국제협력 방안 등 논의 국세청은 김창기 청장이 28일부터 30일까지 호주 시드니에서 개최되는 제15차 OECD 국세청장회의에 참석했다고 30일 밝혔다.올해는 OECD 국세청장회의 설립 20주년을 맞이하는... 사람들 동정 인사 잔치 부음 삼정KPMG, 10월 5일 전자-IT산업 대상 ‘ESG 세미나’ 개최 기획재정부의 공공기관 운영 문제점과 개선방안 정책토론회 개최 관세청, 적극행정 우수 직원 선정·포상 관세청 배우 송승헌 홍보대사에 위촉 윤태식 관세청장, 3차 한-인도 관세청장 회의 개최 [인사] 관세청 고위공무원 승진 전보 [인사] 공정위 과장급 전보(2022.09.20.字) [인사] 공정위 과장급 전보(2022.09.19.字) [인사] 공정거래위원회 [인사] 공정위 국장급 전보(2022.09.13.字) [결혼] 정삼진 前 남대문세무서장 아들 [결혼] 이한종 세무법인 화우 대표세무사 장녀 [결혼] 최 훈 세무사(전 중부지방세무사회 부회장) 딸 김재철 전 중부지방국세청장, 세무사로서 제2의 인생 출발 김태윤 전 반포서 재산세과장, 예일세무법인에서 새출발 이동준 골드컨트리클럽·코리아컨트리클럽 회장 별세 [부음] 이헌복 미래에셋자산운용 자산배분부문대표 장인상 [부고] 신한은행 홍보부 수석 김은석 부친상 [부고] 송기봉 전 광주지방국세청장 빙모상 [부고] 황영순 세무사(한국세무사회 이사) 모친상 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 마포구 잔다리로3안길 46(서교동), 국세신문사 대표전화 : 02-323-4145~9 팩스 : 02-323-7451 청소년보호책임자 : 이예름 법인명 : (주)국세신문사 제호 : 日刊 NTN(일간NTN) 등록번호 : 서울 아 01606 등록일 : 2011-05-03 발행일 : 2006-01-20 발행인 : 이한구 편집인 : 이한구 日刊 NTN(일간NTN) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 日刊 NTN(일간NTN) . All rights reserved. mail to ntn@intn.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 관광객들이 꼭 들린다는 제주도맛집은 어디? - 디지털타임스 디지털타임스 네이버 뉴스스텐드 구독 채널 구독 뉴스 정치 경제 산업 ICT과학 금융 부동산 국제 피플 방송연예 오피니언 대학소식 동영상 에게 고견을 듣는다 검색 통합검색 닫기 제주도 관광객들이 꼭 들린다는 제주도맛집은 어디? 인터넷마케팅팀 입력: 2015-08-05 18:30 우리나라를 대표하는 관광명소인 제주도. 제주도는 사시사철 관광객들의 방문이 끊이지 않을 뿐 아니라 해외 관광객들도 자주 찾는 명소 중의 명소로 꼽힌다. 이에 따라 제주도에는 관광객들의 입맛을 사로잡는 제주도맛집들도 즐비해 있다. 그 중에서도 '등대와바당'은 제주도맛집, 제주공항근처맛집으로 관광객들에게 큰 인기를 얻고 있다. 고객을 가장 최우선으로 생각하는 서비스, 그윽한 바다의 향내음을 느낄 수 있는 수산물 별미 등을 제공하여 방문객 입맛을 사로잡고 있기 때문이다. 등대와바당은 하르방상, 할망상, 아방상, 어멍상 등의 상차림 세트 메뉴를 선보이고 있다. 상차림 세트 메뉴는 황돔, 광어, 갈치회, 고등어회, 전복회, 해물모듬, 옥돔구이, 활어회국수, 성게국, 간장게장 등의 메뉴들로 구성되어 있다. 특히 갈치회, 고등어회 등은 제주 청정 해역에서 어부들이 정성들여 잡은 어족으로 직접 만들어 싱싱한 맛을 자랑한다. 아울러 등대와바당은 다금바리, 갓돔, 구문쟁이, 벵어돔, 황돔, 계절모듬회 등 여러 제철 횟감을 선보이고 있어 고객 선택 폭을 넓히고 있다. 등대와바당 관계자는 "고객을 가장 최우선으로 생각한다는 마음가짐 아래 매일 첫 손님에게는 어멍상 상차림을 무료로 제공하는 등 특별한 서비스를 제공하고 있다."며 "상차림 메뉴가 존재하지만 고객 개개인의 입맛에 맞도록 맞춤 상차림 서비스도 선보이고 있어 큰 호응을 얻고 있다."고 전했다. 제주도 현지에서 직접 공수해 온 국내산, 자연산 수산물만 취급한다는 점 또한 등대와바당의 장점이다. 등대와바당은 제주도 항구가 바로 보이는 바다뷰를 자랑하는 만큼 식사 시 낭만과 운치를 더 하고 있기도 하다. 등대와바당 관계자는 "제주도맛집, 제주공항근처맛집으로 이름이 알려진 만큼 제주도를 방문하는 관광객들 사이에서 재방문율이 상당히 높은 곳으로 명성을 높이고 있다."며 "싱싱한 제철 수산물과 더불어 바다가 보이는 아름다운 전망을 자랑하는 명소로 각광을 받고 있다."고 전했다. 한편, 등대와바당 메뉴 문의 및 예약은 전화(064-743-0551) 홈페이지 www.제주도맛집.net 으로 가능하다. 인터넷마케팅팀 [저작권자 ⓒ디지털타임스 무단 전재-재배포 금지] 핫 이슈! 좌표찍기·언론탄압? 대통령실, 4년전 靑대변인 본받았다면…[한기호의 정치박박] [The Car] “해외서는 G80보다 우위”…입지 공고해지는 제네시스 G70 中 20차 당대회 끝나면 대만이 위험하다[박영서의 글로벌 아이] [THE GAME] 넥슨, 신작 잭팟에 인재 채용… 흥행 영수증 잇는다 이 시간 핫클릭 김기현 폭발, 이재명 겨냥 “형수에 욕설 퍼붓고도 큰소리 뻥뻥…기가 찰 노릇” 김건희 박사 논문, 심사위원 5명 필적 "동일인 추정" 감사원 `서해피살` 문 전대통령 정조준…與 "`월북 명예살인` 규명 당연" 국힘 "MBC 尹 발언 왜곡보도후 美백악관에 이간질까지…`바이든` 자막의도 밝혀야" 가장 많이 본 기사 문화일보 핫 뉴스1이스라엘 유적지서 동로마시대 금화 무더기 발굴 2국무총리 정세균?...포항지진피해심의위, 홈페이지 방치하고 태풍 힌남노 복구 기간에 지원금 환수 절차 3“상상도 못할 말로 우릴 씹어대”…박연수, 가족 험담에 분노 4노벨 생리의학상에 ‘인류 진화’ 연구자 스반테 페보 5영국발 금융위기론 촉발한 대규모 감세 정책, 열흘 만에 ‘백기’든 신임 총리 회사소개 고충처리 구독신청 사업제휴 콘텐츠제휴 광고안내 개인정보취급방침 청소년보호정책(책임자 : 손치배) 서울특별시 중구 새문안로22 ☎ 02) 3701-5500 등록번호 : 서울 아01699 등록일자 : 2011.07.15 발행일 : 2000.03.03 발행인/편집인 : 박학용 THE DIGITALTIMES Copyright ⓒ The DigitalTimes. All Rights Reserved. ☎ 02) 3701-5500 Please forward any comment to webmaster</t>
-  </si>
-  <si>
-    <t>[뉴스파일] 제주도, ‘드림타워’ 관광 사업계획 변경 승인-국민일보 시사 시사 &gt; 전체기사 [뉴스파일] 제주도, ‘드림타워’ 관광 사업계획 변경 승인 입력 : 2015-08-06 02:01 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도는 제주시 노형동 ‘드림타워’ 사업 시행자인 동화투자개발에서 신청한 관광 사업계획 변경 승인 요청에 대해 최종 승인했다고 5일 밝혔다. 변경 승인된 드림타워 건축물은 일반호텔과 관광호텔 2개 동이다. 드림타워 사업자는 지난해 5월 높이 218m·지상 56층으로 건축허가를 받았다. 그러나 교통혼잡과 경관파괴 등을 이유로 재검토를 주문하자 높이 169m·지상 38층 규모로 다시 사업승인을 요청했다. 도는 변경 승인과 관련해 교통 개선에 따른 분담금 78억원 중 미납액 42억원을 착공 전 납부토록 했다. GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 직원 폭행에 내연녀 심부름까지…회장님의 ‘갑질’ 의혹 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 직원 폭행에 내연녀 심부름까지…회장님의 ‘갑질’ 의혹 尹, 감사원 文조사 논란에 “대통령 언급 부적절” “날 해치려고?” 칼부림… 마약 하면 누구든 ‘괴물’ 돌변 조종수 김건희, 칼 든 검사들…고교생이 그린 ‘윤석열차’ “서울-평양 올림픽 제안서 보니…北 인프라 구축 22조” 한밤중 횡단보도서 택시에 치인 여중생…보름만에 숨져 김건희 논문 증인들 줄줄이 국감 불출석…野 “국민무시” 갑자기 속도 내 편의점 돌진한 SUV…“잠깐 정신잃어” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 日 22세 거포 무라카미, 56호 홈런으로 신기록 썼다 주호영 “文, 왜 과민반응인지 모르겠다…조사 응해야” 경기도 ‘면접수당’ 문화 확산…지급 인증 기업 모집 임윤찬의 베토벤 ‘황제’ 실황 앨범 11월 발매 이재명, 尹 겨냥 “지금 휘두른 칼날, 스스로에게 되돌아갈 것” 광주의 10월 가을축제 향연…세계 최대 거리공연 첫선 [단독] 文정부 ‘최초 5G 상용화’ 180조원 홍보…과기부 “경제효과 측정 불가” 이재명, 감사원 文 조사에 “‘공포정치’ 尹정부에 강력 경고” 尹대통령, 北미사일에 “NSC 개최”…감사원 조사엔 “일반적 원칙” 완도수목원서 숲속음악회…‘가을산책 문화행사’ 풍성 尹 “북한 4000㎞ 미사일 발사…핵도발, 결연한 대응 직면할 것” 하나투어·질병관리청, ‘SAFETY CODE’ 공동 캠페인 대구경찰 텔레그램 가상자산 마약유통·투약 53명 입건 전남에 전국 첫 저메탄 조사료 종합유통센터 설치 尹, 북 탄도미사일 발사에 “무모한 핵도발, 결연한 대응 직면할 것”</t>
-  </si>
-  <si>
-    <t>이루, 제주도 홍보대사 위촉…인도네시아서 관광 독려 즐겨찾기 추가 글로벌 티브이데일리 중국 SINA.com QQ.com hi好酷.com 홍콩 Yahoo HK Koreastardaily MSN HK 3HK Gameone 대만 Yahoo TW MSN TW 베트남 The gioi dienanh 라오스 Vientiane Times 태국 PPTV 홈 로그인 회원가입 기사제보 방송 가요 예능 영화 포토 영상뉴스 해외연예 인터뷰 연예칼럼 문화/사회 만화 이루, 제주도 홍보대사 위촉…인도네시아서 관광 독려2015. 08.12(수) 09:44 가수 이루 [티브이데일리 연휘선 기자] 가수 이루가 제주도 홍보대사로 위촉됐다. 지난 11일 이루는 제주특별자치도 홍보대사로 임명돼 원희룡 제주도지사와 함께 인도네시아를 방문했다. 이날 이루는 제주 관광 발전을 위해 자원봉사 형식으로 원희룡 지사의 일정에 동행했다. 그는 향후 인도네시아에서 2박 3일 동안 다양한 이벤트와 프로모션을 펼치며 제주 관광을 독려할 예정이다. 앞서 이루는 인도네시아에서 한류 열풍을 일으키며 국산품 애용에 앞장서 한국 제품에 대한 현지인들의 관심을 이끌었다. 또한 한국음식문화재단과 함께 한식문화를 알리는 등 민간외교에 힘써 양국 정부로부터 표창을 받은 바 있다. [티브이데일리 연휘선 기자 news@tvdaliy.co.kr/ 사진제공=이루엔터테인먼트] 기사제보 news@tvdaily.co.kr        연휘선 기자의 다른 기사 보기 키워드 : 이루 | 이루 제주 홍보대사 | 제주 관광 이루, '멀리서 보면 푸른 봄' 캐스팅…情 넘치는 박 교수 역 ‘밥이 되어라’ 이루, 이제는 완성형 연기자 이루 '까만 안경', 10대들 애창곡 등극…역주행 인기 이루 '까만안경', 15년 만에 역주행 신호탄 [단독] 아이유, 해외 일정 중 확진자와 밀접접촉→춘사영화제 불참'마약 혐의' 돈 스파이크, 사실상 연예계 퇴출 [이슈&amp;톡] 뒤늦게 연애리얼리티 열풍 합류한 디플, 기대와 우려… 열애설 수습 나선 박민영, 석연치 않은 해명에 등돌… '불타는 트롯맨' vs '미스터트롯2', 패널 눈치… 코인 자본 흡수한 K-컬처 시장의 빛과 그림자 [엔… 두나무X하이브·YG플러스 만남, K-팝 새 시장 창… '작은 아씨들' 엄기준 자살→김고은 70… 결혼 앞둔 지연♥황재균, 애정 가득 헬스… '황금가면' 이중문, 나영희에 일침 "S… '작은 아씨들' 남지현·위하준, 엄기준 … 김선호 미공개 사진 대방출, 밝은 미소 … "너무 무례" 박은지, 늦은밤 경비실 인… '갑상선 유두암 완치' 박소담, 라디오 … [TD포토+] 정은지 '완벽한 몸매'[TD포토+] 김규리 '핑크빛 여신강… 러시아 래퍼, 푸틴 '동원령'에 반발→극단적 선택 두아 리파X트레버 노아, 열애설 부인 "… 두아 리파, 11살 연상 유명 코미디언과… 美 유명 래퍼 쿨리오 사망 아나운서 ‘임현주’의 참된 외모 사용법 [윤지혜의 대중탐구영역] 김혜수ㆍ장근석, 가족경영 폐해를 대하는 … '너를 만났다' 다큐의 존재 목적, 저희… 백종원, 다 큰 어른에게도 혼내 줄 사람… 회사소개 회원약관 개인정보취급방침 청소년보호정책 고객센터 제휴문의 광고문의 인터넷신문윤리강령 - 바로가기 - 스포츠투데이 더셀럽 명칭 : (주)티브이데일리등록번호 : 서울 아 00742등록연월일 : 2009.1.21제호 : 티브이데일리발행/편집인 : 김범열 발행소 : (07803) 서울특별시 강서구 마곡중앙6로 66, B동 1204호발행연월일 : 2009.1.28청소년보호책임자 : 이선민 TEL : 02)3443-8246~7FAX : 02)3443-8248Copyright(c) TV Daily. All rights reserved.</t>
-  </si>
-  <si>
-    <t>중국인 관광객 효과로 제주도 소비 호황 - 이투데이 속보창 구독신청 RSS 경제 경제 정책 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 경제 정책 중국인 관광객 효과로 제주도 소비 호황 입력 2015-08-13 13:40 박상영 기자																								sypark@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 중국인 관광객들로 인해 올 2분기 제주도 지역 소비 부문이 호황을 나타냈다.통계청이 13일 발표한 올 2분기 시도별 지역경제동향에 따르면 전국의 대형소매점판매는 작년 동기 대비 1.8% 줄어든 가운데 제주도는 8.4% 늘어 작년 말부터 3분기 연속으로 증가율 1위를 나타냈다. 다만 지난 6월 중동호흡기증후군(메르스) 사태가 발생하면서 지난해 4분기(13.3%)와 올 1분기(18.0%)에 비해서는 소비 증가세가 한풀 꺾였다.이밖에 충북(6.8%), 충남(6.2%), 광주(4.4%)를 포함해 모두 4개 지역에서 소비가 늘었다. 나머지 지역은 가전제품과 음식료품, 신발·가방 등의 판매가 부진하면서 소비가 줄었는데 전남(-6.0%), 대전(-5.8%), 인천(-5.6%) 순으로 감소폭이 컸다.한편 2분기 전국의 소비자물가 상승률은 0.5%에 그쳤다.전남, 충북 지역이 작년 같은 기간보다 0.2% 하락했고, 가장 많이 오른 서울(0.9%)이나 부산(0.8%), 인천(0.8%)도 0%대에 머물렀다.체감물가를 나타내는 전국 생활물가는 1년 전 대비 -0.4%를 기록해 2분기 연속 하락세를 이어갔다. 부산·제주(0.1%), 서울(0.0%)을 제외한 모든 시도에서 하락세가 관측됐다.통계청은 "주류와 담배, 음식·숙박 부문의 가격은 상승했지만 저유가 영향이 계속돼 교통, 주택·수도·광열 부문의 가격이 내렸다"고 설명했다.전국 취업자 수는 올 2분기에 총 2610만 명으로 작년 같은 기간보다 1.2% 늘었다. 지역별로는 부산(-1.0%)과 광주(-0.9%)가 도소매업 및 교육업 등의 부진으로 감소했다. 제주(4.4%) 및 충남(3.2%)은 도소매업과 건설업, 제조업 부문의 고용이 늘면서 증가세를 보였다. #제주도 #중국 #중국관광객 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 인천에 사는 박준수, 유영미 씨는 동갑내기 부부다. 11년 전 친구 소개로 만나 반년간의 연애 끝에 결혼에 골인했다. 당시 준수 씨는 완성차를 만드는 대기업에, 영미 씨는 전자제품을 만드는 중소기업에 다녔다. 결혼 1년여 만에 아이를 낳았고, 영미 씨는 회사를 나왔다. 외벌이에 빠듯한 살림이었지만 살만했다. 아이에게 드는 돈도 별로 없 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 서울만? 비수도권 출산율도 0.7~0.8명대 가임기 여성 유출로 출생아 감소 더 가팔라져 인구가 줄어드는 속도는 비수도권에서 상대적으로 빠르다. 추세적인 저출산에 더해 가임기 여성을 포함한 청년층(15~29세) 인구가 유출돼서다. 인구 유출은 추가적인 출생아 수 감소 요인이 된다. 그나마 수도권은 합계출산율 감소 영향이 가임기 여성 증가 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 증시가 불안한 모습을 보이는 가운데 금융당국이 이달 중순께 증권시장 안정펀드(증안펀드)를 재가동할 전망이다. 증안펀드 투입에 앞서 공매도 금지에 대한 논의도 진행된다. 4일 금융권 등에 따르면 금융위원회는 증안펀드 재가동을 위해 증권 유관 기관과 실무 협의 및 약정 절차를 진행 중이다. 빠르면 이달 중순에 조성 작업을 마무리할 계 전장연, 지하철 4호선 출근길 시위…“지연우려” 전국장애인차별철폐연대(전장연)가 4일 오전 8시부터 서울 지하철 4호선에서 출근길 지하철 탑승 시위를 이어갈 것으로 예상된다. 서울교통공사는 공지사항을 통해 "10월 4일(화)~7일(금) 오전 8시 00분부터 4호선에서 ‘전국장애인차별철폐연대’의 ‘장애인 권리 예산 확보’를 위한 삭발식 및 ‘지하철 타기 선전전’이 예정돼 있다"며 "이로 인해 믿었던 반도체 수출도 '흔들'…성큼 다가온 '쌍둥이 적자' 공포 10월 수출입동향서 수출 상승세 둔화 무역수지 적자 6개월째 이어져 '위기' 반도체마저 115억 달러로 5.7% 감소 재정 적자에 이어 경상수지도 위기 세계 경기 침체로 무역 상황이 악화되면서 믿었던 반도체 수출도 흔들리고 있다. 23개월 연속 이어오던 수출 상승세가 주춤하며 이미 적자인 관리재정수지에 이어 경상수지까지 적자인 '쌍둥이 적 감사원 '文 서면조사 통보'에…野 "정치 탄압" vs 與 "감사에 성역 없어" 野 정치탄압대책위 "尹 소란 종착지는 文…감사원 직권남용 고발" 靑 출신 野 의원들 "무례한 행태…국민 두려움 모르는 권력 끝은 침몰" 이재명 "민생경제, 외교평화에 힘 쏟을 때" 與 "전직 대통령도 성역은 있을 수 없어" 정진석 "전 대통령 서면조사 요구 처음 아냐…겸허히 받아들여야" 감사원이 '서해 공무원 피격 사건'과 관련해 문재인 전 유가 하락 방어 나선 OPEC+, 하루 100만 배럴 감산 폭탄 터뜨리나 하루 50만~100만 배럴 감산 전망 지배적 전 세계 산유량의 1% 달하는 규모 배럴당 125달러였던 브렌트유 최근 85달러선대 유가 상승시 경기침체 리스크 더 커질 수도 석유수출국기구(OPEC)와 비(非) OPEC 산유국의 협의체인 ‘OPEC플러스(+)’가 이번 주 열리는 정례 회의에서 대형 감산에 나설 것이라는 관측이 커지고 있다. 감산으로 글로벌 경 [신용리스크 악몽 재현되나]①"우리 회사채 사주세요" 치솟는 금리에 울고 싶은 기업들 국내 5대 그룹 한 계열사는 최근 회사채 수요예측에 나섰지만, 선뜻 사겠다는 큰 손(기관투자자)이 없어 낭패를 봤다. 미국 중앙은행인 연방준비제도가 연방기금금리를 0.75%포인트(p) 올리는 ‘자이언트 스텝’을 3회 연속 단행한 후 시장 금리가 치솟고, 변동성이 커지자 기관들이 손사래를 치고 있다. 회사 관계자는 “올해 초만 해도 없어서 못 많이 본 뉴스 01 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 02 전장연, 지하철 4호선 출근길 시위…“지연우려” 03 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 04 머스크 “크림반도는 러시아 영토, 우크라이나 중립국 전환해야” 05 FOMC 후 일주일…폭락장에도 ‘태조이방원’ 찜한 외국인 06 유엔 “연준, 금리 그만 올려라” 07 [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” 08 [이투데이 말투데이] 좌고우면(左顧右眄)/애프터마켓 (10월4일) 09 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 10 [상보] 뉴욕증시, 영국발 훈풍·국채금리 진정에 상승...다우 2.66%↑ 최신 영상 "北 도발 시 즉각 대응"…한미 연합 해상훈련 모습 // 이투데이TV 경제 최신 뉴스 [코로나19 현황] 국내 확진자 ‘총 2484만8184명’ 1만6423명 추가…추가 사망자 19명- 10월 4일 0시 "재정준칙 없으면 2060년 국민 1인당 국가채무 1억 넘어" [종합] 코로나19 신규 확진자 이틀째 1만 명대…유행 감소세 지속 속보 코로나19 신규 확진자 1만6423명…국내발생 1만6317명ㆍ해외유입 106명 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 분만실 없는 시군구 63곳…“애 낳으러 차 타고 40분” 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 데드크로스 현실화..사회 곳곳 저출산 위기 경고음 30ㆍ40 미혼남녀 10명 중 1명만 "자녀 꼭 있어야" 30ㆍ40 절반 “결혼해 아이 낳으려면 부부 합산 4억은 있어야” 뉴스발전소 [인포그래픽] 개천절, 태극기 다는 법은? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 발언하는 주호영 국힘 원내대표 마켓 뉴스 특징주 투자전략 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 칩스앤미디어, 인텔 자회사 모빌아이 상장 신청에 강세 F&amp;F, 증권가 호실적 전망에 '상승세' 삼성전자·SK하이닉스, 저가매수ㆍ반등 시도…4%대 강세 [오늘의 증시 리포트] “HMM, 4분기부터 실적 급감” [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” “삼성전자, 역대급 ‘공급 축소’ 전망... 반도체 상승 싸이클, 최대 재고 후유증 우려” [오늘의 투자전략] 글로벌 증시 강세 따른 투자심리 개선…저가 매수·기술적 반등 시도 "하이브, BTS 활동 줄어도 3분기 실적 시장 예상치 부합할 전망" 오늘의 상승종목 10.04 09:53 20분지연 코스피 코스닥 1.SK네트웍스우 17,000 2.KR모터스 84 3.일진홀딩스 500 4.에이프로젠제약 57 5.디아이씨 360 1.라닉스 1,520 2.오픈엣지테크놀로지 2,400 3.오토앤 2,300 4.칩스앤미디어 3,150 5.유안타제7호스팩 675 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 28,184,000 +1.18% 이더리움 1,905,000 +1.82% 비트코인 캐시 167,100 -0.42% 리플 657 -0.45% 위믹스 2,590 +1.89% 에이다 613.5 -0.16% 이오스 1,699 -0.06% 트론 88.12 -0.98% 스텔라루멘 166.8 -4.41% 비트코인에스브이 69,450 +0.07% 체인링크 10,660 +2.7% 샌드박스 1,193 +1.1% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+    <t>제주도-CJ그룹, 관광·식품·물류산업 발전 협약 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도-CJ그룹, 관광·식품·물류산업 발전 협약 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도-CJ그룹, 관광·식품·물류산업 발전 협약 송고시간2015-08-28 14:00 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 탄산음료 개발·케이팝 행사 연 1회 개최 CJ그룹, 제주 관광·식품·물류산업 발전 협약 (제주=연합뉴스) 김호천 기자 = 원희룡 제주도지사(오른쪽)와 손경식 CJ 대표이사 회장이 28일 오후 제주도청에서 '제주의 관광·식품·물류산업 발전 및 제주 향토기업의 경쟁력 강화와 상생 발전을 위한 상호 협력' 업무협약을 체결후 기념촬영을 하고 있다. (제주=연합뉴스) 김호천 기자 = 제주도·제주도개발공사·제주관광공사와 CJ그룹은 28일 제주도청에서 '제주의 관광·식품·물류산업 발전 및 제주 향토기업의 경쟁력 강화와 상생 발전을 위한 상호 협력' 업무협약을 체결했다. 원희룡 제주지사와 손경식 CJ 대표이사 회장은 앞으로 3년 동안 제주를 방문하는 내·외국인을 대상으로 한류 및 한식 문화를 홍보·확산하고, 제주 향토기업과 물류 등 제반 산업발전을 위해 협력해 적극적인 투자를 추진하기로 했다. CJ는 본사 및 계열회사의 역량과 인프라를 적극적으로 활용해 투자 대상이 되는 사업아이템 발굴 및 사업화와 제주 향토기업과의 연계·육성을 위한 제반 업무를 수행한다. 광고 도는 CJ가 역할을 충분히 수행할 수 있도록 제도적·행정적 지원을 제공하고, CJ가 추진하는 사업에 협력한다. 제주도개발공사(사장 김영철)와 CJ제일제당(대표이사 김철하)은 천연 탄산수를 포함한 제주도 먹는 물을 이용한 탄산수 및 탄산음료 사업과 물 이외의 제주도 자원을 활용한 사업을 추진하기로 했다. 양측은 오는 2016년 4월 전에 탄산수 및 탄산음료가 출시될 수 있도록 최대한 노력한다. CJ그룹, 제주 관광·식품·물류산업 발전 협약 (제주=연합뉴스) 김호천 기자 = 김성수 CJ E＆M 대표이사, 김정호 CJ 제일제당 부사장, 손경식 CJ 대표이사 회장, 원희룡 제주도지사, 김영철 제주도개발공사 사장, 최갑열 제주관광공사 사장(이상 왼쪽부터)이 28일 오후 제주도청에서 '제주의 관광·식품·물류산업 발전 및 제주 향토기업의 경쟁력 강화와 상생 발전을 위한 상호 협력' 업무협약을 체결한 후 기념촬영을 하고 있다. 제품 개발, 제조, 마케팅, 판매·영업에 있어 최선의 사업 구조를 도출하기 위해 양측이 출자·운영하는 별도 법인 설립도 검토하기로 했다. CJ제일제당은 제주도 내 사회공헌 활동에 관심을 기울이고, 친환경 산업 발전을 위해 노력한다. 제주관광공사(사장 최갑열)와 CJ E＆M(대표이사 김성수)은 '제주관광의 글로벌 경쟁력 강화와 지속 가능한 발전을 위한 전략적 업무 제휴 협약'을 체결했다. 청정 자연과 한류 콘텐츠를 활용해 제주를 고품격 문화관광 목적지로 도약시키기 위해 케이팝 행사를 하는 'KCON(K-pop Convention) JEJU'(가제)를 연 1회 제주에서 개최한다. CJ E＆M은 행사 관련 콘텐츠를 개발·운영하고, 여행사 상품 개발과 관광객 유치를 지원한다. 행사를 공동으로 기획·운영하고, 채널·네트워크를 활용해 행사를 홍보한다. 제주관광공사는 행사의 원활한 진행과 관광객 유치를 위한 홍보·마케팅을 진행하고, 행사와 연계한 관광상품을 발굴해 홍보한다. 제주도 및 관련 기관과의 행사 관련 연계 업무에 대한 협력을 강화한다. 도는 이번 협약으로 CJ가 보유한 식품산업과 물류체계, 엔터테인먼트 및 미디어를 통해 제주의 청정한 농·축·수산물의 판로를 개척할 수 있을 것으로 기대하고 있다. 케이팝 행사 개최를 통해서 국내외 관광객을 대거 유치해 지역경제 활성화에도 많은 도움이 될 것으로 보고 있다. khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2015/08/28 14:00 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 선우은숙, 4살 연하 아나운서 유영재와 재혼 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 25 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 특화 앱카드 나왔다…신한카드, 관광지 150곳 이용가능 쿠폰 발급 - 매일경제 뉴스 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 구독신청 통합검색 검색 닫기 뉴스 인기뉴스 오피니언 기획·연재 스페셜에디션 스타투데이 스포츠 게임진 영문뉴스 MK China MK Japan MK빌리어드뉴스 미라클어헤드 MK ESG 프리미엄 매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 뉴스레터 들려주는 뉴스 재테크 증권 부동산 경제용어 신설법인 라이프 골프 Book 여행 날씨 우버人사이트 MK생애설계센터 LUXURY M M플레이 Car 비즈니스 The Biz Times 닛케이텔레콤 집꾸미기 큐레이션 건빵 한국데이터거래소 MK몰 캠페인 세계지식포럼 세계한상대회 정진기언론문화상 구독신청 매경오픈 MK멤버십 뉴스 오피니언 프리미엄 연예 스포츠 증권 부동산 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition 인기뉴스 암호화폐 오늘의 매경 제주도 특화 앱카드 나왔다…신한카드, 관광지 150곳 이용가능 쿠폰 발급 김덕식 기자 입력 : 2015.08.30 17:31:26   수정 : 2015.08.30 20:07:07 카드사들이 핀테크 업체와 제휴해 여행객들을 위해 앞다퉈 상품을 출시하고 있다. 신한카드는 '페이민트'와 제휴하고 앱카드를 통해 제주도 관광명소 할인 쿠폰 서비스를 제공한다고 지난 28일 밝혔다. 페이민트는 신한금융그룹의 핀테크 산업 육성 프로그램인 '신한 퓨쳐스 랩'에 선정된 핀테크 기업이다. 이 서비스는 신한 앱카드 구동 후 원하는 쿠폰을 선택해 발급받고, 이때 생성된 결제용 바코드를 결제 단말기에 읽히기만 하면 된다. 할인 쿠폰 적용과 이용료 결제가 동시에 이뤄지기 때문에 기존 쿠폰에 비해 훨씬 편리한 것은 물론 앱카드의 오프라인 사용처도 확대된다. 현재 쿠폰은 아쿠아플라넷, 에코랜드 등 제주도 내 유명 관광지 150여 곳에서 사용 가능하다. 신한카드는 고객 호응도 등을 감안해 제주도 외 지역에서도 관광 쿠폰 서비스를 점진적으로 늘려갈 계획이다. 신한카드 관계자는 "모바일 결제 플랫폼인 앱카드 서비스가 신한카드의 미래 경쟁력 중 하나라는 판단하에 앱카드 전용 서비스 개발을 지속적으로 추진하고 있다"며 "특히 이번 제주도 쿠폰 서비스는 중소 핀테크 업체와 진행해 산업 지원이라는 의미도 있다"고 설명했다. 삼성카드도 여행객에 초점을 맞추고 있다. 삼성카드는 28일 고객들의 여행 설계를 돕기 위해 세계적인 온라인 여행사 익스피디아와 업무협약을 체결했다. 익스피디아는 가상화폐 비트코인을 결제수단으로 채택하는 등 핀테크 활용에 적극적인 여행사다. 이번 제휴를 기념해 다음달 30일까지 삼성카드여행센터나 삼성임직원몰(블루베리)에서 호텔 예약 때 10% 할인혜택을 제공하며 예약 고객 중 추첨을 통해 경품을 지급한다. 조해석 익스피디아 제휴사업부 이사는 "삼성카드와의 제휴는 차별화된 가치를 고객에게 제공하기 위해 기획됐다"며 "앞으로 양사는 익스피디아 모바일 웹, 애플리케이션 관련 마케팅 제휴 등 지속적으로 협력 범위를 확대해 나갈 계획"이라고 밝혔다. 카드사들이 최고 성수기였던 8월이 지나가는 시점에 이처럼 여행·관광업에 집중하는 것은 다음달 1일부터 항공사 유류할증료가 6년 만에 사라지는 호재가 있기 때문이다. 국제유가 하락 덕분으로, 7~8월 여름 성수기와 비교하면 최대 8만원이 싸지고 작년 9월보다는 30만원 가까이 내려가게 된다. 또 다음달 26일부터는 대체휴일제로 인한 나흘간의 추석 황금연휴가 기다리고 있다. [김덕식 기자][ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] #카드사#핀테크업체#여행객 오늘의 핫뉴스 금통위 앞두고 환율 급등…"얼마나 더 오르나"   1시간 25분"나도 내 집 없는데"…외국인 국내 아파트 3만채 매입   1시간 22분"과천 송파를 2년전 분양가로"…'줍줍의날' 미리 메모   18시간 53분경기침체를 알리는 지표가 시장의 호재가 되는 역설 [핫이슈]   2시간 22분감사원 국감두고 여야 기싸움…10분만에 '정회'   1시간 15분 당신이 좋아할 만한 기사 댓글 시선집중 [매경증권센터] 이시각 증시는? [이시각 증시는] 거래소, 코스닥 시황 종합 [이 시각 특징주] 투자자별 매매동향, 이슈 테마.. [증권사 리포트] 최신 증권사 리포트 요약 주요뉴스 금통위 앞두고 환율 급등…"얼마나 더 오르나" "나도 내 집 없는데"…외국인 국내 아파트 3만.. "과천 송파를 2년전 분양가로"…'줍줍의날' 미.. 경기침체를 알리는 지표가 시장의 호재가 되는.. 감사원 국감두고 여야 기싸움…10분만에 '정회.. 인기뉴스 종합 연예 스포츠 1"과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메모.. 2"하룻밤 비용 13만원"…데이트 하려고 돈까지 빌리는 美.. 3[단독] 롯데케미칼, 일진머티리얼즈 2.7조 인수 본계약.. 4금통위 앞두고 환율 또 급등…"환율 얼마나 더 오르나요.. 5"밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가짜 음.. 1선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[공.. 2김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [똑.. 3치어리더 김현지, 속옷 화보 찍은 듯…핫걸 [똑똑SNS] 4공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] 5김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”(회장님네.. 1꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예고 2치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 3조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 [.. 4유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 5박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 포토 1/2 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 (책임자 : 이선형, 고성준) 서울특별시 중구 퇴계로 190 ☎ 02) 2000-2114 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved. RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY 매경LUXMEN 시티라이프 M-Print KDX한국데이터거래소 제주도 특화 앱카드 나왔다…신한카드, 관광지 150곳 이용가능 쿠폰 발급 - 매일경제 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소</t>
+  </si>
+  <si>
+    <t>성매매 적발 2년새 2.7배, 제주도 10배 증가 '관광객 및 스마트폰 변종 성매매' 단속 강화 - 전자신문 Conference allshowTV 검색 뉴스 속보 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 뉴스 정치 전국 국제 골프 화제의뉴스 인사·부음 오피니언 특집 연재 비주얼IT 스페셜리포트 뷰포인트 인포그래픽 라이프 연예 포토 공연전시 생활문화 날씨 부가서비스 콘퍼런스 allshowTV IT 전시 컨벤션 ET프리미엄 시사용어 PDF 서비스 English 서비스 안내 신문구독신청 온라인광고안내 콘텐츠구매 초판서비스 번역센터 회원 서비스 로그인 회원가입 패밀리미디어 서울신문 RPM9 EBN 산업경제신문 연예 포토 공연전시 생활문화 날씨 성매매 적발 2년새 2.7배, 제주도 10배 증가 '관광객 및 스마트폰 변종 성매매' 단속 강화 발행일 : 2015-08-28 13:41 &lt;성매매 적발 2년새 2.7배 출처:/연합뉴수TV&gt; 성매매 적발 2년새 2.7배 최근 2년 사이 경찰의 성매매 적발 건수가 3배 가까이 늘어났다. 28일 국회 안전행정위원회 소속 새정치민주연합 유대운 의원이 경찰청에서 받은 자료에 따르면 풍속업소 적발 건수는 2012년 5만5천785건에서 2013년 5만1천652건, 지난해 4만8천121건으로 감소세를 보였다. 그러나 풍속업소 위반 유형 중 성매매 적발 건수가 2012년 3천263건, 2013년 4천553건, 지난해 8천952건으로 증가 추세를 보였다. 2012년 대비 지난해 풍속업소 적발 건수는 13.7% 하락했다. 반면 성매매 적발 건수는 2.7배로 급증해 눈길을 끈다. 같은 기간 음란퇴폐(-44.6%), 사행행위(-24.4%), 시간외 영업(-64.0%) 등 다른 위반 유형은 감소했다. 관련 기사'외모지상주의' 박태준, 갸루상 충격 비주얼… "제대로 망가졌네~"해피투게더 임은경, 모태솔로 고백..이상형은 지적인 남자 박신양 병역기피 가수 김우주, 실형 선고 '과거 SNS에 군대 안간다고 글까지 게재' 헉 임은경, 뱀파이어도 울고 갈 변함 없는 미모 "너무 똑같아서 무서울 정도"디아 프램튼, 매혹적인 동양적 보이스로 '노바디 노바디~'천우희, 단풍 냄새 나는 가을 화보 공개 '신민아 도플갱어?' 똑 닮았네 전반적으로 풍속업소 적발 건수는 2012년 이후 줄고 있지만 지역별로는 서울(33.1%), 충북(18.0%), 제주(8.2%), 충남(3.3%) 등이 2012년 대비 지난해 적발 건수가 상승한 것으로 나타났다. 성매매 적발 건수별로 제주도가 2012년 10건에서 지난해 101건으로 10배로 급증했고 대전은 21건에서 128건, 대구는 85건에서 509건으로 각각 6배 늘어 놀라움을 안겼다. 서울은 같은 기간 1427건에서 2945건으로 2배 증가했다. 경찰은 제주에서 성매매 단속 건수가 급증한 것은 외국인을 포함한 관광객이 늘어나고 스마트폰 채팅 애플리케이션을 통한 변종 성매매가 늘어났기 때문으로 추측 하고 있다. 경찰청 관계자는 "지난해 정책적으로 성매매 단속을 강화해서 적발 건수가 늘어났다"며 "올해 들어서는 성매매를 기업형 위주로 단속하고 성매매를 조장하는 행위에 주력하고 있다"고 밝혔다. 유대운 의원은 "스마트폰 채팅 어플 등을 통한 성매매 알선 등 다양한 유형의 성매매가 늘어나고 있어 경찰의 지속적이고 강력한 단속이 필요하다"고 지적했다. 한편 성매매 적발 2년새 2.7배 소식에 누리꾼들은 "성매매 적발 2년새 2.7배, 제주도가 10배라니" "성매매 적발 2년새 2.7배, 엄청 나네" "성매매 적발 2년새 2.7배, 그렇군.." "성매매 적발 2년새 2.7배, 단속 강화 해야지" 등 반응을 보였다. 핫뉴스 in LIFE 1 송가인, 전국투어 콘서트 매진 행렬... "웃돈 줘도 살 수 없다" 2 단풍놀이는 언제가 절정?…‘2022 단풍 예측 지도’! 3 송가인과 김호중이 뭉쳤다! 新 예능 ‘복덩이들고(GO)’ 기대감 폭발 4 송가인 X 금잔디, 털털함으로 뭉친 트롯 여신들 5 “한복 입은 가인이어라♥”…송가인, ‘치명적 단아美’ [화보] AI와 빅데이터, 어디까지 활용해봤니? RPA의 성장에 실패한 기업들이 간과했던 여섯 가지- 역량 내재화와 프로세스 자동화 CoE를 중심으로 전자신문 회사소개 지면광고 행사문의 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 8~9층 대표번호: 02-2168-9200 구독문의: 02-2671-1806~7 전자신문인터넷 회사소개 이용약관 개인정보취급방침 고충처리 사이트맵 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 7층 대표번호: 02-857-0114 사업자번호: 107-81-80959 등록번호: 서울 아04494 제호: 전자신문인터넷 등록일자: 2017년 04월 27일 발행일자: 1996년 04월 10일 발행·편집인: 심규호 청소년보호책임자: 김인기 Copyright © Electronic Times Internet. All Rights Reserved. 패밀리미디어 RPM9 서울신문 EBN 산업경제신문</t>
+  </si>
+  <si>
+    <t>제주도-CJ E＆M, 제주 관광산업 발전 협약 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 하단 메뉴 바로가기 국가기간뉴스통신사 연합뉴스 배너 검색 영역 뉴스, 포토, 영상, 그래픽을 검색하실 수 있습니다. GO 비주얼 뉴스홈 영상 영상홈 영상뉴스 사건재구성 한반도N 많이본영상 날짜별영상 포토 포토홈 정치 북한 경제 산업 사회 전국 세계 문화 연예 스포츠 모멘트 화보 #D 그래픽 검색 열기 검색 닫기 포토홈 제주도-CJ E＆M, 제주 관광산업 발전 협약 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 (제주=연합뉴스) 김호천 기자 = 손경식 CJ 대표이사 회장, 김성수 CJ E＆M 대표이사, 최갑열 제주관광공사 사장, 원희룡 제주도지사(이상 왼쪽부터)이 28일 오후 제주도청에서 '제주의 관광·식품·물류산업 발전 및 제주 향토기업의 경쟁력 강화와 상생 발전을 위한 상호 협력' 업무협약을 체결한후 기념촬영을 하고 있다. 2015.8.28 khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2015/08/28 16:16 송고 #CJ그룹 #대기업 #지방자치단체장 '다시, 일본여행'…오늘부터 한국인 무비자 관광 허용 10-11 08:04 코스피 장중 2,170대로 뒷걸음…원/달러 환율 1,430원대 10-11 09:29 尹 "전세계 상대 북한 핵위협, 얻을 것 없어"…출근길 문답 10-11 09:03 '쌀쌀한 출근길'…오늘 아침, 올가을 가장 추워 10-11 09:49 '가을로 짙게 물드는 태백'…철암단풍군락지 10-10 13:50 댓글쓰기 맨위로 전체메뉴 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 사람들 인사 부고 동정 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 이슈돋보기 주요신문톱뉴스/사설 이 시각 헤드라인 날씨/재난 날씨 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이 본 뉴스 모바일 뉴스 모바일앱 모바일웹 비주얼뉴스 #흥 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷 맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 유튜브 연합뉴스 통통컬처 Korea Now 한반도N 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로2길 25 | 등록번호 문화, 나00009 | 등록일자 1980.12.29 | 발행일자 1980.12.29 | Tel. 02-398-3114 (C) Yonhapnews [대표이사] 성기홍 [편집인] 조채희 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 카카오스토리 서비스안내 전체보기 서비스안내 전체보기 닫기 연합뉴스 연합뉴스TV 인포맥스</t>
+  </si>
+  <si>
+    <t>제주도·농가 "크루즈관광·감귤보내기 활성화 기대" | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도·농가 "크루즈관광·감귤보내기 활성화 기대" 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도·농가 "크루즈관광·감귤보내기 활성화 기대" 송고시간2015-08-25 10:33 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 남북 고위급 접촉 극적 타결 반응 2010년 북한으로 가는 제주 감귤 출항식 (제주=연합뉴스) 김호천 기자 = 제주도와 관광업계, 감귤 농가 등은 남북 고위급 접촉 극적 타결 소식에 제주∼북한 평화 크루즈 관광과 감귤 보내기 등 민간 교류가 활성화되기를 기대했다. 원희룡 제주도지사는 합의문 6개 항 중 활발한 민간교류사업 추진의 하나로 제주∼북한 평화 크루즈 라인 개설, 한라에서 백두까지 남북한 교차관광사업이 이뤄지기를 바란다고 밝혔다. 2010년 이후 중단된 북한 감귤 보내기 사업과 한라산·백두산 생태환경 보전 공동 협력사업도 조속히 추진될 것으로 보고 통일부를 비롯한 정부 및 민간기구와 긴밀히 협의하겠다고 말했다. 광고 고문삼 전 제주도농업인단체협의회장은 "제주도 농민으로서는 감귤 산업이 중요한데 남북 관계가 경색되면서 감귤 북한 보내기 사업이 중단됐다"며 하루빨리 활발하게 교류해 북한에 감귤도 보내고 감귤산업에도 활력이 되길 소망했다. 김영진 제주도관광협회장은 "관광 목적지를 선정할 때 '안전'은 핵심적인 요소인데 이번 남북 고위급 회담 타결로 남북이 대화의 문을 열었다는 사실은 대외적으로 한국이 안전한 관광지라는 이미지를 심어줄 수 있는 좋은 계기가 될 것"이라고 환영했다. 함경북도가 고향인 전모(92) 할아버지는 "남북 대치 상황이 계속되는 것을 보며 가슴을 졸였는데 극적으로 합의가 이뤄져서 다행"이라면서 "이번 합의를 계기로 이산가족 상봉과 민간교류도 활성화되는 등 통일에 한걸음 다가가길 바란다"고 기대했다. 강호진 제주주민자치연대 집행위원장은 "급박한 정세에서 오랜 시간 마라톤협상을 통해 극적 합의를 이끌어 낸 것은 다행스러운 일"이라며 "일시적인 해결이 아닌 안정 되고 지속적인 남북 평화 체제 유지를 위해 앞으로 회담과 교류를 자주 진행해야 한다"고 말했다. 시민 강지연(34·여)씨는 "전쟁이 일어날 것만 같았는데 다행히 평화적으로 마무리된 것 같아 기쁘다"며 "남과 북이 분단된 이후로 크고 작은 마찰이 자주 있었는데 이제는 다시 이런 일로 국민이 불안에 떠는 일이 없었으면 좋겠다"고 했다. khc@yna.co.kr 관련기사 북한, 남북 고위 당국자 접촉 공동 합의문 발표 전문(종합) '전쟁위기'에서 '평화의 길'을 찾다…남북관계 새출발(종합) 제주국제크루즈포럼 8월 개최…북한 연계 크루즈 논의 제주 농산물 최저가 보장제 도입…감귤거래소도 운영 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2015/08/25 10:33 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 선우은숙, 4살 연하 아나운서 유영재와 재혼 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 25 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 중국 크루즈 모항 관계자와 간담회 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:01 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 중국 크루즈 모항 관계자와 간담회 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 중국 크루즈 모항 관계자와 간담회 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.08.26 11:35 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)는 25일 제주웰컴센터에서 상해 우성구 국제크루즈터미널유한공사(WSICT) 왕요우농 회장 및 상해국제크루즈경제연구센터 치우링 부주임 등 일행과 간담회를 갖고 제주의 크루즈 관광산업발전 및 고품격 크루즈 관광상품개발을 위한 방안을 협의했다고 26일 전했다. 간담회에서 WSICT측은 크루즈 관광산업 및 관광상품 개발 등을 위해 상해지역을 중심으로 한 크루즈 전문 관광협회를 설립해 운영할 계획이라고 밝혔다. 관광협회와 이 업체는 협조체제를 구축해 재방문을 창출하고 만족도 높은 고품질의 기항지 크루즈 관광상품을 공동으로 개발하기로 했다. &lt;헤드라인제주&gt; &lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>[기고] 해외 의료관광객 유치로 '제주도 업그레이드' 시켜야 | Save Internet 뉴데일리 기사 공유하기 페이스북 트위터 카카오 블로그·카페 밴드 메일 https://biz.newdaily.co.kr/site/data/html/2015/08/27/2015082710049.html 주소 복사 주소가 복사되었습니다. 원하는 곳에 붙여넣기 하세요 검색 최신기사 정책 산업 부동산 IT·전자 금융·증권 유통 에너지·화학 제약·의료 오피니언 뉴데일리 뉴데일리경제 뉴데일리TV 대구·경북 충청·세종·강원 시장경제신문 브랜드브리프 칸라이언즈 회사소개 광고 및 제휴 Copyright © Newdaily All rights reserved. [기고] 해외 의료관광객 유치로 '제주도 업그레이드' 시켜야 오피니언 조안나기자의 다른 기사 보기 입력 2015-08-27 11:05 | 수정 2015-08-27 11:44 ▲ 제주특별자치도 투자정책과장 현성호 지역 발전의 좋은 사례로 싱가포르를 거론하는 사람들이 많다. 그런데 싱가포르가 19세기 초엽 이전에는 아무 쓸모도 없이 버려진 섬이었다는 사실은 잘 모른다. 동서양간의 무역이 확대되면서부터 비로소 이 잠자던 섬의 가치는 세상 사람들의 주목을 받았다. 중국과 인도를 사이에 두고 해상무역선이 반드시 거쳐가야 하는 지리적 요충지, 이것이 싱가포르의 가치다. 가치는 자본과 사람의 힘이 모아져야 비로소 현실화된다. 영국인에 의해 발견된 이 가치는 독립국가로 태어난 싱가포르의 강력한 리더와 현명한 국민들의 힘이 결합하여 지리적 가치를 기반으로 무역중심지, 금융중심지로 변신을 거듭하였고 글로벌 리더로 자리매김하였다.  그러면 제주의 가치는 무엇일까? 제주는 바다로 둘러싸인 작은 섬이며, 인구나 지역적 규모는 타 시도에 비교할 수 없을 정도로 작다. 현대적 교통수단과 통신수단이 준비되지 않았던 과거에는 바로 이와 같은 현실적 여건으로 인해 제주는 장기간 고립된 섬에 머물렀고, 제주도민들은 이것을 운명으로 받아들일 수밖에 없었다.  하지만 현재 펼쳐지고 있는 IT세상을 보라. 항공과 해상교통망, 인터넷을 통한 사이버공간상의 상호 연결을 통해 제주에게는 더 넓은 세계와 접촉할 수 있는 환경적 여건이 만들어졌고, 제주가 갖춘 잠재력 측면에서도 제주의 기초 가치, 즉 청정한 자연과 아름다운 경관이 세계인들의 평가를 받는 시기가 도래했다. # 제주가 싱가포르보다 못할 이유가 있는가? 제주가 가진 고유의 가치를 기반으로 우리만의 성장 비전을 현실화하지 못할 이유가 없지 않은가? 제주의 기초 가치는 누가 뭐래도 청정하고 아름다운 자연환경이다. 이 기초 가치 위에 여기서 파생되는 다양한 산업들, 즉 휴양, 헬스, 레저, 문화, 교육, 마이스, 스마트 비즈니스, 청정에너지 등 2차적 가치를 생산할 수 있는 다양한 산업을 적극적으로 활성화해 나간다면 제주가 가진 잠재력은 얼마든지 현실화될 수 있을 것이다. 그런데 여기에 한 가지가 더해져야 한다. 그것은 외부와 우리의 잠재력을 연결하여 현실화할 수 있는 수단, 즉 투자자본이다. 문제는 우리 손에 쥐고 있는 종자돈이 부족하다. 향토자본의 역량이 미흡하다.  내생적 발전을 통해 스스로의 힘으로 우리의 꿈을 일구어 나가는 것이 가장 좋겠으나 현실이 그렇지 못하다는 것을 인정할 수 밖에 없다. 우리 도가 국내외 투자유치를 통해 제주발전의 모멘텀을 마련하고자 하는 이유이다. 그동안 우리 도가 투자유치를 통해 성취한 것이 적지 않다. 관광분야는 외부자본 투입을 통해 다양한 인프라를 구축하고 있고, 교육분야에서도 영어교육도시는 전국적 수범사례로 평가받고 있다.  IT/BT분야에서도 첨단과학기술단지를 중심으로 혁신리더들이 제주를 찾고 있고, 2030 무탄소 섬을 비전으로 한 청정에너지 산업도 구체적 방향성을 잡고 힘차게 나아가고 있다. 그러나 헬스와 의료분야는 아직 시작도 못한 상태다. 우리 도에 비해 잠재력이 미흡한 타시도에서도 의료관광활성화를 역점적으로 추진하고 있는 상황인데, 최상의 경쟁력을 갖추고 있는 제주는 이 기회를 살리지 못하고 있는 것이 안타까울 뿐이다. 최근 논란이 되고 있는 외국의료기관 설립문제는 지난 2006년에 제주특별법 제정당시 국회에서 토론을 거쳐 이미 제도화된 것이다. 일부에서 의료공공성 훼손이나 의료민영화를 거론하며 반대하는 목소리를 높이고 있다.  하지만, 제주특별법이 규정하고 있는 외국의료기관은 외국법인이 주도해 설립하는 병원이며, 이 병원을 이용할 장래 고객도 의료관광과 연계된 외국인에 초점을 두고 있다.  # 의료관광 통한 고용 창출 등 시너지 창출해야 외국의료법인의 핵심은 두 가지다. 여유있는 외국인을 대상으로 유치마케팅을 펼치고 의료와 관광을 혼합해 제주도 관광수준을 고부가가치로 한차원 높인다는 의미다. 이 병원을 이용할 고객이나 고객유치 마케팅 대상도 의료관광을 원하는 외국인들이다. 그럼 제주도는 무엇이 이익일까. 의료관광을 통해 도민의 고용도 창출하고, 쇼핑에서 먹거리, 관광지까지 여러 업종의 시너지를 창출해 우리 도에 기여하도록 하는 것이다.  일각에서 제기하는 우려들과는 아무런 관련이 없다. 다시 강조하면 외국 자본을 활용하여 외국인 의료관광객 수요를 흡수함으로써 도민 고용창출 등 그 과실은 도민에게 돌아가도록 하자는 것이다.  이미 약 9년 전에 법적으로 제도화된 규정이다. 법을 믿고서 투자한 외국의 투자기업에 대한 제주의 신뢰는 어떻게 되겠는가? 우리가 역점을 두어야 할 것은 오히려 운영의 문제다. 안전성을 확보하여 우리 도의 신뢰를 높이고 도민에게 최대의 이익이 돌아오도록 하는 방안을 연구해 나가는 것이다. 헬스케어타운에 추진하고 있는 녹지그룹의 외국의료기관 자체는 병상 46개에 불과한 아주 작은 시설에 불과하다. 하지만 그 작은 규모에도 불구하고 그것이 갖는 의미는 지혜와 역량을 갖춰 온 우리 도민들이 제주 미래가치를 기반으로 주어진 기회를 최대한 활용할 수 있는 용기가 있음을 보여 달라고 요구하고 있다는 점에 있다.  &lt;제주특별자치도 투자정책과장 현성호&gt; 조안나							naro88@newdailybiz.co.kr 기자의 다른 기사 보기 보도자료 및 기사제보 press@newdaily.co.kr [자유민주·시장경제의 파수꾼 – 뉴데일리 newdaily.co.kr] Copyrights ⓒ 2005 뉴데일리뉴스 - 무단전재, 재배포 금지 생생 헤드라인 뉴스 이 시각 주요뉴스와 만나보세요. 기준금리 3%시대 온다… 빅스텝 D-1 집 팔아도 빚 못 값는다… '고위험 가구' 부채 69조4000억원 'GTX-B' 급발진한 국토부… 계약방식 '패싱'당한 철도공단 '씁쓸' 기준금리 3%시대 온다… 빅스텝 D-1 집 팔아도 빚 못 값는다… '고위험 가구' 부채 69조4000억원 'GTX-B' 급발진한 국토부… 계약방식 '패싱'당한 철도공단 '씁쓸' TSMC에 1위 내준 삼성… 반도체 승부수 '파운드리' '쌍둥이 적자' 위기 증폭…재정 -86.8兆·경상 -30.5억불 르노코리아, 빠른 출고·XM3 하이브리드로 '반격' [단독] KT&amp;G '릴' 신제품 11월 출시… 아이코스와 정면 승부 뉴데일리 댓글 운영정책 라이브리 댓글 작성을 위해 Javascript를 활성화 해주세요. 자동차 르노코리아, 빠른 출고·XM3 하이브리드로 ‘반격’.. 제네시스, 부산국제영화제에 ‘브랜드 존’ 운영… G90 LWB 등 5대 전시.. 르노코리아 QM6, 세단 정숙성과 SUV 적재능력 갖춘 '팔방미인'.. 크리에이티비티 [칸 라이언즈 서울 2022] 방종환 트위치코리아 대표 "Z세대가 사회 변화 .. [칸 라이언즈 서울 2022] 성현제 HS애드 팀장 "AI가 대체 어려운 고객.. [칸 라이언즈 서울 2022] 박윤진 서울라이터 발행인 “직장 영원하지 않아... 금융·산업 르노코리아, 빠른 출고·XM3 하이브리드로 ‘반격’.. 인천·수원 KTX 사업 지연이 갑질 때문?… 현대로템 “납품에 최선 다했다”.. 제네시스, 부산국제영화제에 ‘브랜드 존’ 운영… G90 LWB 등 5대 전시.. IT·과학 [데일리 IT 단신] LGU+, 하나은행과 키즈전용 금융서비스 선봬 外.. TSMC에 1위 내준 삼성… 반도체 승부수 '파운드리'.. 中, 美 반도체 통제에 '희토류' 수출 규제 만지작.. 오피니언 [취재수첩] 여야 정쟁으로 얼룩진 과방위 국감, 정책 논의 ‘실종’ [취재수첩] 일상 회복되자 다시 규제… 편의점 자가검사키트, 해답은 없을까 [취재수첩] 일양약품 수사… 꿈만 쫓은 코로나 치료제의 민낯 [취재수첩] '시작이 반', 카카오게임즈의 소통 [취재수첩] 한미약품 '뚝심 R&amp;D' 글로벌 신약 결실… 이제 시작이다 부동산 부동산R114, 개업공인중개사 경쟁력 강화 지원…더비즈와 업무협약.. 대우건설, 우즈벡 민관합동사업(PPP) 적극 참여.. 현대건설, 2조원대 比 남부도시철도공사 본계약 체결.. 회사소개 오시는 길 인재채용 제휴안내 회원약관 저작권안내 이메일 무단수집거부 개인정보처리방침 청소년보호방침(책임자: 국승환) 광고문의 보도자료 : press@newdaily.co.kr 기사제보 제안마당 법인명: 뉴데일리(주) | 제호명: 뉴데일리 | 주소:（100-120） 서울시 중구 남대문로 5가 120 단암빌딩 3층 | 등록번호: 서울 아00115 | 등록일: 2005년 11월 9일 | 발행인: 이성복 · 편집인: 이진광 대표전화: 02-6919-7000 | 정치·사회 편집국: 02-6919-7002 | 경제 편집국: 02-6919-7003 | 광고국: 02-6919-7012 | 팩스: 02-702-2079 Copyright © Newdaily All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 현장체험학습 안전과정 교육 운영 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 현장체험학습 안전과정 교육 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회, 현장체험학습 안전과정 교육 운영 기자명 고연정 기자 입력 2015.08.27 11:35 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 제주도내 관광종사자를 대상으로 한 현장체험학습 안전과정 교육이 26일과 27일 2일간 운영됐다.[제주도민일보=고연정 기자] 제주도와 제주도관광협회(회장 김영진)는 지난 26일과 27일 2일간 도내 관광종사자를 대상으로 현장체험학습 안전과정 교육을 진행했다.대한적십자사 제주지사(회장 김영택)와 함께 안전요원을 배출하기 위해 마련된 이번 교육은 총 14시간 동안 운영됐다.교육은 응급상황 시 행동요령, 심폐소생술, 자동제세동기(AED)사용법, 기도폐쇄, 상처처치, 골절처치, 학교·학생의 이해 등 안전사고 사전예방 및 대처능력 배양을 위한 내용으로 구성됐다.도관광협회는 올해 이달까지 현장체험학습 안전과정과 응급처치법 일반과정 교육을 병행 실시해 총 191명의 수료자를 배출했다.내달에도 9일과 10일에는 응급처치법 일반과정을, 22일과 23일에는 현장체험학습 안전과정을 각 1회씩 운영할 예정이다. 고연정 기자 jjibi@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 "골프장 개별소비세 감면 연장" 건의 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도관광협회 "골프장 개별소비세 감면 연장" 건의 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도관광협회 "골프장 개별소비세 감면 연장" 건의 송고시간2015-08-20 16:15 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 (제주=연합뉴스) 고성식 기자 = 제주도관광협회는 20일 골프장 이용료(그린피)에 적용하는 개별 소비세 감면제도에 대한 연장을 정부에 건의했다. 도관광협회는 건의서에서 제주는 항공편을 이용해야 오갈 수 있어 다른 지역에 비해 관광비용이 많이 드는 만큼 개별 소비세 감면 같은 제도적 장치가 필요하다고 밝혔다. 또 현재 30개에 달하는 골프장 간 경쟁이 심해 해마다 적자가 가중되는 상황에서 개별 소비세를 없앨 때 경영악화가 더 심각해질 수 있다고 우려했다. 광고 이에 따라 도내 골프장의 수익 활성화를 위한 중장기적 정책 방안이 마련될 때까지 골프장 개별 소비세 감면제도를 계속 유지해달라고 건의했다. 정부는 지난 2002년부터 제주 골프장의 가격 경쟁력을 위해 골프장 입장료인 그린피에 적용하는 개별 소비세를 면제해 주고 있다. 하지만 지역 간 형평성 등을 고려해 내년부터 개별 소비세를 면제해 줄 수 없다는 조세특례제한법을 입법 예고했다. 개별 소비세가 폐지되면 골프객 1인당 2만4천원 요금이 더 부과된다. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2015/08/20 16:15 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 선우은숙, 4살 연하 아나운서 유영재와 재혼 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 25 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>다날, 제주도 관광지 이용 특화 앱 '제주바통' 서비스 시작 다날, 제주도 관광지 이용 특화 앱 '제주바통' 서비스 시작 : 스포츠조선 뉴스 최신뉴스 카드뉴스 PDF 보기 포토 펀펌 스포츠 야구 축구 농구 배구 골프 학교체육 연예 SC초점 SC이슈 SC현장 라이프 여행레저 헬스케어 Family Site 청룡영화상 청룡시리즈어워즈 조선일보 와이즈토토 야구 축구 종합 연예 라이프 포토 만화 운세 Diva 운세의신 달리고 펀펌 경제 다날, 제주도 관광지 이용 특화 앱 '제주바통' 서비스 시작 기사입력 2015-08-17 15:26:29 다날이 제주도 특화의 바코드 결제앱 '제주바통'을 오픈했다. 글로벌 모바일 결제 전문기업 다날(www.danal.co.kr, 대표 최병우)이 제주도 관광지에 특화된 바코드 결제앱 '제주바통'을 오픈하고 본격적인 서비스에 나섰다.제주바통은 제주 관광지에서 유용하게 사용할 수 있는 특화된 앱(app)으로 제주도의 일출랜드를 비롯한 소인국 테마파크, 퍼시픽 랜드 등 100여곳 이상의 유명관광지와 공연장, 레스토랑과 커피숍 등 현장에서 최대 60%까지 할인받고 이용할 수 있다. 제주도를 방문한 관광객들은 제휴 가맹점에서 현금이나 신용카드 없이 제주바통앱에 생성된 바코드만으로 할인과 함께 결제까지 편리하게 이용할 수 있다. 바코드를 이용한 휴대폰 소액결제뿐만 아니라 별도의 신용카드나 직불카드를 등록해 실물카드 없이도 이용이 가능하다. 특히, 제주바통(http://blog.naver.com/jejubartong)은 할인 및 결제서비스는 물론, 주요 관광지를 지역 및 테마별 메뉴로 분류하고 특징과 위치, 연락처, 이용시간 등의 각 관광지 정보와 할인에 따른 실제 이용금액을 실시간으로 표시하고, 관광객들의 검색과 이용이 편리하도록 서비스를 제공한다. 다날은 제주바통 서비스를 관광지 뿐만 아니라 추후 백화점이나 면세점 등 쇼핑몰까지 연계해 사업을 확대해 나갈 계획이다. 또한 해외 관광객들도 스마트폰만으로 제주 방방곡곡을 편리하게 이용할 수 있도록 서비스를 업데이트 할 예정이다.한편, 다날은 제주바통 런칭기념으로 서비스를 이용한 모든 고객에게 추억을 간직할 수 있는 포토북(DIPSEE)제작 할인권을 증정하고, 주요 관광지와 제주바통 제휴 프로모션도 진행한다. 제주바통 결제시 테마파크 '에코피아'에서 커피 및 아이스티 등의 음료를 증정하고, 친환경 녹차밭 다희연에서는 녹차 아이스크림과 초콜릿, 그리고 일출랜드에서는 제주감귤 로션을 증정하는 등 다양한 고객만족 서비스를 제공하고 있다.(제주바통 이용 및 서비스 문의 1566-3355)박종권 기자 jkp@sportschosun.com [ ※보도자료 및 기사제보 news@sportschosun.com - 톱배우 충격 근황..파킨슨병으로 불편한 모습 “온몸 두들겨 맞는듯한 한해 보내” 김지민 “쌍둥이 임신해서 ♥김준호와 결혼한다고”→박미선 “떠밀려 결혼하지 마” '부모 빚투' 마이크로닷, '닭발집' 앞에서 근황을? 코 수술·뮤비 촬영 위해 귀국 '뺑소니' 조형기, 방송가 사라진 후 “美 필라델피아서 자주 목격” 박미선·김용만 불화로 갈등..“좋은 사람 아닌 것 같아” 연예 많이본뉴스 1.신화 신혜성, 도난차량서 음주측정 거부하다가 체포 2.마돈나, 41세 연하남과 열애 부담됐나? 급기야 성형의혹까지 3.'결혼지옥' 73세 아내 "79세 남편 세 번의 외도"..오은영 "배우자 외도 치명상" [SC리뷰] 4.김태희, '♥비 골프선수 불륜설' 극복..'하이바이, 마마' 향한 끈끈한 우정 5."최초공개" 오상진♥김소영, 이름도 비밀이었던 딸+집안 내부 [종합] ('동상이몽2') 스포츠 많이본뉴스 1.트레이드 실패? 이대호의 '아픈 손가락'…천재 유격수 향한 '의미심장' 마지막 당부 [SC포커스] 2."나는 게이다" 후폭풍…카시야스, 팔로워 300만 빠졌다 3.'55세 225일' 日축구영웅의 노욕, 팬들도 질렸다 "미우라를 월드컵으로!" 4.'너무 망가져 보인다' 눈물 참는 명장, 고통 받는 충격 근황 5.'괴물' 데려온 伊 에이전트 "나폴리에 1년 전부터 김민재 제안" 스포츠조선 회사소개 광고/제휴문의 사진대여 신문구독신청 개인정보처리방침 청소년보호정책 조선일보 와이즈토토 청룡영화상 등록번호 : 서울 아01720 등록일자 : 2011년 7월 29일 발행일자 : 2000년 11월 1일 주소 : 서울 양천구 목동동로 233-1 전화번호 :02-3219-8114 발행인 : 이성관 편집인 : 신보순 청소년보호책임자 : 이재훈 RSS PDF Copyright (c) SPORTSCHOSUN.COM All rights reserved.</t>
+  </si>
+  <si>
+    <t>"제주도 방문 관광객 벌써 800만"…사상 최단기간 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 "제주도 방문 관광객 벌써 800만"…사상 최단기간 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 "제주도 방문 관광객 벌써 800만"…사상 최단기간 송고시간2015-08-12 14:36 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 제주 찾은 일본 크루즈 관광객들 (제주=연합뉴스) 박지호 기자 = 12일 오전 제주항에 도착한 일본의 크루즈 여객선 니폰마루의 승객들이 제주 관광을 위해 하선하고 있다. 2015.8.12 jihopark@yna.co.kr (제주=연합뉴스) 변지철 기자 = 올해 들어 제주도를 방문한 누적 관광객이 사상 최단 기간에 800만명을 돌파한다. 12일 제주도관광협회에 따르면 올해 들어 이달 11일까지 제주를 찾은 관광객이 793만7천467명으로 지난해 같은 기간 727만656명에 견줘 9.2％(66만6천811명) 증가했다. 최근 하루 입도 관광객이 4만명 안팎인 점을 고려하면 13일에는 누적 관광객이 800만명을 넘어설 것이 확실시된다. 광고 내국인 관광객은 643만1천344명으로 지난해 같은 기간(535만8천388명)과 비교해 20.0％ 증가했다. 2015 거문오름 국제트레킹 (제주=연합뉴스) 박지호 기자 = 9일 제주 거문오름 일대에서 열린 '2015 거문오름 국제트레킹'에서 참가자들이 오름이 주는 정취를 즐기고 있다. 2015.8.9 jihopark@yna.co.kr 외국인 관광객은 150만6천123명으로 전년 동기(191만2천268명)보다 21.2％ 감소했다. 관광협회는 "지난 6∼7월 발생한 중동호흡기증후군(메르스) 사태로 국제선 항공기 직항노선과 전세기가 감소했다"며 외국인 관광객이 차지했던 항공좌석을 국내 관광객이 대체하면서 내국인 관광객이 증가했고 총 누적 관광객도 증가했다고 설명했다. 또 제주도와 관광협회 등 관광행정기관이 제주관광 핫세일, 대도시 제주관광홍보 캠페인 등 홍보마케팅에 주력한 부분도 유효했다고 봤다. 제주 관광객은 지난 2011년(11월 26일) 사상 처음으로 누적 800만명을 넘어섰다. 이어 800만명 돌파 시점은 2013년 9월 24일, 2014년 8월 29일, 올해 8월 13일(예상)로 꾸준히 앞당겨지고 있다. 올해는 지난해에 비해서도 보름 이상 이른 시일 내에 누적 관광객 800만명을 달성할 것으로 보인다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2015/08/12 14:36 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 영상 기사 재생시간 01:38 [영상] 러시아 본토-크림반도 연결 크림대교서 대규모 폭발…통행 중단 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 80대 아버지 흉기로 찔러 살해…60대 아들 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 동거녀의 13살 딸 엉덩이 깨물어 학대…50대 징역형 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 혼자 사는 70대 여성 살해하고 달아난 50대 검거 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) '90년대 강남 큰손' 조춘자 또 분양사기…징역 7년 추가 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 스타트렉 선장 "우주여행, 장례식 같았다…가장 슬픈 경험" 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 김하성, 3볼넷 3득점 1도루 '펄펄'…샌디에이고, NLDS 진출 칼 꺼낸 최하위 한화 이글스, 신정락 등 12명과 작별 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 지독한 미스터리에 감성 더한 '작은아씨들' 시청률 11.1%로 종영 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 尹대통령 "북핵 위협 날로 심각…한미·한미일 안보협력 대응" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 美, 김정은 '대화 불필요' 주장에 "여전히 외교적 접근 전념" 러 우크라 전역 대규모 공습…최소 11명 사망, 주요 인프라 파괴 올해 누적 무역적자 300억달러 돌파…10월 1∼10일 수출 20.2%↓ 광고 댓글 많은 뉴스 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 댓글수 59 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 25 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 해물요리, 국내외 관광객들에게 "별미" 호평 - 머니투데이 본문영역 바로가기 로그인 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 포토 더차트 더그래픽 영상 MT 영상 더영상 전체기사 증권 뉴스 시세/공시 코스피 코스닥 코넥스 상승/하락 상하한가 시가총액 거래량상위 신규상장 주요공시 포인트&amp;전략 펀드 펀드IR 국내펀드 해외펀드 유형종합 종목대해부 베스트리포트 MY스톡 정치 법률 유니콘팩토리 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 전체핫이슈 이슈키워드 연중기획 실시간급상승 베스트클릭 사람&amp; 피플 MT초대석 인터뷰 대표선배 인사 부고 MT리포트 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 속보 "미·중 화해 희망 사라졌다"…中반도체주, 시총 12.3조원 증발 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 이복현 "금투업계 접대비 현황 점검…시행령으로 기준도 찾겠다" 나노씨엠에스, 바이러스 사멸램프 美 알려…백악관·FDA·CDC 관계자 '참석' 연준 "4.5% 위에서 금리 인상 중단"…급격한 경기 둔화 위험 언급 "기후변화 선제 조치"…정부, 기술개발 로드맵 수립 착수 고용보험 가입자 증가세, 10개월만에 30만명대로 둔화 "미·중 화해 희망 사라졌다"…中반도체주, 시총 12.3조원 증발 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 이복현 "금투업계 접대비 현황 점검…시행령으로 기준도 찾겠다" 나노씨엠에스, 바이러스 사멸램프 美 알려…백악관·FDA·CDC 관계자 '참석' 연준 "4.5% 위에서 금리 인상 중단"…급격한 경기 둔화 위험 언급 "기후변화 선제 조치"…정부, 기술개발 로드맵 수립 착수 고용보험 가입자 증가세, 10개월만에 30만명대로 둔화 검색창 열기 통합검색 검색 닫기 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 제주도 해물요리, 국내외 관광객들에게 "별미" 호평 sns공유 더보기 제주도 해물요리, 국내외 관광객들에게 "별미" 호평 머니투데이 B&amp;C 고문순 기자 기자 더보기 sns공유 더보기 2015.08.19 17:28 글자크기 글자크기조절 가나다라마 가나다라마 가나다라마 가나다라마 가나다라마 의견 남기기 국내 관광객들은 물론 해외 관광객들에게도 사랑받고 있는 제주도는 볼거리뿐만 아니라 먹거리 역시 풍부해 스트레스에 시달리고 있는 현대인들에게 낭만과 휴식을 함께 즐길 수 있는 여행지로 사랑을 받고 있다. 제주도의 다양한 먹거리 중에서도 싱싱한 해산물이 풍성한 해물요리는 별미로 불린다. 대호해물가든 신용대 이다현 대표는 "해물모듬찜, 아귀찜, 대창찜, 알곤찜, 낙지찜, 왕새우찜, 왕새우구이 등 도심에서 쉽게 맛 볼 수 없는 풍성하고 싱싱한 해물요리 메뉴들을 선보이고 있는데 입소문을 타고 국내외 여행객들이 즐겨 찾는다"고 말했다. 대호해물스페셜 ‘해물찜’은 새우, 게, 낙지, 전복, 아귀, 주꾸미, 그린피스 등 신선하고 푸짐한 해산물과 야채의 감칠맛이 살아있는 ‘대호해물가든’ 만의 특제소스로 맛을 내 여행객들의 선호도가 높다는 설명이다. 신용대 이다현 대표는 “손님들에게 건강한 먹거리를 제공하기 위해 노력하고 있다. 최상급의 재료만을 엄선하여 사용한 메뉴들을 부담 없는 가격에 제공하며 제주도 정통 해물을 맛보게 하고 싶다”고 밝혔다. &lt;저작권자 © ‘돈이 보이는 리얼타임 뉴스’ 머니투데이, 무단전재 및 재배포 금지&gt; 공감 0% 비공감 0% 중기&amp;창업팀 고문순 komoonsoon@mt.co.kr 기자의 다른기사 "매일 밤 아내가 보챕니다" 결혼 10년차 남편의 비결은? 머니투데이 댓글 작성을 위해 JavaScript를 활성화해주세요 머니투데이 주요뉴스 "코스피 바닥 근접, 팔지 마라…반등은 내년 2분기 이후" 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 채권시장 전문가들이 오는 12일 열리는 금융통화위원회(금통위)에서 한국은행이 기준금리를 0.5%p(포인트) 올리는 이른바 "빅스텝"을 단행할 것으로 내다보는 것으로 나타났다. 한은이 빅스텝 인상에 나선다면 지난 7월 금통위에 이어 역대 두 번째다. 빅스텝이 현실화되면 국내 기준금리는 현행 연 2.5%에서 3.0%로 오른다.7일 머니투데이가 증권사 애널리스트 10명을 대상으로 조사한 결과, 10명 모두 한은이 오는 12일 기준금리를 0.5%p 올릴 것으로 예상했다. 금통위 내에서 "0.25%p 인상"으로 소수의견이 있을 것이란 답변은... 코스피 -2%, 코스닥 -3%…"언제까지 내려가" 개미들 울상 中 '반도체 굴기' 때린 미국…삼성·SK하이닉스 '호재' 원/달러 환율, 4거래일만에 1430원 재돌파 단독 맞춤 패키지로 K원전 수출한다 "빚내 집사라"던 9년 전처럼…얼어붙은 부동산 매수심리 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 '아이폰14 프로' 들고 놀이기구 탔더니 911 출동 "밀크티 싸다 기뻐했죠? 우유없다" 中폭로남 "삽시간에 쓸어" 베네수엘라 대규모 산사태 실시간 급상승 9.9 베스트클릭 종합 벤처·스타트업 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 '풀소유 논란'에 사라진 혜민스님, 2년 만에 포착된 근황 "9억 아파트·11억 주택 있다" 대리기사 말에 격분해 폭행한 60대 "돈 많으면 때려" 말에 35차례 종업원 폭행 사망…업주 '징역 7년' "이번주 금리 0.5%p 더 올린다"...전문가 10명 만장일치 "클럽서 따라 놓은 술 마셨다가…" 마약의 늪에 빠진 사람들 "日지배로 韓 발전했다"던 美하버드대…항의하자 돌아온 답변 '화물차 음주 사고' 재판받던 중 또 무면허 음주운전…'감형'받은 이유 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 이전 다음 셀러비코리아 "팬시, 5일 글로벌 거래소 후오비 상장" 베트남 국민 과외앱 '콴다', 누적 가입자수 7000만 돌파 머니투데이 오프라인 헤드라인 -5일 물류센터 지붕 빌려 태양광 발전하는 스타트업, 연간 2400명 쓴다 "이름값 했다" 케이유니콘인베, 첫 투자에 '1조 유니콘' 터졌다 오늘의집, 데이터 전담부서 신설...초개인화 맞춤 검색 서비스 100억 뭉칫돈, 푸드스캐닝 뭐길래…1초만에 칼로리 계산 '뚝딱' '음쓰' 줄여주는 AI 기술 누비랩, 100억원 시리즈A 투자유치 딥트레이드-KB증권 MOU 체결…"AI가 상승확률 높은 종목 추천" '100원짜리 물고기'로 혁신...신약개발 고비용·저효율 구조 깬다 이전 다음 MT리포트 '여가부 폐지' 약속 지킨 尹정부…"오히려 기능 강화" 기대와 우려 이슈패키지 2022 국정감사 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 그린비즈니스위크 2022 K-탄소중립 현재·미래 한 눈에, GBW 2022 D-5.."등록하세요" 탄소중립 미래도 보고 일자리도 잡을 기회…그린 전환 잡콘서트 D-7 기후협상 산증인부터 벽안 석학, 글로벌기업까지..GBW 개막총회 총출동 2023년 예산안 "허리띠 졸라매고"...尹정부 첫 예산안, '역대 최대' 24조 칼질 尹대통령은 반도체 초강대국 주문했는데…'기재부' 벽 못넘은 지원 예산 장관 없어도 '100조 부처' 등극한 복지부·교육부 이전 다음 최신뉴스 벤처·스타트업 마켓 [우보세]유니콘 톱10 한국의 '초라한 생존율' 머니투데이 오프라인 헤드라인-11일 "마 창업 와 했노?" 코스포, 부산 창업가들 '고군분투기' 다큐 공개 "머리카락 보다 작은 마이크로 의료로봇, 막힌 혈관 뚫는다" '100원짜리 물고기'로 혁신...신약개발 고비용·저효율 구조 깬다 일시적 2주택 미처분 가산세 없애고 하이브리드車 취득세 면제 연장 한올바이오파마 HL161 중국사업권, 하버바이오에서 CSPC로 이전 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 JW생명과학, 국내 첫 전용량 종합영양수액제 자동화 라인 가동 SK이노베이션, 이익 개선 방향은 여전-NH투자증권 오늘의 꿀팁 많이 본 뉴스 일주일 1개월 6개월 1년 유혜영, '옥중 이혼' 나한일과 재결합했지만…"따로 산다" 왜? "남자로 보였는데…" 신봉선, 10세 연상 지상렬과 '썸' 결말은? "우울증, 술에 의지" 최강희 연예계 떠난 근황…고깃집 '알바' 공감 "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 비공감 최정원, 자궁내막증 진단→자궁 적출…"수술 후 더 큰 문제 발생" "곽도원, 술상 엎고 후배 배우 비하·폭언…가족까지 괴롭혀" 주장 나와 '쇼미' 출신 래퍼, 다이빙 사고로 전신마비…"대소변도 혼자 못봐" 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? 공감 "벨 눌러 아이 깨면 환불" 황당 요청에 '주문 취소' 응징한 사장님 비공감 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? 고명환, 교통사고로 시한부 판정→"연매출 13억원" 사업가 변신 조형기는 어디에…방송 퇴출→유튜브마저 중단 후 소식 끊겨 공감 김연아, 예비 시아버지 '정치성향'도 시끌…무슨 활동했길래 비공감 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? 공감 김신영, '평생 직장' 전국노래자랑 출연료는?…"회당 OOO만원" 비공감 정유라 6년만의 근황 "깡으로 버텼다…조민이 불쌍하다니" 눈물 오피니언 '복합경제위기' 해법은 없어도 돌파구는 있다 광화문 원희룡, '집값 너무 높다'고 말했을 뿐인데 우리가 보는 세상 포켓몬, 열풍이 역풍 된다? 기자수첩 더리더 '여야 동수' 경기도의회 … 염종현 의장이 그리는 '협치' 스타일M 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 스타뉴스 신화 신혜성, 음주측정 거부 혐의 체포..차량 도난 의심 '충격'[공식] MoneyS 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 IZE 도경수는 '진정' 믿고 볼 만해! the300 핵에는 핵, 30년만 '전술핵 재배치' 가능성…총력 대응 나선다 theL 故 이예람 특검, 수사 결과 13일 오후 발표…전익수 기소 여부 주목 티타임즈 [30년 개발자의 애플 주식강의] 누가 차를 장악할까? 테슬라의 자율주행 vs 애플의 자동차 OS? 포토 / 영상 7 올가을 최저 기온에 목도리 패딩 등장 6 오늘부터 무비자 일본 관광 재개 15 '주먹 쥔 파퀴아오' 9 레드벨벳 예리 '패딩+미니스커트 귀여운 공항패션' 킹받게 매운 고추, 맵찔이도 외국인도 맛있게 먹을 수 있는 요리법 1020 울리는 댈입 댈구, 연 이자가 무려... '이 번호'로 로또 1등 433명 나온 필리핀 4K 시대에 게임 방송은 720p로 봐야 한다고?! 16 '아이폰14' 국내 출시 6 코스닥 700선 회복, 환율 1402.4원 마감 45 화려한 'TMA 레드카펫' 20 부산국제영화제 찾은 이지은 커피 없는 일상, 현실이 될 수 있다고? 할머니도 놀란다는 요즘 애들 입맛 요즘 명품 로고들이 다 똑같아 보이는 이유 Q. 어제는 900원 오늘은 1000원인 것은? 7 '여가부 폐지·보훈부 격상·재외동포청 신설' 6 北, 이틀만에 또 탄도미사일 발사 9 김유정 'BIFF 반가워요' 28 '아시아 스타 어워즈' ★들의 잔치 '아이폰14' 공개 동시에 조롱거리 된 이유 포토카드 하나가 20만원? 팬덤이 키운 포카 시장 '진짜 한국 같아!' 도한놀이에 빠진 일본 MZ들 찍었다하면 인생샷! 핫플레이스의 정체는? 이전 다음 머니투데이 SERVICE 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 시세판 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MnB창업 MT해양 자전거 the300 thebell theL 유니콘팩토리 MTN 노트펫 앱어워드 이로운넷 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버포스트 MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 MT 비즈센터 머니투데이 회사소개 구독신청 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동)   제호 머니투데이   등록번호 서울 아 01084   등록일 2009.12.24사업자등록번호 101-81-50419   발행일 2020.01.01   ISSN 2636-0055대표이사/발행인/편집인 박종면   대표번호 02-724-7700   청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다.COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이)[유효기간]2020.11.04~2023.11.03</t>
+  </si>
+  <si>
+    <t>제주도 관광기념품 공모전 당선작 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-11 12:08 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도 관광기념품 공모전 당선작 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 문화 제주도 관광기념품 공모전 당선작 지화 승인 2015.08.17 13:21 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-문화] 제주특별자치도는 제18회 제주특별자치도 관광기념품 공모전 대상에『제주해녀(섬이야기, 박종호)』를 선정하였다. 도는 지난 6월 22일부터 8월 7일까지 공모를 통해 응모한 93개 작품에 대하여 도내 관련 대학교수, 기념품 관련 단체 및 업체 등 전문가 10명으로 심사위원을 구성하고 상품성, 기능․활용 측면의 디자인, 작품성 등을 종합적으로 심사하여 당선작을 선정하였다. 금번 대상작품은 제주해녀와 바다에서 잡은 전복, 소라를 모티브로 제주의 자연을 직접 느낄 수 있고 제주해녀의 강인한 생명력과 개척정신을 보여줌과 동시에 제주해녀가 유네스코 문화유산에 등재되기를 기원하는 마음으로 만들어졌다. 금상에는 말을 사랑하다(함은열), 은상에 제주의 빛 하루(하귀도예, 방미선), 말가죽 벨트․열쇠고리(영농조합법인, 산새미), 동상에 마그마 맛사지 씨놀크림((주)제주마그마에너지, 지인수․지경섭), 제주풍경타일(김남철)이 선정되었고 그 밖에 장려상에 4작품, 입선에 8작품 등 총 18작품에 대하여 제주특별자치도지사 상장을 수여할 예정이다. 공모전 입상자에게는 각종 전시․홍보지원과 상품개발자금 지원 등의 특전이 주어진다. 특히 대상․금상․은상․동상에 선정된 작품들은 제주 관광기념품을 대표하여 대한민국 관광기념품 공모전에 출품된다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 지화 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 2나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 3증평군, 트로트 가수 박군 홍보대사로 위촉 4[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 5[영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! 6[영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! 7영동경찰서, 지역치안협의회 정기회의 개최 8계룡세계군문화엑스포 7일 개막 9부여군, “제68회 백제문화제 순항” 10[카메라 뉴스] 2022 괴산세계유기농산업엑스포 개막식 최신기사 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 영동·김천·무주, 올해는 삼도봉 정상에서 변치않는 우정 확인! 영동군, 2022-2023절기 어르신 독감예방접종 12일부터 연령별 순차접종 영동군, AI·IOT기반 어르신건강관리 서비스 ‘만족도UP, 건강UP’ 옥천군 보건소 2022년‘비만예방의 날’기념 캠페인 실시 옥천군, ‘정신건강의 날’ 및 옥천군정신건강복지센터 개소 10주년 기념 행사 개최 오늘의 동영상 [영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! [영상뉴스] 유성구, 야경이 아름다운 제13회 ‘유성 국화전시회’ [영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! [영상 / 포토] 충남 부여에서 열리는 제68회 백제문화제! [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
+  </si>
+  <si>
+    <t>부산관광공사, 제주도와 마이스·관광 교류 업무협약 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 부산관광공사, 제주도와 마이스·관광 교류 업무협약 파이낸셜뉴스입력 2015.08.20 12:40수정 2015.08.20 12:40 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 부산관광공사는 지난 19일 제주관광공사와 마이스(MICE) 및 관광 상호 교류에 관한 업무협약을 체결했다. 주요 내용은 포상관광을 포함한 MICE 정보 상호 교류, 크루즈관광 및 관련회의 정보 교류, 해외에서의 공동 유치 마케팅 추진, 김해 국제공항과 제주국제공항을 통해 입국하는 외래 관광객의 체류관광상품(Stop-over)개발 촉진 등이다. 부산관광공사 신용삼 사장대행은 "세계적인 국제회의 개최지이며 중국인이 가장 선호하는 관광지인 제주도와의 전략적 제휴를 통해 국제회의 유치 기반을 확대하고, 외국인 관광객의 국내 체류를 늘이는 효과를 가져 올 수 있을 것"이라고 기대했다. 협약식을 마치고 양 공사 관계자들이 기념촬영하고 있다. ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>한류스타 이루, 제주도 홍보대사로 위촉. 인도네시아에서 제주관광 홍보 한류스타 이루, 제주도 홍보대사로 위촉. 인도네시아에서 제주관광 홍보 : 스포츠조선 뉴스 최신뉴스 카드뉴스 PDF 보기 포토 펀펌 스포츠 야구 축구 농구 배구 골프 학교체육 연예 SC초점 SC이슈 SC현장 라이프 여행레저 헬스케어 Family Site 청룡영화상 청룡시리즈어워즈 조선일보 와이즈토토 야구 축구 종합 연예 라이프 포토 만화 운세 Diva 운세의신 달리고 펀펌 연예 한류스타 이루, 제주도 홍보대사로 위촉. 인도네시아에서 제주관광 홍보 기사입력 2015-08-12 08:41:21 인도네시아사에서 한류 열풍을 일으키며 신한류의 중심으로 자리매김하며 다양한 분야의 홍보대사로서 활동중인 이루가 이번엔 제주도 홍보대사로 위촉됐다.제주특별자치도 홍보대사에 위촉된 이루는 지난 11일, 제주관광 마케팅 차원에서 인도네시아를 방문하는 원희룡 제주도지사와 함께 제주관광 홍보를 위해 인도네시아를 방문했다. 제주 관광발전에 기여하기 위해 자원봉사 형식으로 원희룡 지사의 일정에 동행한 이루는 현지에서 다양한 이벤트와 프로모션을 펼치며 제주관광 홍보에 나설 예정이다.인도네시아에서 전국민적 사랑을 받고 있는 이루는 그 동안 현지에서 활동을 하며 국산품 애용에 앞장서 현지인들에게 한국 제품에 대한 관심을 이끌어 내고 한국음식문화재단과 함께 한식문화를 알리는데 앞장서는 등 민간외교에도 힘써왔으며, 이 같은 공로를 인정 받아 양국 정부로부터 표창을 받기도 했다. 한편 제주 관광 홍보를 위해 인도네시아를 방문한 이루는 2박 3일간의 프로모션을 활동을 펼치고 13일 귀국한다.이정혁 기자 jjangga@sportschosun.com [ ※보도자료 및 기사제보 news@sportschosun.com - 톱배우 충격 근황..파킨슨병으로 불편한 모습 “온몸 두들겨 맞는듯한 한해 보내” 김지민 “쌍둥이 임신해서 ♥김준호와 결혼한다고”→박미선 “떠밀려 결혼하지 마” '부모 빚투' 마이크로닷, '닭발집' 앞에서 근황을? 코 수술·뮤비 촬영 위해 귀국 '뺑소니' 조형기, 방송가 사라진 후 “美 필라델피아서 자주 목격” 박미선·김용만 불화로 갈등..“좋은 사람 아닌 것 같아” 연예 많이본뉴스 1.신화 신혜성, 도난차량서 음주측정 거부하다가 체포 2.마돈나, 41세 연하남과 열애 부담됐나? 급기야 성형의혹까지 3.'결혼지옥' 73세 아내 "79세 남편 세 번의 외도"..오은영 "배우자 외도 치명상" [SC리뷰] 4.김태희, '♥비 골프선수 불륜설' 극복..'하이바이, 마마' 향한 끈끈한 우정 5."최초공개" 오상진♥김소영, 이름도 비밀이었던 딸+집안 내부 [종합] ('동상이몽2') 스포츠 많이본뉴스 1.트레이드 실패? 이대호의 '아픈 손가락'…천재 유격수 향한 '의미심장' 마지막 당부 [SC포커스] 2."나는 게이다" 후폭풍…카시야스, 팔로워 300만 빠졌다 3.'55세 225일' 日축구영웅의 노욕, 팬들도 질렸다 "미우라를 월드컵으로!" 4.'너무 망가져 보인다' 눈물 참는 명장, 고통 받는 충격 근황 5.'괴물' 데려온 伊 에이전트 "나폴리에 1년 전부터 김민재 제안" 스포츠조선 회사소개 광고/제휴문의 사진대여 신문구독신청 개인정보처리방침 청소년보호정책 조선일보 와이즈토토 청룡영화상 등록번호 : 서울 아01720 등록일자 : 2011년 7월 29일 발행일자 : 2000년 11월 1일 주소 : 서울 양천구 목동동로 233-1 전화번호 :02-3219-8114 발행인 : 이성관 편집인 : 신보순 청소년보호책임자 : 이재훈 RSS PDF Copyright (c) SPORTSCHOSUN.COM All rights reserved.</t>
+  </si>
+  <si>
+    <t>한국공항공사제주본부-제주도관광협회, 업무협약 체결 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 한국공항공사제주본부-제주도관광협회, 업무협약 체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 한국공항공사제주본부-제주도관광협회, 업무협약 체결 기자명 고병수 기자 입력 2015.08.19 17:49 수정 2015.08.19 18:26 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 19일 제주공항에서 민병훈 한국공항공사 제주지역본부장(사진 왼쪽 두번째)과 김영진 제주도관광협회장(사진 왼쪽 세번째)은 제주관광산업 발전 및 제주국제공항 활성화를 위한 업무협약을 체결하고 기념촬영하는 모습. (제주=국제뉴스) 고병수기자 = 한국공항공사 제주지역본부는 19일 제주특별자치도관광협회(회장 김영진)와 제주관광산업 발전 및 제주국제공항 활성화를 위한 업무협약(MOU)을 체결했다.업무협약은 ▲지역경제 활성화를 위한 관광산업의 성장발전 공동노력 ▲제주공항 신규 노선 유치를 위한 공동 마케팅 전개로 중국 위주의 국제선 노선 다변화 ▲관광객 편의 제고 및 지역민을 위한 사회공헌 활동 등 공동사업의 추진 등이다.또한 기상악화 등으로 인한 제주공항내 이용객 불편해소를 위한 공동노력을 시행하고 공항 내 정기적 문화행사 개최 등 양 기관이 가진 자원을 적극 활용해 공항이용객 만족도 향상에도 상호 협력키로 했다. 민병훈 한국공항공사 제주지역본부장과 김영진 제주도관광협회장은 "이번 업무협약 체결이 대한민국 최고의 관광지인 제주를 전 세계인 모두가 사랑하는 제1위 관광지로 만들기 위한 초석이 됐으면 한다”며 “이를 위해 양 기관간 지속적인 교류를 추진해 나갈 예정"이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도내 관광호텔, 2018년에 4000실 이상 초과 공급 &lt; 경제일반 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도내 관광호텔, 2018년에 4000실 이상 초과 공급 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 경제일반 제주도내 관광호텔, 2018년에 4000실 이상 초과 공급 기자명 최병근 기자 입력 2015.08.17 10:11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제발연, 2018년에 관공호텔 1만7487실로 늘어나...업계 ‘우려’제주도, “숙박시설 공급 조절 제도개선 및 종합적인 대책 마련” ▲ [제주도민일보 DB][제주도민일보=최병근 기자] 제주도내 관광호텔 객실이 2018년에 4330실 이상 초과 공급될 우려가 있다는 연구결과가 나왔다.제주발전연구원은 17일 ‘제주지역 광광숙박시설 수요공급분석을 위한 기초연구’결과를 발표했다.이 결과에 따르면 최근 10년간 관광객 증가추세와 공항만 수용능력을 감안하면 2018년 관광객은 1723만1000명까지 늘어나고 신규 관광숙박시설은 신화역사공원과 드림타워 등 현재진행 중인 사업이 정상적으로 추진될 경우 2015년부터 2018년까지 1만9801실이 추가 공급돼 총4만771실로 증가할 것으로 전망했다.이중 관광호텔에 대한 수급분석 결과 2018년 8월 성수기 기준 1일 제주도에서 숙박하는 관광객은 5만1465명이고 그중 약 26%인 1만3416명이 관광호텔을 이용할 것으로 전망했다.현재 관광호텔 이용일수 및 투숙인원이 유지된다고 가정하면 성수기 적정가동률 85%를 유지할 수 있는 객실은 1만3157실이나 현재 공사(예정) 중인 사업들이 계획보다 일부 지연될 것을 감안해도 2014년말 기준 9762실인 관광호텔이 2018년에는 1만7487실로 늘어나 4330실 이상이 과잉 공급될 것으로 조사됐다.이와 관련하여 제주발전연구원은 숙박업계 관계자 200여명의 의견을 조사했다. 이 결과 약 79%가 현재 도내 숙박시설이 많고, 약 68%가 적어도 2016년도 이후에는 도내 숙박시설이 포화될 것으로 내다보고 있으며, 업계에서는 향후 숙박시설 과잉공급으로 인한 경영악화를 우려하고 있다.제주도에서는 그간 관광숙박시설 적정공급을 위해 숙박시설 건축기준 강화, 관광숙박시설 확충에 관한 특별법에 규정된 용적률 완화 특례규정 배제, 휴양콘도미니엄 내국인 분양기준 강화, 관광진흥기금 중 관광숙박업 건설자금 융자 한도액 및 횟수 축소 등 여러 제도시행과 도내 숙박시설 과잉공급에 대한 우려로 신규 관광숙박업 사업계획 승인은 감소하고 있다.하지만 현재 추세만으로도 향후 관광호텔 공급이 과잉될 것으로 예측됨에 따라 제주도 관계자는 “도내 숙박시설 공급 조절을 위한 제도개선과 기존 숙박시설에 대한 정비 및 지원 강화 등 종합적인 대책을 마련하겠다”며 “숙박시설의 체계적인 통계관리 시스템을 구축하고 숙박시설에 대한 수급분석을 주기적으로 시행하여 관광시장 변화에 선제적으로 대응해 나갈 계획이”이라고 밝혔다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 말련서 제주관광 상품 세일즈 전개 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 말련서 제주관광 상품 세일즈 전개 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 말련서 제주관광 상품 세일즈 전개 기자명 고병수 기자 입력 2015.08.19 08:43 수정 2015.08.19 08:46 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주도와 도관광협회는 도내 여행업계와 공동으로 지난 14일부터 16일까지 말레이시아 쿠알라룸푸르에서 열린 대형 관광박람회인 말레이시아 국제트레블마트MITM2015에서 제주관광 상품홍보와 현지 세일즈콜을 전개했다고 19일 밝혔다.이번 박람회는 말레이시아 현지 여행사와의 직거래 구축 및 시장 다변화를 위한 도내업계 자사상품 홍보와 정보 제공, 상담 등 여행업체 간 B2B 활동을 했다.또한 박람회에 참관한 6만여명의 일반 잠재 소비자을 대상으로 제주여행 욕구 자극을 위한 다양한 제주여행 상품 판촉 활동인 B2C로 진행됐다. 박람회를 참가한 다수의 여행사들이 제주에 대한 고품격 상품을 구성해 판매하고 있고 도관광협회는 현지 여행사와 함께 2016년도 제주국제관광마라톤축제를 연계해 고부가가치상품을 개발, 도내 업계에서 직접 인바운드가 가능하도록 협의했다.관계자는 "앞으로 제주도와 도관광협회는 도내 여행업계와 공동으로 동남아 지역 관광박람회와 연계한 상품 세일즈 마케팅 전개한다"며 "이를 통해 메르스 영향에 따른 침체된 관광시장 조기회복과 여행업계 간 자율제 판촉 장려 및 현지 여행업체와의 직거래 시스템 여건 마련으로 제주관광 시장 다변화와 질적 성장 도모에 기여해 나갈 계획"이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>서울시-제주도, 중국 상하이서 관광 동반 세일즈 Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 기사 본문 영역 상세페이지 서울시-제주도, 중국 상하이서 관광 동반 세일즈 입력 2015.08.03 (14:03) 수정 2015.08.03 (14:28) 사회 댓글 좋아요 공유하기 인쇄하기 글씨 크게보기 가 글씨 작게보기 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상설명 동영상 고정 취소 중국인 관광객들이 가장 좋아하는 우리나라 도시인 서울시와 제주도가 중국 상하이에서 함께 관광세일즈를 펼쳤습니다. 박원순 서울시장과 원희룡 제주지사는 오늘 양슝 상하이 시장을 만나 상하이 시민이 서울과 제주를 안심하고 방문하도록 협조해 줄 것을 당부했습니다. 두 사람은 또 상하이의 대형 여행사를 찾아 현지 여행업계의 고충을 듣고 서울과 제주도의 우수한 신규 관광자원과 여행사를 대상으로 한 지원 정책을 소개했습니다. 아울러 서울을 방문한 중국 관광객들의 70%가 제주도를 방문하는 점을 고려해 김포공항 무비자 환승 등 서울과 제주의 공동 관광상품 개발에도 관심을 가져 달라고 여행사 측에 요청했습니다. 박 시장은 이에 앞서 인천과 제주를 잇는 항공편을 운행하는 항공사를 보유한 춘추그룹 대표와 상하이금강국제여행사 관계자를 잇따라 만나 관광객 유치활동을 벌였습니다. 이와 함께 박 시장은 중국 5대 은행 가운데 하나인 중국교통은행장과 만나 금융 연구개발센터의 서울 진출을 제안했습니다. 서울시-제주도, 중국 상하이서 관광 동반 세일즈 입력 2015-08-03 14:03:12 수정2015-08-03 14:28:08 사회 중국인 관광객들이 가장 좋아하는 우리나라 도시인 서울시와 제주도가 중국 상하이에서 함께 관광세일즈를 펼쳤습니다. 박원순 서울시장과 원희룡 제주지사는 오늘 양슝 상하이 시장을 만나 상하이 시민이 서울과 제주를 안심하고 방문하도록 협조해 줄 것을 당부했습니다. 두 사람은 또 상하이의 대형 여행사를 찾아 현지 여행업계의 고충을 듣고 서울과 제주도의 우수한 신규 관광자원과 여행사를 대상으로 한 지원 정책을 소개했습니다. 아울러 서울을 방문한 중국 관광객들의 70%가 제주도를 방문하는 점을 고려해 김포공항 무비자 환승 등 서울과 제주의 공동 관광상품 개발에도 관심을 가져 달라고 여행사 측에 요청했습니다. 박 시장은 이에 앞서 인천과 제주를 잇는 항공편을 운행하는 항공사를 보유한 춘추그룹 대표와 상하이금강국제여행사 관계자를 잇따라 만나 관광객 유치활동을 벌였습니다. 이와 함께 박 시장은 중국 5대 은행 가운데 하나인 중국교통은행장과 만나 금융 연구개발센터의 서울 진출을 제안했습니다. ■ 제보하기 ▷ 카카오톡 : 'KBS제보' 검색 ▷ 전화 : 02-781-1234 ▷ 이메일 : kbs1234@kbs.co.kr ▷ 뉴스홈페이지 : https://goo.gl/4bWbkG 기자 정보 김상협 기자 kshsg89@kbs.co.kr 김상협 기자의 기사 모음 댓글 좋아요 공유하기 오늘의 HOT클릭! 동영상 Ai pick 맞춤 뉴스 8개 더보기 이 시각 헤드라인 배너 많이 본 뉴스 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>스포츠서울 - 설악산 사고에 제주도 지진까지…관광명소에 들이닥친 '악재' 설악산 사고에 제주도 지진까지…관광명소에 들이닥친 '악재' 입력2015-08-03 13:40 수정2015-08-03 13:40 설악산 사고, 제주도 지진[스포츠서울] 설악산 오색지구에서 바위가 굴러 떨어지는 사고가 발생한 데 이어 제주도에서는 지진이 발생했다.2일 국립공원관리공단은 "이날 오후3시10분께 설악산 오색지구 흘림골 탐방로 구간에서 약 60t 규모의 낙석이 발생해 등산객 이모(60)씨가 숨지고, 우모(73)씨와 노모(53·여)씨가 다쳤다"고 밝혔다.설악산 사고가 발생한 지점은 양양군 서면 오색지구 용소폭폭 탐방지원센터에서 흘림골 방향 약 600m 지점으로, 설악산 사고로 60t 슈모의 돌이 150m 아래로 굴러떨어지면서 나무들이 쓰러졌다.그 중 커다란 나무가 사고 지역에 설치된 다리를 덮치면서 이곳을 지나던 등산객들이 사고를 당했다. 설악산 사고에 공단 측은 낙석 위험을 감안해 흘림골 탐방로 6km 전 구간을 통제했다.또 다른 관광명소인 제주도에서는 3일 오전 10시11분께 제주도 지진이 발생했다. 기상청에 따르면 제주 서귀포시 성산 남동쪽 22km 해상에서 규모 3.7의 지진이 발생했고, 진앙은 북위 33.26도, 동경 127.06도다.제주도 지진으로 인한 인명 피해는 없는 것으로 예상되는 가운데 제주도 지진은 지난 2월23일 제주시 고산 남남동쪽 38km 해역에서 발생한 규모 2.7 지진에 이어 올해 제주 주변에서 발생한 여섯 번째 지진이다. 제주도 지진의 규모는 올해 들어 발생한 전국 28개 지진 가운데 가장 크다. &lt;뉴미디어팀 news@sportsseoul.com&gt; 사진=방송화면 캡처 ▶ 디지털 뉴스콘텐츠 이용규칙 보기 0 오늘의 핫키워드 선우은숙 재혼 l 김지민 l 신혜성 l 오은영 박사 인기기사-네이버 '재혼' 선우은숙-유영재 아나, 어떻게 만났나 ... '쌍둥이 임신?' 김지민, 열애 공개한 이유가.... 7kg 감량 홍진영, 초미니로 뽐낸 각선미 '이정후 절친' 고우석, 이종범 사위 된다 '이상화♥' 강남, 장모와 XX수술도 같이해 외도 70대 노부부...오은영도 할 말 잃었다 신혜성, 도난차량서 음주측정 거부로 '체포' 강민경, '65억대' 매입 신사옥으로 이사 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 영상 포토 페이스북 트위터 카카오톡 구글플러스 카카오스토리 밴드 TOP 뉴스 1/2 이전 다음 맥심 선정 '세계 최고 섹시 미녀' 골프선수 중 타이거 우즈보다 팔로워 수가... 강민경, '65억' 매입 신사옥으로 이사 강민경이 신사옥으로 이사한다... 신세경, '헉' 소리 나는 베이글 여신 배우 신세경이 여신 같은 아름다움을... 호주 가라테 국대 출신, 남심 저격 호주 가라테 국가대표 출신으로 모델과... 과감 누드 화보 찍은 '91세' 최고령 모델 미국은 물론이고 전세계를 통틀어... 16살인데...이동국 딸, 넘사벽 성숙미 축구스타 이동국의 딸이자 모델 재시가... 부산국제영화제 레드카펫, 최고의 여신은? 부산국제영화제 레드카펫은... '아이언맨'의 그녀, 50세 기념 누드 배우 기네스 팰트로가 50세 생일을 기념한... SS TV 캐스트 구독하기 스포츠서울 SNS 스포츠서울 앱 살펴보기 스포츠서울 서울가요대상 Android 서울가요대상 IOS [사고]2022 제11회 전국 중.고 인문학 경진대회 X</t>
+  </si>
+  <si>
+    <t>[동정] 김영진 제주도관광협회 회장 &lt; 동정 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [동정] 김영진 제주도관광협회 회장 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 동정 [동정] 김영진 제주도관광협회 회장 기자명 고나연 기자 입력 2015.08.09 11:13 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 고부가가치 관광객 유치위한 중국 우호교류단체와 협력마케팅 전개 ▲ 김영진 제주도관광협회장.(제주=국제뉴스) 고나연기자 = 김영진 제주특별자치도관광협회장은 메르스로 침체된 중국 관광시장의 활성화를 위해 10일부터 15일까지 중국 북경, 산동성(제남), 강서성(상요) 지역 해외 우호교류단체 및 산하 회원사와의 상생 협력 비즈니스 마케팅을 펼친다. 김 회장은 골프 등 고부가 특화상품 개발을 통해 도내 관광업계와 공동으로 실질적인 유치마케팅 세일즈콜을 전개한다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 중국 산동지역 크루즈관광객 유치 나서 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 중국 산동지역 크루즈관광객 유치 나서 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회, 중국 산동지역 크루즈관광객 유치 나서 기자명 고연정 기자 입력 2015.08.13 17:25 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도-제주도관광협회, 중국 우호교류단체 협력 마케팅 이어가 ▲ 제주도와 제주도관광협회가 중국 산동지역 크루즈 관광객 유치를 위해 집중적인 유치 마케팅을 펼치고 있다.[제주도민일보=고연정 기자] 제주도와 제주도관광협회(회장 김영진)는 지난 12일과 13일 2일간 중국 산동성의 성도인 제남에서 산동지역의 고부가가치 크루즈 관광객 유치를 위한 마케팅을 펼치고 있다.도관광협회는 제남시여유국(국장 왕철지) 및 우호교류단체인 제남시여유협회(회장 두급승), 크루즈 전문여행업체며 중국의 10대 여행사로 선정된 산동가화문화국제여행사 등 주요여행업체와 간담회를 가졌다.도관광협회에 따르면 산동가화문화국제여행사(회장 장명)는 산동성 17개 도시에 지사 및 중국 전역에 대리점을 운영하고 있다. 1000여명의 직원이 크루즈 등 제주 및 방한상품 업무에 종사하고 있는 산동지역의 최대 여행업체다.특히 올해 7월 한국의 메르스 영향에도 불구하고 크루즈 관광객을 제주로 유치했다. 내년 7월에도 집중적인 크루즈 운항을 통해 고부가가치 크루즈 관광객을 제주로 유치할 계획이다.또 제주-제남 간 직항 전세기를 2013년 13편, 지난해 2월부터 11월까지 주 7회 매일 운항했다. 올해는 오는 20일부터 재 운항할 예정인 산동성에서 최고의 역량있는 업체로 손꼽힌다.도관광협회 김영진 회장은 이날 간담회에서 질적성장을 통해 고품격의 제주관광을 추구하는 제주도의 관광정책방향을 설명했다. 또 향후 크루즈 선석배정을 위한 도내업계와의 연계방안 등에 대해 논의했다.특히 향후 협회에서 추진하는 대형여행사 설립에 따른 크루즈, 전세기사업을 위해 중국 요우커들에게 만족도 높은 고품격의 관광상품개발을 위한 적극적인 파트너쉽 구축과 상호 상생을 위한 업무 추진 등 적극적인 협력체계를 구축하기로 했다.도관광협회는 산동여행사, 산동성중국국제여행사 등 20여개의 주요여행업체들과 제주관광상품 설명회 및 간담회를 가졌다. 이를 통해 고부가가치 크루즈 관광상품 및 직항노선 취항을 위한 현안사항 등 업계와의 실질적인 의견 교환이 이루어졌다.도관광협회는 앞으로 북경, 산동성 제남에 이어 강서성 상요시를 방문할 예정이다. 이 곳에서 시정부 부시장과의 간담회 및 상요강휘여행사를 비롯한 주요여행업체들을 대상으로 메르스 청정 및 안전지역을 홍보하는 등 중국 요우커들의 제주방문을 위한 적극적인 협력과 마케팅을 펼칠 계획이다. 고연정 기자 jjibi@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>역시 관광하면 제주도! 국민여행 만족도 3관왕 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 역시 관광하면 제주도! 국민여행 만족도 3관왕 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 역시 관광하면 제주도! 국민여행 만족도 3관왕 기자명 이승록 기자					(leerevol@naver.com) 입력 2015.08.07 11:37 댓글 4 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주가 국민여행 만족도에서 전국 17개 시․도 광역자체단체 중에서 각 항목 1위를 싹쓸이했다.7일 문화체육관광부의 '2014 국민여행실태조사' 결과에서 제주는 여행평가 부문 3대 중점분야인 전반적 만족도(4.33), 재방문 의향(4.31), 타인추천 의향(4.33)에서 각각 강원도를 제치고 1위를 차지했다.항목별 만족도에서 자연경관, 문화유산, 식당 및 음식, 쇼핑, 관광정보 및 안내시설, 관광지 편의시설, 관광종사자 친절성, 체험프로그램, 관광지 혼잡도 등에서 좋은 평가를 받아 12개분야 중 9개분야에서 전국 최상의 만족도를 보였다.또한 지난해 조사결과와 비교해 보면 쇼핑분야(4위→1위), 관광종사자 친절성(2위→1위), 체험프로그램(4위→1위) 등 다소 처졌던 분야에서도 만족도가 상승한 것으로 나타났다.제주도는 이번 조사를 통해 제주가 우리나라 최고의 여행지임이 재확인됐고, 이는 관광산업의 중요성에 대한 도민과 관광사업자들의 공감과 인식을 바탕으로 지속가능한 관광발전을 위한 유관기관, 단체, 행정의 협력과 노력의 결과로 판단하고 있다.특히 재방문 의향과 타인 추천의향에서의 좋은 평점은 대내외 여건변화에도 안정적인 관광객 유치가 이어질 수 있음을 기대하는 긍정적인 지표로 보고 있다.제주도는 앞으로도 도관광협회, 제주관광공사, 관광사업자 등과 긴밀한 협력체계를 기반으로 메르스로 위축된 관광산업 회복과 체질개선을 위해 다각적인 노력을 기울여 나갈 방침이다.2014 국민 여행평가 (17개 지자체별]지표명(각 5점 만점)평가결과(점수)‘13년1위2위3위전반적 만족도제주(4.33)강원(4.14)전북(4.09)1위(4.45)재방문 의향제주(4.31)강원(4.07)경북(4.04)1위(4.39)타인추천 의향제주(4.33)강원(4.03)경북․울산(4.00)1위(4.39)항목별만족도자연경관제주(4.58)강원(4.32)경남(4.22)1위(4.57)문화유산제주(4.44)충북(4.07)경북․강원(4.06)1위(4.36)교통세종(4.33)제주(4.30)충북(4.02)1위(4.16)숙박시설세종(5.00)제주(4.30)충북(4.08)1위(4.25)식당 및 음식제주(4.21)전남(3.96)충북․전북(3.94)1위(3.97)쇼핑제주(4.03)세종(3.86)강원(3.83)4위(3.79)관광정보 및 안내시설제주(4.23)광주(4.10)강원(3.98)1위(4.15)관광지 편의시설제주(4.28)광주(4.04)세종(3.99)1위(4.16)지역관광종사자의 친절성제주(4.14)강원(3.98)서울(3.97)2위(4.03)체험프로그램제주․서울․인천(4.05)--4위(3.94)관광지 물가광주(3.83)대전(3.71)세종(3.64)‘14년:4위(3.63)‘13년:7위(3.47)관광지 혼잡도 제주(3.97)전남(3.82)대전․세종(3.79)1위(3.85)※ 본 결과는 가구여행대상 결과임(표본가구내 동거하고 있는 가구원 2인이상 동행여행) 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 메르스에도 2분기 관광 소비 증가 &lt; 경제 &lt; 경제 &lt; 기사본문 - 초이스경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 UPDATED. 2022-10-11 11:44 (화) 로그인 회원가입 모바일웹 전체메뉴 버튼 뉴스+ 경제 산업 금융 피플 포토 뉴스 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 메르스에도 2분기 관광 소비 증가 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 경제 제주도, 메르스에도 2분기 관광 소비 증가 기자명 김슬기 기자 승인 2015.08.11 13:43 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 제주 올레길 [초이스경제 김슬기 기자] 메르스 여파에도 제주 지역 관광산업 소비 증가세는 오히려 확대됐다. 반면 제조업 경기 위축으로 울산 지역 소비는 하락세를 보였다.11일 통계청이 발표한 '시도 서비스업 생산 및 소매판매 동향'에 따르면 2분기 울산 지역 소매판매는 전년동기 대비 0.3% 감소했다. 울산 지역 소매판매는 1분기(-1.7%)에 이어 2분기 연속으로 마이너스를 기록했으며 전국 16개 시도 중 소비가 유일하게 감소했다.통계청 측은 "생산이 활발하게 이뤄지면 소비도 덩달아 늘어나는 경향이 있는데 울산은 제조업 부문에서 생산 증가율이 전국 평균보다 낮은 상황"이라며 "제조업 부진이 소비에 영향을 미친 것으로 보인다"고 밝혔다.반면 제주 지역은 관광 산업 활성화의 영향으로 6월 중동호흡기증후군(메르스) 여파에도 불구하고 2분기 소매판매가 전년동기 대비 8.3% 늘어 전국에서 가장 증가율이 높았다. 특히 승용차·연료소 매점, 대형마트 등의 판매가 늘었다.제주 지역 소매판매 증가율은 ▲2014년 3분기 2.4% ▲2014년 4분기 1.9% ▲2015년 1분기 7.8% ▲2015년 2분기 8.3% 등으로 상승폭이 확대되고 있다.통계청 관계자는 "제주는 6월에 메르스의 영향을 받았지만 4월과 5월에 워낙 좋았기 때문에 2분기 전체로는 크게 늘었다"면서 "3분기에는 관광객 감소의 영향을 다소 받을 수 있을 것으로 본다"고 말했다.한편 올해 2분기 전국 소매판매 증가율은 3.0%를 기록했다. 제주(8.3%), 충남(4.1%), 강원(3.9%) 등은 소비가 개선됐고 울산(-0.3%), 대전(0.5%), 서울(1.2%), 인천(1.3%), 전북(1.3%) 등은 전국 평균(3.0%)에 못미쳤다.2분기 서비스업 생산은 전년동기 대비 2.4% 증가했다. 제주(5.9%), 충남(4.4%), 광주(3.2%) 는 금융·보험, 부동산·임대, 보건·사회복지 서비스업 등에 힘입어 증가율이 높은 반면 대전,(1.4%), 전북(1.4%), 서울(1.7%), 대구(1.7%)는 숙박·음식점, 출판·영상·방송통신·정보, 운수업 등의 감소 영향으로 부진했다. 김슬기 기자 seul8952@choicenews.co.kr 다른기사 보기 저작권자 © 초이스경제 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 포토뉴스 대구에서도 감귤 재배 성공 정해인 '빛나는 외모' '한땀 한땀' 퀼트 세계 "장미가 예쁘네" 붉게 물들어가는 '코키아' 제주 범섬의 일출 K팝 콘서트의 열기 제주 무지개 해안도로 어때요 인기 기사 1 '두 악재' 미국증시 '강타', 나스닥 · 반도체주 '휘청' 2 미국증시 나스닥100 '폭락'...반도체 · 전기차주 '추락', 거의 전종목 '하락' 3 미국증시 다우존스 지수 '급락'...머크 빼고 '전멸', 인텔 · 애플 '뚝' 4 美실업률 '뚝', AMD '악재'...미국증시 장중, 나스닥 · 반도체주 '폭락' 5 국경절 연휴 끝낸 중국증시, 1%대 '급락 마감' 6 中 "대만 TSMC, 중국시장 잃고 한국이 대신 차지할 수 있다" 7 중국 측 "미국의 대중국 반도체 수출 제한, 타격 미미" 8 미국증시 S&amp;P500 '추락'...AMD · MPWR '급락 ' vs DXCM · 할리버튼 '껑충' 9 美실업률 '하락'...유럽증시 '뚝', 미국증시 '장중추락', 테슬라 '장중급락', 美국채금리 '껑충'' 10 중국 국경절 황금연휴, 관광 · 영화 · 유통서 활발한 '소비 활동' 굿모닝 경제 뉴스 미국 대기업 CEO 보수, 직원의 400배...격차 더욱 확대 [초이스경제 곽용석 기자] 미국 기업의 CEO 보수가 주가 상승을 웃도는 속도로 증가하는 것으로 조사됐... '악재 속출'...미국증시 자동차주 '줄줄이 급락' 미국증시 다우지수 '하락'...머크 · 애플 '상승' vs CRM ·MSFT· 인텔 '뚝' 홍콩 경매에서, 핑크 다이아몬드 가격 '새 기록' 달성 HOT 클릭 뉴스 "태양 미스테리 풀자"...중국 태양관측 위성 발사 성공 [초이스경제 홍인표 기자] 중국이 태양의 미스테리를 풀기 위한 노력으로 태양 관측 전문위성 과푸(夸夫) ... 홍콩이 관광 부흥 위해 꺼내든 비장의 카드는? 중국 측 "미국의 대중국 반도체 수출 제한, 타격 미미" ACEA "유럽 올해 신차 판매 전망 대폭 하향, 역성장 우려" 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 마포구 백범로31길 8 , 제업무시설동 403호·404호 (공덕SK리더스뷰) 대표전화 : 02-565-7276 팩스 : 02-2234-7276 청소년보호책임자 : 이미애 법인명 : 주식회사 초이스경제 제호 : 초이스경제 등록번호 : 서울, 아02162 등록일 : 2012-06-18 발행일 : 2012-07-05 발행인 : 최원석 편집인 : 이영란 초이스경제 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 초이스경제. All rights reserved. mail to webmaster@choicenews.co.kr 위로 전체메뉴 전체기사 경제 전체 경제 글로벌 IT 경제 핫 이슈 경제 · 산업 이슈 세계 부동산 소식 재벌뷰 산업 전체 산업 글로벌 IT 세계 부동산 소식 경제 · 산업 이슈 금융 전체 금융 뉴스 국내 금융 마켓 핫 이슈 환율 보도자료 피플 전체 칼럼 인사 동정 장경순의 만필세상 포토 뉴스 전체 포토 뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>여름철 ‘제주도펜션여행’…관광지 가까운 ‘하바다통나무집펜션’ 눈길 &lt; 생활 &lt; 문화/연예 &lt; 기사본문 - 시티저널 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 뉴스 지역뉴스 정치/행정 사회 경제 교육 문화/연예 스포츠/레저 웰빙/건강 정보과학 기자수첩 독자기고 커뮤니티 칼럼 사람들 자유게시판 구인 구직 아르바이트 포토&amp;영상 포토뉴스 영상뉴스 독자사진 카툰 기사제보 기사검색 검색 최종편집 : 2022-10-10 21:15 (월) 처음으로 로그인 회원가입 본문영역 이전 기사보기 다음 기사보기 여름철 ‘제주도펜션여행’…관광지 가까운 ‘하바다통나무집펜션’ 눈길 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화/연예 생활 여름철 ‘제주도펜션여행’…관광지 가까운 ‘하바다통나무집펜션’ 눈길 기자명 이정현 기자 입력 2015.08.10 10:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 사진제공 하바다통나무집펜션 [ 시티저널 이정현 기자 ] 본격적인 휴가철이 다가오면서 여행 계획을 세우고 어디에서 묵을지 고민하는 이들이 늘어나고 있다. 이와 관련해 한 여행사에서 여행 만족도에 영향을 끼치는 숙박과 관련 커플, 가족 ,친구 단위 여행객들이 모두 이용 가능한 숙박시설 펜션을 주제로 설문조사를 진행했다. 해당 설문조사에 따르면, ‘펜션 여행하기 가장 좋은 계절은’? 이란 질문에 휴가 시즌인 여름이 38.7%로 가장 많았고 ‘선호하는 펜션 여행 지역’에 대한 물음에는 28.7%로 1위를 차지한 제주도가 뽑혔다. ‘펜션 선택에 가장 중요하게 생각하는 것은 무엇일까’?에는 응답자 28%가 주변 관광지 등의 접근성과 위치를 중요하게 본다고 응답했다. 이 처럼 여름철 선호하는 ‘펜션 여행지’로 손꼽히는 제주도는 이국적인 풍경과 천혜의 경관으로 많은 관광객들의 발길을 사로잡고 있다. 그렇다면 제주도에서 관광지와 접근성이 좋고 비교적 많은 인파들을 피해 여유로운 휴가를 보낼 수 있는 펜션은 어딜까? 이와 관련 제주 올레길 8번 종점과 9번 시작점에 위치한 제주도 대평리 하바다통나무집펜션(대표 서언아)이 특히 주목할만한 제주도펜션으로 사랑받고 있다. 제주도 관광 메카인 중문관광단지와도 가까우면서 일몰이 장관인 박수기정의 풍경도 볼 수 있어 관광 일정을 짜기에도 알맞은 것. 중문펜션이자 독채펜션인 하바다통나무집팬션은 중문관광단지까지 자동차로 10분 정도 이동하면 도착할 수 있으며, 진귀한 볼거리가 가득한 믿거나 말거나 박물관, 테디베어 박물관 등 남녀노소 즐길 수 있는 실내외 관광지를 구경할 수 있다. 해당 펜션은 제주도 군산과 기암절벽으로 둘러싸인 해안 올레킬 코스에 위치해 있으며, 통나무로 만들어진 복층 독채펜션으로 다른 관광객들의 소음에 방해받지 않으면서 오롯이 휴식을 취할 수 있다. 또한 바닷가에 위치한 제주도 바닷가펜션 중 하나로 전 객실에서 제주도 푸른 바다를 구경할 수 있으며 바다레저 중 하나인 낚시도 즐길 수 있다. 통나무집 17평 3채와 목조 주택 23평 3채 모두 통나무와 목재 등 친환경적 재료로 지어 통나무 특유의 솔향기와 피톤치드를 느낄 수 있으며, 벌레로 인한 피해와 전염병 예방을 위해 방역시설 세스코는 물론 세콤 같은 안전시설도 마련했다. 바비큐 그릴을 포함한 취사도구가 펜션 동마다 갖춰져 있어 제주도 바다에서 직접 잡은 해산물로 식사도 가능해 오붓한 추억을 쌓고 싶은 가족, 커플, 친구 여행객들이 선호하는 서귀포펜션 중 하나다. 서언아 대표는 “힐링을 위해 온 여행인 만큼 머무시는 분들에게 쾌적하고 안락한 숙수 환경을 제공하기 위해 최선을 다하고 있다”면서 “통나무펜션인만큼 나무가 실내 습도를 조절해 피톤치드 산림욕 효과도 누릴 수 있는 고객 만족도가 높은 제주도팬션 중 하나다”고 전했다. 이정현 기자 happyenc12@nate.com 다른기사 보기 저작권자 © 시티저널 무단전재 및 재배포 금지 당신만 안 본 뉴스 대전 유아교육비 지원 조례 제정 찬반 의견 대립 이장우·이상래 현대 아웃렛 화재 급거 귀국 박주화 교육위원장, 이장우 시장 거수기 역할 못한다 대전 현대 프리미엄 아울렛 화재 사망자 7명 소진공 이전 반대 삭발 투쟁까지...반발 거세 제9대 대전시의회 첫 예산심사 마무리 이장우시장 이상래 의장 귀국, 현대아울렛 화재현장 점검 나서 대전 유아교육비 지원 조례 제정 찬반 의견 대립 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 대전시의회 영상 분야 전문 임기제 공무원 공개 모집 대전시향 MS 10 20세기 대표작으로 마련 이상민의원 "가석방 없는 종신형 도입하는 사형대체법 필요" [국감] 조승래의원, “신한울 3‧4호기 2~3배속 졸속 심사 우려” [국감] 박병석의원, 박병석 의원, “외면받는 통일교육..." 방산 중기 대전行 방사청 대전 이전 나비 효과 많이 본 뉴스 정치/행정 경제 사회 문화/연예 교육 1 이장우·이상래 현대 아웃렛 화재 급거 귀국 2 박주화 교육위원장, 이장우 시장 거수기 역할 못한다 3 제9대 대전시의회 첫 예산심사 마무리 4 이장우시장 이상래 의장 귀국, 현대아울렛 화재현장 점검 나서 5 민주당 대전시당- 대전 소상공인단체 간담회 개최 6 대전 중구 정치권, 소상공인시장진흥공단 이전 결사 반대 7 대전시의회 언론 길들이기? 8 성희롱 대전시의회 사무처 간부 공무원 솜방망이 징계 논란 9 대전시민사회 "대전시의회 정례회,절차와 원칙 무시 됐다" 혹평 10 민선8기 첫 번째 시.구정책조정간담회 열려 1 대전시 대형 건설사 본사 방문 지역 업체 수주 지원 요청 2 한국타이어 올 하반기 프로 액티브 리더 모집 3 대전 현대 아울렛 중간 매니저·판매 사원에 최대 350만원 지급 4 상반기 마감 청년 주택 임차 보증금 이자 지원 재개 5 소상공인 라이브 커머스 활성화 지원 사업 참여 업체 모집 6 대전 교통공사 연규양 신임 사장 공식 업무 시작 7 김홍복 씨 10월 이달의 임업인 선정 8 대전 우수 중기 참여 기업 채용 박람회 목원대서 열려 9 지역 사회 문제 해결과 혁신 모델 창출 위한 콜라보 데이 개최 10 대전 미래 가치 품은 '도안 우미린 트리쉐이드' 1 대전 유아교육비 지원 조례 제정 찬반 의견 대립 2 대전 현대 프리미엄 아울렛 화재 사망자 7명 3 소진공 이전 반대 삭발 투쟁까지...반발 거세 4 대전 유성 현대아울렛 화재 5 둔산소방서, 주택용 소방시설 촉진 통장협의회 간담회 개최 6 대전 문화 누리 카드 이용자 대상 빵빵한 이벤트 진행 7 대전 소방 전문 외상 처치술 특별 교육 과정 운영 8 청소년 눈 높이 맞춘 다목적 경찰 차량 대전서 선보여 9 제주서 숲 유치원·유아 숲 체험원 전국 대회 열려 10 유토개발 대전 다문화 엄마 학교에 7500만원 후원 1 대전 0시 축제 맛보기, 대전 0시 뮤직 페스티벌 진행 2 10월 큐레이터 추천 왕실 유물 '강서 시권' 선정 3 실기 강좌 개설 이응노 아카데미 열려 4 전통 장인이 재현한 2022 즉조당 재현 집기 전시 5 대전 UCLG 총회 성공 개최 위한 웰컴 축제 열려 6 제16회 국립 묘지 전국 사진 공모전 작품 접수 7 2022 대전 재즈 페스티벌 개최 8 한밭 도서관 10월 어린이 책 북 큐레이션 운영 9 충남 태안 앞 바다의 해양 문화 유산 학술 세미나 10 우암 사적 공원 야경 즐기는 우암 야행 진행 1 대전교육청, 다시 시작된 글로벌 취업 도전 2 대전원앙초, ‘제4회 청소년 흡연예방 문화제 초등부 영상 부문’대상 수상 3 대전시립중·고등학교, 동구 독후 감상문 공모전서 중·고등 부분 최우수상 4 대전교육청, 2022 학생언어문화개선 교육주간 운영 5 대전교육청, 김진수 부교육감 부임 6 설동호 대전교육감 " 자율적 내부통제 제도 도입" 7 대전교육청, 2023학년도 공립(사립) 중등교사 임용 시험 계획 발표 8 대전교육청, 교육활동보호 종합지원 시스템 전격 가동 중 최신뉴스 대한제국 선포 125주년 기념 '황제 고종' 특별전 대전시의회 시민 불편 사항 전분기 대비 27% 증가 지난 해 단기 소득 임산물 생산액 2조 3000억 규모 대전교육청, 교육활동보호 종합지원 시스템 전격 가동 중 대전시의회 영상 분야 전문 임기제 공무원 공개 모집 포토뉴스 둔산소방서, 탄방중 미래소방관 직업체험 비대면 교육 대전서부소방서 대형판매시설 관서장 현장 지도 둔산소방서, 주택용 소방시설 촉진 통장협의회 간담회 개최 대전 유성 현대아울렛 화재 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 유성구 유성대로 773, 301호(장대동) 대표전화 : 042)320-2453 팩스 : 042-367-0012 청소년보호책임자 : 김선호 법인명 : 대전시티저널 제호 : 시티저널 등록번호 : 대전아00009 등록일 : 2006-09-11 발행인 : 김선호 편집인 : 안희대 시티저널 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시티저널. All rights reserved. mail to info@gocj.net 위로 전체메뉴 전체기사 정치/행정 전체 2018 지방선거 현장 출마합니다 경제 사회 교육 전체 교육일반 평생학습 문화/연예 전체 문화일반 연예 도서/문학 공연/전시 생활 웰빙/건강 스포츠/레저 전체 스포츠일반 레져 야구 축구 농구 배구 정보과학 지역뉴스 전체 대전시 동구 중구 서구 유성구 대덕구 충남 전체 도청 공주시 논산시 당진시 보령시 서산시 아산시 천안시 금산군 부여군 서천군 연기군 예산군 청양군 태안군 홍성군 계룡시 사람들 전체 인터뷰 동정 인사 부고 결혼 칼럼 보도자료 전체 성명/논평 건강 경제 과학 교육 문화 사회 정치 행정 대덕특구 대전지방경찰청 대전지방병무청 관세청 문화재청 보훈청 산림청 특허청 조달청 기자수첩 독자기고 카툰 사고 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광객들이 꼭 들린다는 제주도맛집은 어디? - 디지털타임스 디지털타임스 네이버 뉴스스텐드 구독 채널 구독 뉴스 정치 경제 산업 ICT과학 금융 부동산 국제 피플 방송연예 오피니언 대학소식 동영상 에게 고견을 듣는다 검색 통합검색 닫기 제주도 관광객들이 꼭 들린다는 제주도맛집은 어디? 인터넷마케팅팀 입력: 2015-08-05 18:30 우리나라를 대표하는 관광명소인 제주도. 제주도는 사시사철 관광객들의 방문이 끊이지 않을 뿐 아니라 해외 관광객들도 자주 찾는 명소 중의 명소로 꼽힌다. 이에 따라 제주도에는 관광객들의 입맛을 사로잡는 제주도맛집들도 즐비해 있다. 그 중에서도 '등대와바당'은 제주도맛집, 제주공항근처맛집으로 관광객들에게 큰 인기를 얻고 있다. 고객을 가장 최우선으로 생각하는 서비스, 그윽한 바다의 향내음을 느낄 수 있는 수산물 별미 등을 제공하여 방문객 입맛을 사로잡고 있기 때문이다. 등대와바당은 하르방상, 할망상, 아방상, 어멍상 등의 상차림 세트 메뉴를 선보이고 있다. 상차림 세트 메뉴는 황돔, 광어, 갈치회, 고등어회, 전복회, 해물모듬, 옥돔구이, 활어회국수, 성게국, 간장게장 등의 메뉴들로 구성되어 있다. 특히 갈치회, 고등어회 등은 제주 청정 해역에서 어부들이 정성들여 잡은 어족으로 직접 만들어 싱싱한 맛을 자랑한다. 아울러 등대와바당은 다금바리, 갓돔, 구문쟁이, 벵어돔, 황돔, 계절모듬회 등 여러 제철 횟감을 선보이고 있어 고객 선택 폭을 넓히고 있다. 등대와바당 관계자는 "고객을 가장 최우선으로 생각한다는 마음가짐 아래 매일 첫 손님에게는 어멍상 상차림을 무료로 제공하는 등 특별한 서비스를 제공하고 있다."며 "상차림 메뉴가 존재하지만 고객 개개인의 입맛에 맞도록 맞춤 상차림 서비스도 선보이고 있어 큰 호응을 얻고 있다."고 전했다. 제주도 현지에서 직접 공수해 온 국내산, 자연산 수산물만 취급한다는 점 또한 등대와바당의 장점이다. 등대와바당은 제주도 항구가 바로 보이는 바다뷰를 자랑하는 만큼 식사 시 낭만과 운치를 더 하고 있기도 하다. 등대와바당 관계자는 "제주도맛집, 제주공항근처맛집으로 이름이 알려진 만큼 제주도를 방문하는 관광객들 사이에서 재방문율이 상당히 높은 곳으로 명성을 높이고 있다."며 "싱싱한 제철 수산물과 더불어 바다가 보이는 아름다운 전망을 자랑하는 명소로 각광을 받고 있다."고 전했다. 한편, 등대와바당 메뉴 문의 및 예약은 전화(064-743-0551) 홈페이지 www.제주도맛집.net 으로 가능하다. 인터넷마케팅팀 [저작권자 ⓒ디지털타임스 무단 전재-재배포 금지] 핫 이슈! 세금방석 위에서 외치는 표현의 자유?[한기호의 정치박박] [이규화의 지리각각] `더라인`, 끝판왕 도시인가 초호화 감옥인가 [객석] 네 줄의 현으로만 느끼는 바흐… 세 번째 계절 때맞게 무르익네 [THE GAME] 언디셈버부터 퀀텀나이츠까지… 라인게임즈 야심작, 판 흔든다 이 시간 핫클릭 당정, 여성계 의견 청취 등 여가부 폐지 속도… 민주당 강력 반발 조경태 "국회의원 면책특권 없애야" 국힘 "文 4대강 감사지시 불법, 靑민정실 회전문 인사야말로 감사원 독립 훼손" 가처분 완패 이준석… `신당 창당` 고행길 걷나 가장 많이 본 기사 문화일보 핫 뉴스1신혜성, 도난차량으로 음주운전 인정...“죄송하다” 2미 서부 명문 스탠퍼드대학서 대낮 성폭행 사건 잇따라 3“외국계 증권사, 네이버 매도의견 낸 후 대량 공매도...피해는 개미투자자에게” 4노벨경제학상에 ‘금융위기 연구’ 버냉키 등 美경제학자 3인 5밀대로 학생 엉덩이 때린 20대 교사 징역형 회사소개 고충처리 구독신청 사업제휴 콘텐츠제휴 광고안내 개인정보취급방침 청소년보호정책(책임자 : 손치배) 서울특별시 중구 새문안로22 ☎ 02) 3701-5500 등록번호 : 서울 아01699 등록일자 : 2011.07.15 발행일 : 2000.03.03 발행인/편집인 : 박학용 THE DIGITALTIMES Copyright ⓒ The DigitalTimes. All Rights Reserved. ☎ 02) 3701-5500 Please forward any comment to webmaster</t>
+  </si>
+  <si>
+    <t>[뉴스파일] 제주도, ‘드림타워’ 관광 사업계획 변경 승인-국민일보 시사 시사 &gt; 전체기사 [뉴스파일] 제주도, ‘드림타워’ 관광 사업계획 변경 승인 입력 : 2015-08-06 02:01 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도는 제주시 노형동 ‘드림타워’ 사업 시행자인 동화투자개발에서 신청한 관광 사업계획 변경 승인 요청에 대해 최종 승인했다고 5일 밝혔다. 변경 승인된 드림타워 건축물은 일반호텔과 관광호텔 2개 동이다. 드림타워 사업자는 지난해 5월 높이 218m·지상 56층으로 건축허가를 받았다. 그러나 교통혼잡과 경관파괴 등을 이유로 재검토를 주문하자 높이 169m·지상 38층 규모로 다시 사업승인을 요청했다. 도는 변경 승인과 관련해 교통 개선에 따른 분담금 78억원 중 미납액 42억원을 착공 전 납부토록 했다. GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 尹 “청년들이 미래 설계할 수 있도록 희망의 사다리 놔야” 민주 “여가부 폐지 대신 성평등가족부로 확대해야” 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 딤프, ‘K-뮤지컬’ 미국 OTT 통해 전 세계에 선보여 이예람 사건 녹취록 조작 의혹 변호사 “국민참여재판 받겠다”</t>
+  </si>
+  <si>
+    <t>제주도, 드림타워 관광호텔 사업계획 조건부 변경 최종 승인 &lt; 경제일반 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 드림타워 관광호텔 사업계획 조건부 변경 최종 승인 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 경제일반 제주도, 드림타워 관광호텔 사업계획 조건부 변경 최종 승인 기자명 최병근 기자 입력 2015.08.03 12:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주드림타워 지상 38층·높이 169m, 건축연면적 30만2777㎡ 규모로 확정 ▲ 동화투자개발(주)가 2014년 5월 제출한 사업계획이 1년여의 심의 끝에 최종 조건부 승인이 떨어졌다. 제주도 관계자들이 3일 제주도청 기자실에서 브리핑을 열고 서업계획 변경승인을 발표하고 있다.[제주도민일보=최병근 기자] 동화투자개발(주)가 2014년 5월 제출한 제주 드림타워의 최종 승인이 떨어졌다. 단서 조항을 단 조건부 승인이다.제주도는 3일 동화투자개발(주)의 제주 드림타워 관광사업계획 변경승인신청을 검토한 결과 최종 조건부 승인했다고 발표했다.제주드림타워 사업시행자인 동화투자개발(주)는 지난 6월 4일 관광호텔 776실 규모의 관광사업계획 변경승인신청을 제주도에 제출했다.동화투자개발(주)는 지난해 5월 지상 56층, 높이 218m, 건축연면적 306,517㎡의 관광호텔 사업계획을 제출했다. 이후 지난 6월 4일 지상 38층, 높이 169m, 건축연면적 302,777㎡규모로 사업 규모를 변경해 제주도에 다시 제출했다.이에 따라 제주도 교통정책과는 일주서로 확장사업 등 교통개선에 따른 분담금 78억원 중 납부되지 않은 42억원을 동화투자개발(주)측에 착공 전에 납부토록 했다.관련 부서인 수자원본부는 제주드림타워에 하루 필요한 물 5467㎥ 가운데 월산과 애월정수장에서 생산된 상수를 염통배수지를 통해 3000㎥를 공급할 계획이다.부족한 용수량은 애월 및 어승생정수장 인근에 사업자가 비용을 부담(수도법 제71조 규정에 의해 원인자부담 사업 시행)해 하루에 6000㎥ 취수할 수 있는 수원을 개발한뒤 필요한 3000㎥을 공급할 계획이다.나머지 3000㎥는 수자원본부가 활용해 인근 급수구역내 개발 수요에 안정적으로 대처할 수 있도록 할 방침이다.▲ [제주도민일보 DB] 제주드림타워 조감도또한 제주도는 사업자에게 하수 처리 계획에 대해 수차례 친환경적 처리가 가능하도록 보완할 것을 요구했다.이 결과 총 발생량(4968㎥/일) 가운데 2248㎥/일은 공공하수도로 연결처리하고, 나머지는 1차 고도처리 한 다음 1000㎥/일은 중수도로, 나머지 1720㎥/일은 친수용수로 사용한 뒤 전용관(사업부지에서 L=2.0km 매설)을 통해 농경지 인근 흘천으로 방류될 것이라고 밝혔다.친수용수(1720㎥/일)는 고도 처리된 물로 드림타워에 랜드마크적인 친수공간을 조성하는데 활용된다. 친수공간은 음악분수와 경관조명 등을 활용해 레이져 쇼 등 야간볼거리를 제공한다. 관광객이나 주민 누구나 쉽게 접근할 수 있도록 개방돼 시민의 휴식문화공간으로 활용된다.특히 제주도 수자원본부 관계자는 “오수를 깨끗하게 자체 정화해 친수공간 용수로 활용하는 것은 도내 최초이고 모범적인 모델로 개발되는 사례가 될 것”이라고 밝혔다. 수자원본부는 친수용수에 대해 수질 기준 이상의 엄격한 관리를 해나갈 방침이다.제주도는 이러한 부서별 검토의견을 토대로 승인조건을 부과해 관광사업계획을 변경 승인했다.승인 조건은 신규일자리창출 및 지역경제 활성화를 위해 2018년까지 계획한 대로 완공되면 호텔운영에 따른 정규직 약 1557명 중 1300여명(80%)이상을 도민으로 채용하도록 했다.지역건설산업 활성화 촉진을 위해 공사진행단계에 지역건설업체 참여를 극대화 해 나가도록 했다.아울러 제주도는 승인 이후 엄격한 절차 이행을 감독해 나감은 물론 보완사항이 나타날 경우 사업이행과정에서 각 부문마다 보완될 수 있도록 철저하게 관리한다는 방침이다.한편 관광사업계획 변경승인 후 건축허가는 제주시가 담당한다. 도의 관광사업계획승인을 요하지 않는 일반호텔 850실 또한 제주시로부터 직접 건축허가 절차를 밟아 추진하게 된다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 장기 미착공 등 11곳 관광숙박업 사업승인 직권취소 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 장기 미착공 등 11곳 관광숙박업 사업승인 직권취소 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 장기 미착공 등 11곳 관광숙박업 사업승인 직권취소 기자명 고병수 기자 입력 2015.08.04 15:38 수정 2015.08.04 15:40 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주도는 2013년 이전에 관광숙박업 사업계획 승인을 받고 착공을 하지 않거나 장기간 공사가 중단된 관광숙박업 사업계획 승인 11곳 572실을 직권취소했다고 4일 밝혔다.도는 승인기간 연장을 요청한 16개 사업장 1575실에 대해 사업계획 승인 취소를 유보했으나 이 사업장도 올해 말까지 정상적으로 공사가 추진되지 않을 경우 청문절차 등을 거쳐 사업계획 승인을 취소할 계획이다.관계자는 "부동산 매매 목적이나 명확한 자금계획 없이 관광숙박업 사업계획 승인을 득했으나 최근 숙박시설 과잉공급에 대한 우려 등으로 착공이 지연되는 사업장이 증가하고 있다"며 "앞으로 관광숙박시설 공급조절을 위해 장기 미착공․미준공 사업장에 대해 사업계획 취소 등 행정절차를 엄격하게 이행하겠다"고 말했다. 한편 2013년도에 관광숙박업 사업계획 승인을 득하고 현재까지 착공을 하지 않은 사업장은 32곳 2449실로 조사됐다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-CJ그룹, 관광·식품·물류산업 발전 협약 - 日刊 NTN(일간NTN) S2N65 × 전체기사 정책 전체 재정 /예산 / 결산 금융/증권/보험 건설 /주택/ 부동산 자원/에너지/환경 보건 / 복지 / 의료 /건강 고용 / 노동 / 창업 수출 / 무역 /교통 /물류 임금 / 소득 / 재테크 통계 / 지표 / 가계소득 세법 / 세제 / 조세 / 관세 IT/산업/과학 /미래 환율 / 물가 / 경기 생활/ 문화 / 교육 /기타 공무원 /공기업 / 공사 산업·기업 전체 기업일반 / 중소기업 /상공인 IT /과학 / 산업정책 유통/소비자 / 백화점 주류/담배/면세점 기업 공시 /경제 단신 대기업/ 임원/ 총수 자동차 / 물류 / 운송 /해운 자원 / 환경 / 전기,에너지 건설업 / 주택/ 부동산 예술/문화/ 연예/스포츠 은행 / 증권/ 보험 /카드 고용 / 노동/ 임금/ 노조 /소득 의료/건강/생활/여행 財테크/금융가이드/주식/펀드 CEO / 기업 동정 광고/ 이벤트/기타 유권해석 전체 예규 판례 심판례 심사례 헌재결정 상담사례 기타 조세행정 전체 내국세 지방세 관세 기금/부담금 사회보험 국제조세 기타 연말정산 / 환급 오피니언 전체 세정칼럼 데스크칼럼 취재수첩 오피니언 기타 건강칼럼 특별기고 시사영어 해외화제 오늘의 영어 유사단어 세종砲音 테마여행 사람들 전체 프리즘 거꾸로한마디 말말말 기타 동정 인사 부음 잔치 기타 인사기타 인터뷰/르뽀 안테나 전문가 전체 세무사 회계사 변호사 관세사 기타 연구소/ 연구원 교수 / 학계 법무법인/ 회계법인/ 세무법인 동서남북 전체 청와대 / 총리실 /감사원/외교부/통일부/국방부 기재부/통계청/조달청 국세청 / 조세심판원 관세청/지방세관 행자부/지방자치단체/인사혁신처/권익위 금감원/ 금융위 /한은/결제원 검찰 / 경찰/ 법원 /헌재/사고 공정거래위 국토교통부 국회/국회의원/당정회의 공공기관/협회 및 단체/기타 산업통상자원부 /중기청 한국거래소/증권선물위 보건복지/문화체육/미래창조/농림축사/환경/노동부 지방청/세무서 이슈/기획 전체 포커스 기획특집 탐사보도 기고 기타 현장탐방 뉴스브리핑 연재 전체 13th 월급, ‘연말정산 절세포인트’ 최동현세무사, ‘CEO의 절세비법’ 쟁점세법, 금주의 법령해석 성종헌 세무사의 알아두면 유익한 세금구제사례 알기쉬운 OECD모델 조세협약 국세청 법인세 사후검증 사례 한성수 세무학 박사의 알기 쉽게 번역된 2012년 OECD모델조세 협약 김종관 세무사의 조세불복 비법 창간축사 만화 연합뉴스 전체 기타 정치 경제 사회 문화 스포츠/레저 국제 지방 IT/과학 북한 민족 경제 금융 일반 스포츠 특집 연예 UPDATED. 2022-10-11 11:36 (화) 로그인 회원가입 모바일웹 전체 정책 재정 /예산 / 결산 금융/증권/보험 건설 /주택/ 부동산 자원/에너지/환경 보건 / 복지 / 의료 /건강 고용 / 노동 / 창업 수출 / 무역 /교통 /물류 임금 / 소득 / 재테크 통계 / 지표 / 가계소득 세법 / 세제 / 조세 / 관세 IT/산업/과학 /미래 환율 / 물가 / 경기 생활/ 문화 / 교육 /기타 공무원 /공기업 / 공사 산업·기업 기업일반 / 중소기업 /상공인 IT /과학 / 산업정책 유통/소비자 / 백화점 주류/담배/면세점 기업 공시 /경제 단신 대기업/ 임원/ 총수 자동차 / 물류 / 운송 /해운 자원 / 환경 / 전기,에너지 건설업 / 주택/ 부동산 예술/문화/ 연예/스포츠 은행 / 증권/ 보험 /카드 고용 / 노동/ 임금/ 노조 /소득 의료/건강/생활/여행 財테크/금융가이드/주식/펀드 CEO / 기업 동정 광고/ 이벤트/기타 유권해석 예규 판례 심판례 심사례 헌재결정 상담사례 기타 조세행정 내국세 지방세 관세 기금/부담금 사회보험 국제조세 기타 연말정산 / 환급 오피니언 오피니언 세정칼럼 데스크칼럼 취재수첩 기타 건강칼럼 특별기고 시사영어 해외화제 오늘의 영어 유사단어 세종砲音 테마여행 사람들 프리즘 거꾸로한마디 말말말 기타 동정 인사 부음 잔치 기타 인사기타 인터뷰/르뽀 안테나 동서남북 청와대 / 총리실 /감사원/외교부/통일부/국방부 기재부/통계청/조달청 국세청 / 조세심판원 관세청/지방세관 행자부/지방자치단체/인사혁신처/권익위 금감원/ 금융위 /한은/결제원 검찰 / 경찰/ 법원 /헌재/사고 공정거래위 국토교통부 국회/국회의원/당정회의 공공기관/협회 및 단체/기타 산업통상자원부 /중기청 한국거래소/증권선물위 보건복지/문화체육/미래창조/농림축사/환경/노동부 지방청/세무서 본청 서울청 중부청 대전청 광주청 대구청 부산청 기사검색 검색 이전 다음 제주도-CJ그룹, 관광·식품·물류산업 발전 협약 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 산업·기업 기업 공시 /경제 단신 제주도-CJ그룹, 관광·식품·물류산업 발전 협약 日刊 NTN 승인 2015.08.28 14:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × S2N65 탄산음료 개발·케이팝 행사 연 1회 개최 제주도·제주도개발공사·제주관광공사와 CJ그룹은 28일 제주도청에서 '제주의 관광·식품·물류산업 발전 및 제주 향토기업의 경쟁력 강화와 상생 발전을 위한 상호 협력' 업무협약을 체결했다.원희룡 제주지사와 손경식 CJ 대표이사 회장은 앞으로 3년 동안 제주를 방문하는 내·외국인을 대상으로 한류 및 한식 문화를 홍보·확산하고, 제주 향토기업과 물류 등 제반 산업발전을 위해 협력해 적극적인 투자를 추진하기로 했다.CJ는 본사 및 계열회사의 역량과 인프라를 적극적으로 활용해 투자 대상이 되는 사업아이템 발굴 및 사업화와 제주 향토기업과의 연계·육성을 위한 제반 업무를 수행한다.도는 CJ가 역할을 충분히 수행할 수 있도록 제도적·행정적 지원을 제공하고, CJ가 추진하는 사업에 협력한다.제주도개발공사(사장 김영철)와 CJ제일제당(대표이사 김철하)은 천연 탄산수를 포함한 제주도 먹는 물을 이용한 탄산수 및 탄산음료 사업과 물 이외의 제주도 자원을 활용한 사업을 추진하기로 했다.양측은 오는 2016년 4월 전에 탄산수 및 탄산음료가 출시될 수 있도록 최대한 노력한다.제품 개발, 제조, 마케팅, 판매·영업에 있어 최선의 사업 구조를 도출하기 위해 양측이 출자·운영하는 별도 법인 설립도 검토하기로 했다.CJ제일제당은 제주도 내 사회공헌 활동에 관심을 기울이고, 친환경 산업 발전을 위해 노력한다.제주관광공사(사장 최갑열)와 CJ E＆M(대표이사 김성수)은 '제주관광의 글로벌 경쟁력 강화와 지속 가능한 발전을 위한 전략적 업무 제휴 협약'을 체결했다.청정 자연과 한류 콘텐츠를 활용해 제주를 고품격 문화관광 목적지로 도약시키기 위해 케이팝 행사를 하는 'KCON(K-pop Convention) JEJU'(가제)를 연 1회 제주에서 개최한다.CJ E＆M은 행사 관련 콘텐츠를 개발·운영하고, 여행사 상품 개발과 관광객 유치를 지원한다. 행사를 공동으로 기획·운영하고, 채널·네트워크를 활용해 행사를 홍보한다.제주관광공사는 행사의 원활한 진행과 관광객 유치를 위한 홍보·마케팅을 진행하고, 행사와 연계한 관광상품을 발굴해 홍보한다. 제주도 및 관련 기관과의 행사 관련 연계 업무에 대한 협력을 강화한다.도는 이번 협약으로 CJ가 보유한 식품산업과 물류체계, 엔터테인먼트 및 미디어를 통해 제주의 청정한 농·축·수산물의 판로를 개척할 수 있을 것으로 기대하고 있다. 케이팝 행사 개최를 통해서 국내외 관광객을 대거 유치해 지역경제 활성화에도 많은 도움이 될 것으로 보고 있다. 저작권자 © 日刊 NTN(일간NTN) 무단전재 및 재배포 금지 日刊 NTN kukse219@naver.com 다른기사 보기 [인사] 정정회 조세심판원 제5상임심판관 자녀 명의 법인 자금대여 후 고액 이자·원금 받는 편법증여 집중 검증 [판례평석]세무사는 상인에 해당하지 않으며 10년간 보수금 청구를 할 수 있다 거주 이전 위한 ‘부득이한 3주택’…중과세율 적용 안 돼 7일 시간외 금호전기·엔시트론·스킨앤스킨…9.59·8.96·6.06%↑ [국세칼럼] 이른 바 ‘똘똘한 한 채’의 역설 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 가장 많이 본 기사 1[기획] '위기의 세무사' ⓵기장료 20년 제자리…“세무사업 끝났다”? 2검찰 압수수색 대상 국세청 직원, 세무사 사무장과 7000만원대 금전거래 3임광현 전 국세청 차장, 세무대리인으로 제2의 인생 스타트! 4공정거래위원회, "대기업집단 제도 합리적 운영하겠다." 57일 시간외 금호전기·엔시트론·스킨앤스킨…9.59·8.96·6.06%↑ 6박용진 의원, “정부 입김에 흔들리는 무책임한 공정위” 7[사례로 풀어보는 양도소득세] 일반적인 주택의 취득시기는 언제인지? 8국세청, "이달 부가세 예정신고·납부...부당환급 검증 대폭 강화" 96일 시간외 대우부품·대명에너지·상지카일룸…10·9.92·9.90%↑ 10농협, 재무제표 없이 대출해주고 농지 취득 외 목적임을 알면서도 대출해줘 최신 판례 [판례평석]세무사는 상인에 해당하지 않으며 10년간 보수금 청구를 할 수 있다 거주 이전 위한 ‘부득이한 3주택’…중과세율 적용 안 돼 ‘최저가 강요’ 배달앱 요기요, 공정거래법 위반 혐의 1심서 무죄 업무 관련 지인과 골프모임 가진 공무원 “정직 처분 정당” GS그룹 오너 일가도 주식 양도세 소송 승소…“23억 부과 취소” 이시각 헤드라인 기업뉴스 7일 시간외 금호전기·엔시트론·스킨앤스킨…9.59·8.96·6.06%↑ 국민연금, 한샘 주식 약 24만주 매도 6일 시간외 대우부품·대명에너지·상지카일룸…10·9.92·9.90%↑ 6일 시간외 에스티큐브 종가대비 4.99% ↓ 에디슨모터스 회장 등 3명, 구속 영장 심사 연기 신청 세정가 현장리포트 [인사] 정정회 조세심판원 제5상임심판관 [인사] 정정회 조세심판원 제5상임심판관 □국장급 승진조세심판원 제5상임심판관 정정회 □프로필△1967년생 △ 광주 △광주 동신고, 전남대 법학과 △7급공채 △조세심판원 심판조사관 △목포세무서장(인사교류) △조세심판원(舊... 자녀 명의 법인 자금대여 후 고액 이자·원금 받는 편법증여 집중 검증 자녀 명의 법인 자금대여 후 고액 이자·원금 받는 편법증여 집중 검증 사주가 돈이 없는 자녀를 대신해 자녀 명의로 법인에 자금을 대여해 주고 자녀가 법인으로부터 고액의 이자와 원금을 상환 받는 방식의 편법증여 혐의가 적발돼 국세청이 세무조사에 나섰다... 사람들 동정 인사 잔치 부음 대구지방국세청, 6.25 참전용사 돕는다 [동정] 정승환 서울본부세관장, 대전세관 현장 점검 삼정KPMG, 10월 5일 전자-IT산업 대상 ‘ESG 세미나’ 개최 기획재정부의 공공기관 운영 문제점과 개선방안 정책토론회 개최 관세청, 적극행정 우수 직원 선정·포상 [인사] 공정위 국·과장급 승진, 전보(2022.10.08.字) [인사] 관세청 부이사관 승진 [인사] 관세청 고위공무원 승진 전보 [인사] 공정위 과장급 전보(2022.09.20.字) [인사] 공정위 과장급 전보(2022.09.19.字) 임광현 전 국세청 차장, 세무대리인으로 제2의 인생 스타트! [결혼] 정삼진 前 남대문세무서장 아들 [결혼] 이한종 세무법인 화우 대표세무사 장녀 [결혼] 최 훈 세무사(전 중부지방세무사회 부회장) 딸 김재철 전 중부지방국세청장, 세무사로서 제2의 인생 출발 이동준 골드컨트리클럽·코리아컨트리클럽 회장 별세 [부음] 이헌복 미래에셋자산운용 자산배분부문대표 장인상 [부고] 신한은행 홍보부 수석 김은석 부친상 [부고] 송기봉 전 광주지방국세청장 빙모상 [부고] 황영순 세무사(한국세무사회 이사) 모친상 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 마포구 잔다리로3안길 46(서교동), 국세신문사 대표전화 : 02-323-4145~9 팩스 : 02-323-7451 청소년보호책임자 : 이예름 법인명 : (주)국세신문사 제호 : 日刊 NTN(일간NTN) 등록번호 : 서울 아 01606 등록일 : 2011-05-03 발행일 : 2006-01-20 발행인 : 이한구 편집인 : 이한구 日刊 NTN(일간NTN) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 日刊 NTN(일간NTN) . All rights reserved. mail to ntn@intn.co.kr 위로</t>
+  </si>
+  <si>
+    <t>이루, 제주도 홍보대사 위촉…인도네시아서 관광 독려 즐겨찾기 추가 글로벌 티브이데일리 중국 SINA.com QQ.com hi好酷.com 홍콩 Yahoo HK Koreastardaily MSN HK 3HK Gameone 대만 Yahoo TW MSN TW 베트남 The gioi dienanh 라오스 Vientiane Times 태국 PPTV 홈 로그인 회원가입 기사제보 방송 가요 예능 영화 포토 영상뉴스 해외연예 인터뷰 연예칼럼 문화/사회 만화 이루, 제주도 홍보대사 위촉…인도네시아서 관광 독려2015. 08.12(수) 09:44 가수 이루 [티브이데일리 연휘선 기자] 가수 이루가 제주도 홍보대사로 위촉됐다. 지난 11일 이루는 제주특별자치도 홍보대사로 임명돼 원희룡 제주도지사와 함께 인도네시아를 방문했다. 이날 이루는 제주 관광 발전을 위해 자원봉사 형식으로 원희룡 지사의 일정에 동행했다. 그는 향후 인도네시아에서 2박 3일 동안 다양한 이벤트와 프로모션을 펼치며 제주 관광을 독려할 예정이다. 앞서 이루는 인도네시아에서 한류 열풍을 일으키며 국산품 애용에 앞장서 한국 제품에 대한 현지인들의 관심을 이끌었다. 또한 한국음식문화재단과 함께 한식문화를 알리는 등 민간외교에 힘써 양국 정부로부터 표창을 받은 바 있다. [티브이데일리 연휘선 기자 news@tvdaliy.co.kr/ 사진제공=이루엔터테인먼트] 기사제보 news@tvdaily.co.kr        연휘선 기자의 다른 기사 보기 키워드 : 이루 | 이루 제주 홍보대사 | 제주 관광 이루, 신곡 '행복하자' 발매…전곡 프로듀싱 이루, '멀리서 보면 푸른 봄' 캐스팅…情 넘치는 박 교수 역 ‘밥이 되어라’ 이루, 이제는 완성형 연기자 이루 '까만 안경', 10대들 애창곡 등극…역주행 인기 선우은숙♥유영재, 깜짝 재혼 발표 축하 물결 [이슈&amp;톡]양조위, 40년 연기 인생이 곧 '화양연화' [27th BIFF 종합] 오은영 매직 없이, ‘우아달 리턴즈’ 호기로운 결단… '공조2' 장기 흥행vs'정직한 후보2' 2일 천하… 침묵 깬 YG…제니·뷔 '사생활 유포' 뒤늦은 진화… [단독] 아이유, 해외 일정 중 확진자와 밀접접촉→… '마약 혐의' 돈 스파이크, 사실상 연예계 퇴출 [… 선우은숙, 유영재 아나운서와 재혼 "혼인… 박시연, 음주운전 후 첫 공식석상…손담비… '작은 아씨들' 결말, 김고은 300억 … '남궁민♥' 진아름, 결혼 소감 "예쁘게… '작은 아씨들' 엄지원, 장광 살해 "넌… '태풍의 신부' 손창민, 박하나 父 살해… '동상이몽2' 오상진, 빼다박은 딸 최초… [TD포토+] 한소희 '여름과 겨울이…[TD포토+] 김규리 '핑크빛 여신강… 톰 크루즈, 이번엔 우주로 가나 [TD할리웃] 안젤리나 졸리, 피트 아동 폭행 주장 “… 윌 스미스 '해방'으로 복귀 확정, 폭행… '폭행 논란' 윌 스미스, '해방' 통해… 아나운서 ‘임현주’의 참된 외모 사용법 [윤지혜의 대중탐구영역] 김혜수ㆍ장근석, 가족경영 폐해를 대하는 … '너를 만났다' 다큐의 존재 목적, 저희… 백종원, 다 큰 어른에게도 혼내 줄 사람… 회사소개 회원약관 개인정보취급방침 청소년보호정책 고객센터 제휴문의 광고문의 인터넷신문윤리강령 - 바로가기 - 스포츠투데이 더셀럽 명칭 : (주)티브이데일리등록번호 : 서울 아 00742등록연월일 : 2009.1.21제호 : 티브이데일리발행/편집인 : 김범열 발행소 : (07803) 서울특별시 강서구 마곡중앙6로 66, B동 1204호발행연월일 : 2009.1.28청소년보호책임자 : 이선민 TEL : 02)3443-8246~7FAX : 02)3443-8248Copyright(c) TV Daily. All rights reserved.</t>
+  </si>
+  <si>
+    <t>중국인 관광객 효과로 제주도 소비 호황 - 이투데이 속보창 구독신청 RSS 경제 경제 정책 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 경제 정책 중국인 관광객 효과로 제주도 소비 호황 입력 2015-08-13 13:40 박상영 기자																								sypark@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 중국인 관광객들로 인해 올 2분기 제주도 지역 소비 부문이 호황을 나타냈다.통계청이 13일 발표한 올 2분기 시도별 지역경제동향에 따르면 전국의 대형소매점판매는 작년 동기 대비 1.8% 줄어든 가운데 제주도는 8.4% 늘어 작년 말부터 3분기 연속으로 증가율 1위를 나타냈다. 다만 지난 6월 중동호흡기증후군(메르스) 사태가 발생하면서 지난해 4분기(13.3%)와 올 1분기(18.0%)에 비해서는 소비 증가세가 한풀 꺾였다.이밖에 충북(6.8%), 충남(6.2%), 광주(4.4%)를 포함해 모두 4개 지역에서 소비가 늘었다. 나머지 지역은 가전제품과 음식료품, 신발·가방 등의 판매가 부진하면서 소비가 줄었는데 전남(-6.0%), 대전(-5.8%), 인천(-5.6%) 순으로 감소폭이 컸다.한편 2분기 전국의 소비자물가 상승률은 0.5%에 그쳤다.전남, 충북 지역이 작년 같은 기간보다 0.2% 하락했고, 가장 많이 오른 서울(0.9%)이나 부산(0.8%), 인천(0.8%)도 0%대에 머물렀다.체감물가를 나타내는 전국 생활물가는 1년 전 대비 -0.4%를 기록해 2분기 연속 하락세를 이어갔다. 부산·제주(0.1%), 서울(0.0%)을 제외한 모든 시도에서 하락세가 관측됐다.통계청은 "주류와 담배, 음식·숙박 부문의 가격은 상승했지만 저유가 영향이 계속돼 교통, 주택·수도·광열 부문의 가격이 내렸다"고 설명했다.전국 취업자 수는 올 2분기에 총 2610만 명으로 작년 같은 기간보다 1.2% 늘었다. 지역별로는 부산(-1.0%)과 광주(-0.9%)가 도소매업 및 교육업 등의 부진으로 감소했다. 제주(4.4%) 및 충남(3.2%)은 도소매업과 건설업, 제조업 부문의 고용이 늘면서 증가세를 보였다. #제주도 #중국 #중국관광객 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 일본, 오늘부터 한국인 무비자 관광 허용…2년 7개월만 일본 정부는 11일부터 한국 등 68개 국가·지역을 대상으로 무비자(사증 면제) 일본 입국을 다시 허용한다. 이에 따라 한국인도 비자 없이 관광, 친족 방문, 견학, 시찰, 단기 상용(商用) 등의 목적으로 최대 90일간 일본에 머물 수 있게 됐다. 한국인에 대한 무비자 입국을 재개하는 것은 약 2년 7개월 만이다. 일본 정부는 2020년 3월 9일부터 오늘부터 개량백신 접종 개시…60세 미만은 잔여백신 신청 가능 11일부터 오미크론 변이에 대응하는 코로나19 개량백신 접종이 시작된다. 개량백신은 기존 백신보다 1.6배 이상 효과를 내는 것으로 알려졌다. 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가접종이 개시된다. 이번 접종에 활용되는 개량백신은 코로나19 바이러스 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 바이오 기업공개(IPO) 시장에 칼바람이 매섭다. 올해 상장한 기업들의 주가가 맥을 못 추는 것은 물론 수요예측 참패까지 이어지면서 IPO를 앞둔 기업들이 난색을 보이고 있다. 10일 본지 취재에 따르면 올해 국내 증시에 상장한 바이오기업 8곳 가운데 7곳은 공모가 대비 수익률이 마이너스(-)를 기록하고 있다. 특히 상반기 상장 기업들의 수 올 들어 가장 추운 출근길…내일도 5도로 ‘쌀쌀’ 11일 아침 최저기온이 3도에 이르는 등 출근길 추운 날씨가 예상된다. 북서쪽에서 내려온 차가운 공기로 인해 이날 대부분의 지역 아침 기온이 5도 내외까지 떨어졌다.올 가을 들어 가장 추운 날씨다. 지역별 아침 최저기온은 △서울 7도 △인천 7도 △대전 8도 △광주 12도 △대구 11도 △울산 11도 △ 부산 11도 등이다. 낮 기온은 16~21도까지 오르 러, '러시아워' 노려 우크라 도시 공습…사상자 속출 러, 12개 주요 도시 미사일 공습 단행 사망자 최소 14명...계속 늘어나고 있어 러시아가 우크라이나 수도 키이우를 비롯해 주요 12개 도시에 대대적인 미사일 공습을 감행해 사망자가 최소 14명 발생했다. 10일(현지시간) 뉴욕타임스(NYT) 등에 따르면 러시아는 이날 오전 수도 키이우를 포함해 리비우, 하르키우 등 최소 12개 도시에서 84발에 노벨 경제학상에 ‘은행ㆍ금융위기 연구’ 버냉키ㆍ다이아몬드ㆍ딥비그 스웨덴 왕립과학원 노벨위원회는 10일(현지시간) 올해의 노벨 경제학상 수상자로 벤 버냉키와 더글러스 다이아몬드, 필립 딥비그를 선정했다고 발표했다. 노벨위원회는 “세 사람은 ‘은행과 금융위기에 대한 연구’에 대한 공로로 수상하게 됐다”고 밝혔다. 이어 “이들은 특히 금융위기 동안 경제에서 은행의 역할에 대한 우리의 이해도를 크게 향 많이 본 뉴스 01 전장연, 지하철 4호선 출근길 시위…“지연 우려” 02 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 03 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 04 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 05 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 06 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 07 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 08 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 09 GS25, ‘박재범 원소주’ 이어 ‘버터맥주’도 완판 행진 10 ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 경제 최신 뉴스 고용보험 가입자 증가 폭 10개월 만에 최소…20대 이하는 '마이너스' 전환 KDI "경기 회복세 약화...반도체ㆍ대중수출 부진 경기하방 위험↑" 이창용 한은 총재, 15일 피터슨 국제경제연구소서 ‘한국의 통화정책’ 강연 정부 "김장철·연말에 182억 상당 농축수산물 쿠폰 배포" 박일준 산업차관 "미래형 태양광으로 산업생태계 경쟁력 강화" 국감장 선 '적자 늪' 한전 "비장한 각오로 임하고 있다" 내년부터 전기차 배터리 등 ESS로 안전하게 재사용한다 국도 23호선 장흥 대덕~용산면ㆍ국도 3호선 거창~김천 구간 개통 [국감 핫이슈] "해양진흥공사, HMM 2025년 말 민영화 완료 정부 보고" [코로나19 현황] 국내 확진자 ‘총 2499만5246명’ 1만5476명 추가…추가 사망자 10명- 10월 11일 0시 뉴스발전소 [인포그래픽] 비 오는 한글날, 태극기 다는 법 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] '북적이는 2022 한국제약바이오 채용박람회' 마켓 뉴스 특징주 투자전략 삼성바이오로직스, 3분기 역대 최대 실적 전망에도 약세 현대차·기아, 'UBS' 자동차 등급 하향에 4% 넘게 '동반 급락' SK하이닉스, 美 대중 반도체 수출규제에 약세 크래프톤, 증권가 목표가 하향에 6%↓ 카카오게임즈, 펄어비스 52주 신저가 기록 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 11:51 20분지연 코스피 코스닥 1.다이나믹디자인 3,200 2.화천기계 1,290 3.베트남개발1 62 4.유니온머티리얼 350 5.STX 320 1.테라셈 22 2.코아스템 2,680 3.동국알앤에스 800 4.코디엠 121 5.iMBC 810 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,373,000 -1.47% 이더리움 1,837,000 -2.91% 비트코인 캐시 158,800 -5.42% 리플 708.7 -6.39% 위믹스 2,402 -5.54% 에이다 567 -6.36% 이오스 1,482 -7.78% 트론 88.56 -0.67% 스텔라루멘 176.5 -3.34% 비트코인에스브이 67,900 -3.96% 체인링크 10,390 -5.11% 샌드박스 1,131 -5.51% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
   </si>
 </sst>
 </file>
@@ -434,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -475,7 +643,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -485,9 +653,6 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -497,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,7 +673,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -518,19 +683,13 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -538,10 +697,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -549,10 +708,423 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
         <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
